--- a/analyses/5_industry_analysis.xlsx
+++ b/analyses/5_industry_analysis.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22060" tabRatio="835" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="800" yWindow="0" windowWidth="25120" windowHeight="15380" tabRatio="835" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="531">
   <si>
     <t>Changelog</t>
   </si>
@@ -1780,6 +1780,12 @@
   </si>
   <si>
     <t>The consumption of coal gas is only included for the metal industry. Coal gas consumption in other industrial sectors is ignored in the ETM.</t>
+  </si>
+  <si>
+    <t>May 22, 2014</t>
+  </si>
+  <si>
+    <t>Increased robustness of share calculations. All final demand shares toward the sub-sectors are calculated with an IF statement to avoid #DIV/0! Errors in case of zero total energy flows.</t>
   </si>
 </sst>
 </file>
@@ -2715,7 +2721,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1323">
+  <cellStyleXfs count="1327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4039,8 +4045,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="541">
+  <cellXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5112,8 +5122,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1323">
+  <cellStyles count="1327">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -5775,6 +5786,8 @@
     <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -6434,6 +6447,8 @@
     <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="772"/>
@@ -11123,7 +11138,7 @@
       </c>
       <c r="C5" s="23">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -12090,10 +12105,10 @@
   <sheetPr codeName="Sheet12" enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:E44"/>
+  <dimension ref="B2:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12105,12 +12120,12 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20">
+    <row r="2" spans="2:7" ht="20">
       <c r="B2" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:7">
       <c r="B4" s="3" t="s">
         <v>83</v>
       </c>
@@ -12118,7 +12133,7 @@
       <c r="D4" s="387"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:7">
       <c r="B5" s="531" t="s">
         <v>505</v>
       </c>
@@ -12126,8 +12141,8 @@
       <c r="D5" s="532"/>
       <c r="E5" s="533"/>
     </row>
-    <row r="6" spans="2:5" ht="16" thickBot="1"/>
-    <row r="7" spans="2:5">
+    <row r="6" spans="2:7" ht="16" thickBot="1"/>
+    <row r="7" spans="2:7">
       <c r="B7" s="329" t="s">
         <v>404</v>
       </c>
@@ -12135,13 +12150,13 @@
       <c r="D7" s="388"/>
       <c r="E7" s="334"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:7">
       <c r="B8" s="239"/>
       <c r="C8" s="15"/>
       <c r="D8" s="389"/>
       <c r="E8" s="335"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:7">
       <c r="B9" s="239" t="s">
         <v>407</v>
       </c>
@@ -12153,7 +12168,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:7">
       <c r="B10" s="330" t="s">
         <v>193</v>
       </c>
@@ -12161,7 +12176,7 @@
       <c r="D10" s="387"/>
       <c r="E10" s="110"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:7">
       <c r="B11" s="331"/>
       <c r="C11" s="111" t="s">
         <v>232</v>
@@ -12170,12 +12185,13 @@
         <f>'Energetic final demand'!D17</f>
         <v>0</v>
       </c>
-      <c r="E11" s="292" t="e">
-        <f>D11/SUM($D$11:$D$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
+      <c r="E11" s="292">
+        <f>IF(SUM($D$11:$D$13)=0,0,D11/SUM($D$11:$D$13))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="541"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="331"/>
       <c r="C12" s="111" t="s">
         <v>448</v>
@@ -12184,12 +12200,12 @@
         <f>'Energetic final demand'!D20</f>
         <v>0</v>
       </c>
-      <c r="E12" s="292" t="e">
-        <f>D12/SUM($D$11:$D$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
+      <c r="E12" s="292">
+        <f t="shared" ref="E12:E13" si="0">IF(SUM($D$11:$D$13)=0,0,D12/SUM($D$11:$D$13))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="331"/>
       <c r="C13" s="111" t="s">
         <v>82</v>
@@ -12198,18 +12214,18 @@
         <f>'Energetic final demand'!D25</f>
         <v>0</v>
       </c>
-      <c r="E13" s="292" t="e">
-        <f>D13/SUM($D$11:$D$13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
+      <c r="E13" s="292">
+        <f>IF(SUM($D$11:$D$13)=0,1,D13/SUM($D$11:$D$13))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="33"/>
       <c r="C14" s="7"/>
       <c r="D14" s="339"/>
       <c r="E14" s="293"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:7">
       <c r="B15" s="330" t="s">
         <v>240</v>
       </c>
@@ -12217,7 +12233,7 @@
       <c r="D15" s="392"/>
       <c r="E15" s="294"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:7">
       <c r="B16" s="331"/>
       <c r="C16" s="111" t="s">
         <v>232</v>
@@ -12226,9 +12242,9 @@
         <f>'Energetic final demand'!G17</f>
         <v>0</v>
       </c>
-      <c r="E16" s="292" t="e">
-        <f>D16/SUM($D$16:$D$18)</f>
-        <v>#DIV/0!</v>
+      <c r="E16" s="292">
+        <f>IF(SUM($D$16:$D$18)=0,0,D16/SUM($D$16:$D$18))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -12240,9 +12256,9 @@
         <f>'Energetic final demand'!G20</f>
         <v>0</v>
       </c>
-      <c r="E17" s="292" t="e">
-        <f>D17/SUM($D$16:$D$18)</f>
-        <v>#DIV/0!</v>
+      <c r="E17" s="292">
+        <f>IF(SUM($D$16:$D$18)=0,0,D17/SUM($D$16:$D$18))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -12254,9 +12270,9 @@
         <f>'Energetic final demand'!G25</f>
         <v>0</v>
       </c>
-      <c r="E18" s="292" t="e">
-        <f>D18/SUM($D$16:$D$18)</f>
-        <v>#DIV/0!</v>
+      <c r="E18" s="292">
+        <f>IF(SUM($D$16:$D$18)=0,1,D18/SUM($D$16:$D$18))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -12282,9 +12298,9 @@
         <f>'Energetic final demand'!H17</f>
         <v>0</v>
       </c>
-      <c r="E21" s="292" t="e">
-        <f>D21/SUM($D$21:$D$23)</f>
-        <v>#DIV/0!</v>
+      <c r="E21" s="292">
+        <f>IF(SUM($D$21:$D$23)=0,0,D21/SUM($D$21:$D$23))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -12296,9 +12312,9 @@
         <f>'Energetic final demand'!H20</f>
         <v>0</v>
       </c>
-      <c r="E22" s="292" t="e">
-        <f>D22/SUM($D$21:$D$23)</f>
-        <v>#DIV/0!</v>
+      <c r="E22" s="292">
+        <f>IF(SUM($D$21:$D$23)=0,0,D22/SUM($D$21:$D$23))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -12310,9 +12326,9 @@
         <f>'Energetic final demand'!H25</f>
         <v>0</v>
       </c>
-      <c r="E23" s="292" t="e">
-        <f>D23/SUM($D$21:$D$23)</f>
-        <v>#DIV/0!</v>
+      <c r="E23" s="292">
+        <f>IF(SUM($D$21:$D$23)=0,1,D23/SUM($D$21:$D$23))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -12338,9 +12354,9 @@
         <f>'Energetic final demand'!I17</f>
         <v>0</v>
       </c>
-      <c r="E26" s="292" t="e">
-        <f>D26/SUM($D$26:$D$28)</f>
-        <v>#DIV/0!</v>
+      <c r="E26" s="292">
+        <f>IF(SUM($D$26:$D$28)=0,0,D26/SUM($D$26:$D$28))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -12352,9 +12368,9 @@
         <f>'Energetic final demand'!I20</f>
         <v>0</v>
       </c>
-      <c r="E27" s="292" t="e">
-        <f>D27/SUM($D$26:$D$28)</f>
-        <v>#DIV/0!</v>
+      <c r="E27" s="292">
+        <f>IF(SUM($D$26:$D$28)=0,0,D27/SUM($D$26:$D$28))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -12366,9 +12382,9 @@
         <f>'Energetic final demand'!I25</f>
         <v>0</v>
       </c>
-      <c r="E28" s="292" t="e">
-        <f>D28/SUM($D$26:$D$28)</f>
-        <v>#DIV/0!</v>
+      <c r="E28" s="292">
+        <f>IF(SUM($D$26:$D$28)=0,1,D28/SUM($D$26:$D$28))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -12394,9 +12410,9 @@
         <f>'Energetic final demand'!J17</f>
         <v>0</v>
       </c>
-      <c r="E31" s="292" t="e">
-        <f>D31/SUM($D$31:$D$33)</f>
-        <v>#DIV/0!</v>
+      <c r="E31" s="292">
+        <f>IF(SUM($D$31:$D$33)=0,0,D31/SUM($D$31:$D$33))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -12408,9 +12424,9 @@
         <f>'Energetic final demand'!J20</f>
         <v>0</v>
       </c>
-      <c r="E32" s="292" t="e">
-        <f>D32/SUM($D$31:$D$33)</f>
-        <v>#DIV/0!</v>
+      <c r="E32" s="292">
+        <f>IF(SUM($D$31:$D$33)=0,0,D32/SUM($D$31:$D$33))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -12422,9 +12438,9 @@
         <f>'Energetic final demand'!J25</f>
         <v>0</v>
       </c>
-      <c r="E33" s="292" t="e">
-        <f>D33/SUM($D$31:$D$33)</f>
-        <v>#DIV/0!</v>
+      <c r="E33" s="292">
+        <f>IF(SUM($D$31:$D$33)=0,1,D33/SUM($D$31:$D$33))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -12450,9 +12466,9 @@
         <f>'Energetic final demand'!K17</f>
         <v>0</v>
       </c>
-      <c r="E36" s="292" t="e">
-        <f>D36/SUM($D$36:$D$38)</f>
-        <v>#DIV/0!</v>
+      <c r="E36" s="292">
+        <f>IF(SUM($D$36:$D$38)=0,0,D36/SUM($D$36:$D$38))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -12464,9 +12480,9 @@
         <f>'Energetic final demand'!K20</f>
         <v>0</v>
       </c>
-      <c r="E37" s="292" t="e">
-        <f>D37/SUM($D$36:$D$38)</f>
-        <v>#DIV/0!</v>
+      <c r="E37" s="292">
+        <f>IF(SUM($D$36:$D$38)=0,0,D37/SUM($D$36:$D$38))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -12478,9 +12494,9 @@
         <f>'Energetic final demand'!K25</f>
         <v>0</v>
       </c>
-      <c r="E38" s="292" t="e">
-        <f>D38/SUM($D$36:$D$38)</f>
-        <v>#DIV/0!</v>
+      <c r="E38" s="292">
+        <f>IF(SUM($D$36:$D$38)=0,1,D38/SUM($D$36:$D$38))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -12567,7 +12583,7 @@
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="B7:E25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12644,9 +12660,9 @@
         <f>'Non-energetic final demand'!D13</f>
         <v>0</v>
       </c>
-      <c r="E11" s="292" t="e">
-        <f>D11/SUM($D$11:$D$12)</f>
-        <v>#DIV/0!</v>
+      <c r="E11" s="292">
+        <f>IF(SUM($D$11:$D$12)=0,0,D11/SUM($D$11:$D$12))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -12658,9 +12674,9 @@
         <f>'Non-energetic final demand'!D14</f>
         <v>0</v>
       </c>
-      <c r="E12" s="292" t="e">
-        <f>D12/SUM($D$11:$D$12)</f>
-        <v>#DIV/0!</v>
+      <c r="E12" s="292">
+        <f>IF(SUM($D$11:$D$12)=0,1,D12/SUM($D$11:$D$12))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -12686,9 +12702,9 @@
         <f>'Non-energetic final demand'!G13</f>
         <v>0</v>
       </c>
-      <c r="E15" s="292" t="e">
-        <f>D15/SUM($D$15:$D$16)</f>
-        <v>#DIV/0!</v>
+      <c r="E15" s="292">
+        <f>IF(SUM($D$15:$D$16)=0,0,D15/SUM($D$15:$D$16))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -12700,9 +12716,9 @@
         <f>'Non-energetic final demand'!G14</f>
         <v>0</v>
       </c>
-      <c r="E16" s="292" t="e">
-        <f>D16/SUM($D$15:$D$16)</f>
-        <v>#DIV/0!</v>
+      <c r="E16" s="292">
+        <f>IF(SUM($D$15:$D$16)=0,1,D16/SUM($D$15:$D$16))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -12728,9 +12744,9 @@
         <f>'Non-energetic final demand'!H13</f>
         <v>0</v>
       </c>
-      <c r="E19" s="292" t="e">
-        <f>D19/SUM($D$19:$D$20)</f>
-        <v>#DIV/0!</v>
+      <c r="E19" s="292">
+        <f>IF(SUM($D$19:$D$20)=0,0,D19/SUM($D$19:$D$20))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -12742,9 +12758,9 @@
         <f>'Non-energetic final demand'!H14</f>
         <v>0</v>
       </c>
-      <c r="E20" s="292" t="e">
-        <f>D20/SUM($D$19:$D$20)</f>
-        <v>#DIV/0!</v>
+      <c r="E20" s="292">
+        <f>IF(SUM($D$19:$D$20)=0,1,D20/SUM($D$19:$D$20))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -13258,7 +13274,7 @@
         <v>269</v>
       </c>
       <c r="G20" s="430">
-        <f t="shared" ref="F20:L20" si="2">SUM(G19:G19)</f>
+        <f t="shared" ref="G20:L20" si="2">SUM(G19:G19)</f>
         <v>0</v>
       </c>
       <c r="H20" s="430">
@@ -15928,10 +15944,10 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="B2:D57"/>
+  <dimension ref="B2:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16514,15 +16530,26 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="156"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="159"/>
+    <row r="56" spans="2:4" ht="60">
+      <c r="B56" s="156" t="s">
+        <v>529</v>
+      </c>
+      <c r="C56" s="158" t="s">
+        <v>530</v>
+      </c>
+      <c r="D56" s="159">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="17"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="254"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="159"/>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="17"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="254"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17439,27 +17466,27 @@
       <c r="A3" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="453" t="e">
+      <c r="B3" s="453">
         <f>'Shares energetic final demand'!E11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>449</v>
       </c>
-      <c r="B4" s="453" t="e">
+      <c r="B4" s="453">
         <f>'Shares energetic final demand'!E12</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="122" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="453" t="e">
+      <c r="B5" s="453">
         <f>'Shares energetic final demand'!E13</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17504,27 +17531,27 @@
       <c r="A3" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="453" t="e">
+      <c r="B3" s="453">
         <f>'Shares energetic final demand'!E16</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>451</v>
       </c>
-      <c r="B4" s="453" t="e">
+      <c r="B4" s="453">
         <f>'Shares energetic final demand'!E17</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="122" t="s">
         <v>297</v>
       </c>
-      <c r="B5" s="453" t="e">
+      <c r="B5" s="453">
         <f>'Shares energetic final demand'!E18</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17570,27 +17597,27 @@
       <c r="A3" s="122" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="454" t="e">
+      <c r="B3" s="454">
         <f>'Shares energetic final demand'!E21</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="122" t="s">
         <v>452</v>
       </c>
-      <c r="B4" s="454" t="e">
+      <c r="B4" s="454">
         <f>'Shares energetic final demand'!E22</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="122" t="s">
         <v>300</v>
       </c>
-      <c r="B5" s="454" t="e">
+      <c r="B5" s="454">
         <f>'Shares energetic final demand'!E23</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17636,27 +17663,27 @@
       <c r="A3" s="122" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="454" t="e">
+      <c r="B3" s="454">
         <f>'Shares energetic final demand'!E26</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="122" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="454" t="e">
+      <c r="B4" s="454">
         <f>'Shares energetic final demand'!E27</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="122" t="s">
         <v>304</v>
       </c>
-      <c r="B5" s="454" t="e">
+      <c r="B5" s="454">
         <f>'Shares energetic final demand'!E28</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17702,27 +17729,27 @@
       <c r="A3" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="B3" s="454" t="e">
+      <c r="B3" s="454">
         <f>'Shares energetic final demand'!E31</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="122" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="454" t="e">
+      <c r="B4" s="454">
         <f>'Shares energetic final demand'!E32</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="122" t="s">
         <v>303</v>
       </c>
-      <c r="B5" s="454" t="e">
+      <c r="B5" s="454">
         <f>'Shares energetic final demand'!E33</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17767,27 +17794,27 @@
       <c r="A3" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="453" t="e">
+      <c r="B3" s="453">
         <f>'Shares energetic final demand'!E36</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>450</v>
       </c>
-      <c r="B4" s="453" t="e">
+      <c r="B4" s="453">
         <f>'Shares energetic final demand'!E37</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="122" t="s">
         <v>291</v>
       </c>
-      <c r="B5" s="453" t="e">
+      <c r="B5" s="453">
         <f>'Shares energetic final demand'!E38</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17829,18 +17856,18 @@
       <c r="A3" t="s">
         <v>456</v>
       </c>
-      <c r="B3" s="453" t="e">
+      <c r="B3" s="453">
         <f>'Shares non-energ final demand'!E11</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="122" t="s">
         <v>457</v>
       </c>
-      <c r="B4" s="453" t="e">
+      <c r="B4" s="453">
         <f>'Shares non-energ final demand'!E12</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17882,18 +17909,18 @@
       <c r="A3" t="s">
         <v>459</v>
       </c>
-      <c r="B3" s="453" t="e">
+      <c r="B3" s="453">
         <f>'Shares non-energ final demand'!E15</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="122" t="s">
         <v>460</v>
       </c>
-      <c r="B4" s="453" t="e">
+      <c r="B4" s="453">
         <f>'Shares non-energ final demand'!E16</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -18255,18 +18282,18 @@
       <c r="A3" t="s">
         <v>462</v>
       </c>
-      <c r="B3" s="453" t="e">
+      <c r="B3" s="453">
         <f>'Shares non-energ final demand'!E19</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="122" t="s">
         <v>463</v>
       </c>
-      <c r="B4" s="453" t="e">
+      <c r="B4" s="453">
         <f>'Shares non-energ final demand'!E20</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/analyses/5_industry_analysis.xlsx
+++ b/analyses/5_industry_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="835" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="835" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="693">
   <si>
     <t>Changelog</t>
   </si>
@@ -1833,21 +1833,12 @@
     <t>Total non-energetic final consumption excl. refineries</t>
   </si>
   <si>
-    <t>Non-energetic consumption in Chemical industry sub-sector in ETM</t>
-  </si>
-  <si>
-    <t>Of which refineries</t>
-  </si>
-  <si>
     <t>Non-energetic consumption in Chemical industry sub-sector in EB (excl. refineries)</t>
   </si>
   <si>
     <t>Own use in refineries</t>
   </si>
   <si>
-    <t>Non-energetic final demand in referinies on energy balance</t>
-  </si>
-  <si>
     <t>Fuel Aggregation subsectors</t>
   </si>
   <si>
@@ -1879,9 +1870,6 @@
   </si>
   <si>
     <t>In this sheet the Energetic final demand in the Other industy sector is calculated from the own use and energetic consumption of the whole industry and the own use and energetic consumption in the Metal industry and Chemical industry sector. The Energetic final demand of the Metal industry sector is equal to the Energetic consumption, because the Own use is modelled outside the sector in the transformation part.</t>
-  </si>
-  <si>
-    <t>In this sheet the non-energetic final demand in the Other industy sub-sector from the whole industry and the Metal industry and Chemical industry sector.</t>
   </si>
   <si>
     <t>In this sheet the transformation that is not modelled in sectors is calculated to validate the sector modelling and to enable correction through coal loss calculations.</t>
@@ -2412,6 +2400,9 @@
   </si>
   <si>
     <t>Rob Terwel</t>
+  </si>
+  <si>
+    <t>In this sheet the non-energetic final demand in the Other industy sub-sector from the whole industry and the Metal industry and Chemical industry sector. The  non-energetic final demand for crude oil of the chemical industry is corrected for the oil products which refineries produce for the petrochemical industry; it is imported from the 'Non-energetic cons analysis' tab.</t>
   </si>
 </sst>
 </file>
@@ -3360,7 +3351,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1462">
+  <cellStyleXfs count="1470">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4823,8 +4814,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="584">
+  <cellXfs count="588">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5937,6 +5936,18 @@
     <xf numFmtId="3" fontId="22" fillId="15" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6010,7 +6021,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1462">
+  <cellStyles count="1470">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -6741,6 +6752,10 @@
     <cellStyle name="Followed Hyperlink" xfId="1457" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1459" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1469" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -7469,6 +7484,10 @@
     <cellStyle name="Hyperlink" xfId="1456" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1458" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1460" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1462" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1464" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1466" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1468" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="772"/>
@@ -12478,67 +12497,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7213600" cy="769441"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10490200" y="609600"/>
-          <a:ext cx="7213600" cy="769441"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Cell H17</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> has been set to a hard-coded zero; when refineries are modelled better, it should be replaced with =SUM('Corrected energy balance step 2'![Cells[)), with Cells representing the EB transformation input for refineries as specified on row 33 of the EB, identical to that of the chemical_industry_analysis. In addition, it should be added to the demand of the node industry_final_demand_for_chemical_refineries_crude_oil_non_energetic</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -13405,7 +13363,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -13600,7 +13558,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13681,13 +13639,13 @@
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
       <c r="A5" s="76"/>
-      <c r="B5" s="566" t="s">
+      <c r="B5" s="570" t="s">
         <v>475</v>
       </c>
-      <c r="C5" s="567"/>
-      <c r="D5" s="567"/>
-      <c r="E5" s="567"/>
-      <c r="F5" s="568"/>
+      <c r="C5" s="571"/>
+      <c r="D5" s="571"/>
+      <c r="E5" s="571"/>
+      <c r="F5" s="572"/>
       <c r="H5" s="76"/>
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>
@@ -14183,11 +14141,11 @@
       <c r="E4" s="84"/>
     </row>
     <row r="5" spans="2:7" ht="60" customHeight="1">
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="573" t="s">
         <v>479</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="570"/>
+      <c r="C5" s="574"/>
+      <c r="D5" s="574"/>
       <c r="E5" s="84"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1">
@@ -14257,7 +14215,7 @@
       </c>
       <c r="D12" s="482"/>
       <c r="E12" s="482" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F12" s="484"/>
       <c r="G12" s="481">
@@ -14272,7 +14230,7 @@
       </c>
       <c r="D13" s="482"/>
       <c r="E13" s="482" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F13" s="484"/>
       <c r="G13" s="481">
@@ -14287,7 +14245,7 @@
       </c>
       <c r="D14" s="482"/>
       <c r="E14" s="482" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F14" s="484"/>
       <c r="G14" s="481">
@@ -14302,7 +14260,7 @@
       </c>
       <c r="D15" s="482"/>
       <c r="E15" s="482" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F15" s="484"/>
       <c r="G15" s="481">
@@ -14366,12 +14324,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="571" t="s">
-        <v>530</v>
-      </c>
-      <c r="C5" s="572"/>
-      <c r="D5" s="572"/>
-      <c r="E5" s="573"/>
+      <c r="B5" s="575" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="576"/>
+      <c r="D5" s="576"/>
+      <c r="E5" s="577"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1"/>
     <row r="7" spans="2:7">
@@ -14812,7 +14770,7 @@
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14838,12 +14796,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1">
-      <c r="B5" s="571" t="s">
-        <v>531</v>
-      </c>
-      <c r="C5" s="572"/>
-      <c r="D5" s="572"/>
-      <c r="E5" s="573"/>
+      <c r="B5" s="575" t="s">
+        <v>528</v>
+      </c>
+      <c r="C5" s="576"/>
+      <c r="D5" s="576"/>
+      <c r="E5" s="577"/>
     </row>
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5">
@@ -14886,7 +14844,7 @@
         <v>428</v>
       </c>
       <c r="D11" s="390">
-        <f>'Non-energetic FD sectors'!D14</f>
+        <f>'Non-energetic FD sectors'!D13</f>
         <v>0</v>
       </c>
       <c r="E11" s="292">
@@ -14900,7 +14858,7 @@
         <v>82</v>
       </c>
       <c r="D12" s="390">
-        <f>'Non-energetic FD sectors'!D15</f>
+        <f>'Non-energetic FD sectors'!D14</f>
         <v>0</v>
       </c>
       <c r="E12" s="292">
@@ -14928,7 +14886,7 @@
         <v>428</v>
       </c>
       <c r="D15" s="390">
-        <f>'Non-energetic FD sectors'!G14</f>
+        <f>'Non-energetic FD sectors'!G13</f>
         <v>0</v>
       </c>
       <c r="E15" s="292">
@@ -14942,7 +14900,7 @@
         <v>82</v>
       </c>
       <c r="D16" s="390">
-        <f>'Non-energetic FD sectors'!G15</f>
+        <f>'Non-energetic FD sectors'!G14</f>
         <v>0</v>
       </c>
       <c r="E16" s="292">
@@ -14970,7 +14928,7 @@
         <v>428</v>
       </c>
       <c r="D19" s="390">
-        <f>'Non-energetic FD sectors'!H14</f>
+        <f>'Non-energetic FD sectors'!H13</f>
         <v>0</v>
       </c>
       <c r="E19" s="292">
@@ -14984,7 +14942,7 @@
         <v>82</v>
       </c>
       <c r="D20" s="390">
-        <f>'Non-energetic FD sectors'!H15</f>
+        <f>'Non-energetic FD sectors'!H14</f>
         <v>0</v>
       </c>
       <c r="E20" s="292">
@@ -15012,7 +14970,7 @@
         <v>428</v>
       </c>
       <c r="D23" s="390">
-        <f>'Non-energetic FD sectors'!I14</f>
+        <f>'Non-energetic FD sectors'!I13</f>
         <v>0</v>
       </c>
       <c r="E23" s="292">
@@ -15026,7 +14984,7 @@
         <v>82</v>
       </c>
       <c r="D24" s="390">
-        <f>'Non-energetic FD sectors'!I15</f>
+        <f>'Non-energetic FD sectors'!I14</f>
         <v>0</v>
       </c>
       <c r="E24" s="292">
@@ -15105,14 +15063,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1">
-      <c r="B5" s="569" t="s">
-        <v>532</v>
-      </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="570"/>
-      <c r="E5" s="570"/>
-      <c r="F5" s="570"/>
-      <c r="G5" s="574"/>
+      <c r="B5" s="573" t="s">
+        <v>529</v>
+      </c>
+      <c r="C5" s="574"/>
+      <c r="D5" s="574"/>
+      <c r="E5" s="574"/>
+      <c r="F5" s="574"/>
+      <c r="G5" s="578"/>
     </row>
     <row r="6" spans="1:12" ht="16" thickBot="1"/>
     <row r="7" spans="1:12">
@@ -15234,7 +15192,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="160"/>
       <c r="B12" s="178" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C12" s="208"/>
       <c r="D12" s="427">
@@ -15790,16 +15748,16 @@
   <sheetPr codeName="Sheet15" enableFormatConditionsCalculation="0">
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="76"/>
-    <col min="2" max="2" width="54" style="76" customWidth="1"/>
+    <col min="2" max="2" width="68" style="76" customWidth="1"/>
     <col min="3" max="3" width="2.83203125" style="202" customWidth="1"/>
     <col min="4" max="12" width="15.83203125" style="76" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="76"/>
@@ -15835,15 +15793,15 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="2:12" ht="29" customHeight="1">
-      <c r="B5" s="569" t="s">
-        <v>533</v>
-      </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="570"/>
-      <c r="E5" s="570"/>
-      <c r="F5" s="570"/>
-      <c r="G5" s="574"/>
+    <row r="5" spans="2:12" ht="44" customHeight="1">
+      <c r="B5" s="573" t="s">
+        <v>692</v>
+      </c>
+      <c r="C5" s="574"/>
+      <c r="D5" s="574"/>
+      <c r="E5" s="574"/>
+      <c r="F5" s="574"/>
+      <c r="G5" s="578"/>
     </row>
     <row r="6" spans="2:12" ht="16" thickBot="1"/>
     <row r="7" spans="2:12">
@@ -15962,13 +15920,13 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" s="178" t="s">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="C12" s="197" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D12" s="427">
-        <f>'Non-energetic cons analysis'!D17</f>
+        <f>'Non-energetic cons analysis'!D14</f>
         <v>0</v>
       </c>
       <c r="E12" s="407" t="s">
@@ -15978,179 +15936,137 @@
         <v>264</v>
       </c>
       <c r="G12" s="427">
-        <f>'Non-energetic cons analysis'!G17</f>
+        <f>'Non-energetic cons analysis'!G14</f>
         <v>0</v>
       </c>
       <c r="H12" s="427">
-        <f>'Non-energetic cons analysis'!H17</f>
+        <f>'Non-energetic cons analysis'!H14</f>
         <v>0</v>
       </c>
       <c r="I12" s="427">
-        <f>'Non-energetic cons analysis'!I17</f>
+        <f>'Non-energetic cons analysis'!I14</f>
         <v>0</v>
       </c>
       <c r="J12" s="427">
-        <f>'Non-energetic cons analysis'!J17</f>
+        <f>'Non-energetic cons analysis'!J14</f>
         <v>0</v>
       </c>
       <c r="K12" s="427">
-        <f>'Non-energetic cons analysis'!K17</f>
+        <f>'Non-energetic cons analysis'!K14</f>
         <v>0</v>
       </c>
       <c r="L12" s="402">
-        <f>'Non-energetic cons analysis'!L17</f>
+        <f>'Non-energetic cons analysis'!L14</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:12">
       <c r="B13" s="178" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C13" s="197" t="s">
         <v>264</v>
       </c>
-      <c r="D13" s="427">
-        <f>'Non-energetic cons analysis'!D14</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="407" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="407" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="427">
-        <f>'Non-energetic cons analysis'!G14</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="427">
-        <f>'Non-energetic cons analysis'!H14</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="427">
-        <f>'Non-energetic cons analysis'!I14</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="427">
-        <f>'Non-energetic cons analysis'!J14</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="427">
-        <f>'Non-energetic cons analysis'!K14</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="402">
-        <f>'Non-energetic cons analysis'!L14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="179" t="s">
-        <v>486</v>
-      </c>
-      <c r="C14" s="200" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="500">
+      <c r="D13" s="469">
         <f>'Non-energetic cons analysis'!D16</f>
         <v>0</v>
       </c>
-      <c r="E14" s="439" t="str">
+      <c r="E13" s="407" t="str">
         <f>'Non-energetic cons analysis'!E16</f>
         <v>-</v>
       </c>
-      <c r="F14" s="439" t="str">
+      <c r="F13" s="407">
         <f>'Non-energetic cons analysis'!F16</f>
-        <v>-</v>
-      </c>
-      <c r="G14" s="428">
+        <v>0</v>
+      </c>
+      <c r="G13" s="407">
         <f>'Non-energetic cons analysis'!G16</f>
         <v>0</v>
       </c>
-      <c r="H14" s="428">
-        <f>'Non-energetic cons analysis'!H16</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="428">
+      <c r="H13" s="407">
+        <f>'Import from Chemical analysis'!G11</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="407">
         <f>'Non-energetic cons analysis'!I16</f>
         <v>0</v>
       </c>
-      <c r="J14" s="428">
+      <c r="J13" s="407">
         <f>'Non-energetic cons analysis'!J16</f>
         <v>0</v>
       </c>
-      <c r="K14" s="428">
+      <c r="K13" s="407">
         <f>'Non-energetic cons analysis'!K16</f>
         <v>0</v>
       </c>
-      <c r="L14" s="443">
+      <c r="L13" s="402">
         <f>'Non-energetic cons analysis'!L16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="178" t="s">
+    <row r="14" spans="2:12">
+      <c r="B14" s="178" t="s">
         <v>328</v>
       </c>
-      <c r="C15" s="197"/>
-      <c r="D15" s="431">
-        <f>D11+D12-D13-D14</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="441" t="s">
+      <c r="C14" s="197"/>
+      <c r="D14" s="561">
+        <f>D11-D12-D13</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="562" t="s">
         <v>264</v>
       </c>
-      <c r="F15" s="441" t="s">
+      <c r="F14" s="562" t="s">
         <v>264</v>
       </c>
-      <c r="G15" s="431">
-        <f t="shared" ref="G15:L15" si="0">G11+G12-G13-G14</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="431">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="431">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="431">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="431">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="444">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="16" thickBot="1">
-      <c r="B16" s="180"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="411"/>
-      <c r="E16" s="411"/>
-      <c r="F16" s="411"/>
-      <c r="G16" s="411"/>
-      <c r="H16" s="411"/>
-      <c r="I16" s="411"/>
-      <c r="J16" s="411"/>
-      <c r="K16" s="411"/>
-      <c r="L16" s="433"/>
+      <c r="G14" s="563">
+        <f>G11+G12-G13</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="563">
+        <f>'Non-energetic cons analysis'!H19</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="563">
+        <f>I11-I12-I13</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="563">
+        <f>J11-J12-J13</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="563">
+        <f>K11-K12-K13</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="560">
+        <f>L11-L12-L13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="16" thickBot="1">
+      <c r="B15" s="180"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="411"/>
+      <c r="E15" s="411"/>
+      <c r="F15" s="411"/>
+      <c r="G15" s="411"/>
+      <c r="H15" s="411"/>
+      <c r="I15" s="411"/>
+      <c r="J15" s="411"/>
+      <c r="K15" s="411"/>
+      <c r="L15" s="433"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="H16:L16">
+  <conditionalFormatting sqref="H15:L15">
     <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:G16">
+  <conditionalFormatting sqref="D15:G15">
     <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -16158,7 +16074,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="D13:L13" emptyCellReference="1"/>
+    <ignoredError sqref="D12:L12" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -16218,14 +16134,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1">
-      <c r="B5" s="569" t="s">
-        <v>534</v>
-      </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="570"/>
-      <c r="E5" s="570"/>
-      <c r="F5" s="570"/>
-      <c r="G5" s="574"/>
+      <c r="B5" s="573" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="574"/>
+      <c r="D5" s="574"/>
+      <c r="E5" s="574"/>
+      <c r="F5" s="574"/>
+      <c r="G5" s="578"/>
     </row>
     <row r="6" spans="2:12" ht="16" thickBot="1"/>
     <row r="7" spans="2:12">
@@ -16796,14 +16712,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="29" customHeight="1">
-      <c r="B5" s="569" t="s">
-        <v>535</v>
-      </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="570"/>
-      <c r="E5" s="570"/>
-      <c r="F5" s="570"/>
-      <c r="G5" s="574"/>
+      <c r="B5" s="573" t="s">
+        <v>531</v>
+      </c>
+      <c r="C5" s="574"/>
+      <c r="D5" s="574"/>
+      <c r="E5" s="574"/>
+      <c r="F5" s="574"/>
+      <c r="G5" s="578"/>
     </row>
     <row r="6" spans="2:12" ht="16" thickBot="1"/>
     <row r="7" spans="2:12">
@@ -17290,14 +17206,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="29" customHeight="1">
-      <c r="B5" s="569" t="s">
-        <v>536</v>
-      </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="570"/>
-      <c r="E5" s="570"/>
-      <c r="F5" s="570"/>
-      <c r="G5" s="574"/>
+      <c r="B5" s="573" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="574"/>
+      <c r="D5" s="574"/>
+      <c r="E5" s="574"/>
+      <c r="F5" s="574"/>
+      <c r="G5" s="578"/>
     </row>
     <row r="6" spans="2:12" ht="16" thickBot="1"/>
     <row r="7" spans="2:12">
@@ -17928,10 +17844,10 @@
   <sheetPr codeName="Sheet19" enableFormatConditionsCalculation="0">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:L22"/>
+  <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17974,14 +17890,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1">
-      <c r="B5" s="569" t="s">
-        <v>537</v>
-      </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="570"/>
-      <c r="E5" s="570"/>
-      <c r="F5" s="570"/>
-      <c r="G5" s="574"/>
+      <c r="B5" s="573" t="s">
+        <v>533</v>
+      </c>
+      <c r="C5" s="574"/>
+      <c r="D5" s="574"/>
+      <c r="E5" s="574"/>
+      <c r="F5" s="574"/>
+      <c r="G5" s="578"/>
     </row>
     <row r="6" spans="2:12" ht="16" thickBot="1"/>
     <row r="7" spans="2:12">
@@ -18152,213 +18068,137 @@
       <c r="K15" s="497"/>
       <c r="L15" s="447"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" ht="30">
       <c r="B16" s="496" t="s">
         <v>517</v>
       </c>
       <c r="C16" s="197"/>
       <c r="D16" s="435">
-        <f>'Import from Chemical analysis'!C11</f>
+        <f>SUM('Corrected energy balance step 2'!C89:N89,'Corrected energy balance step 2'!S89)</f>
         <v>0</v>
       </c>
       <c r="E16" s="492" t="s">
         <v>264</v>
       </c>
-      <c r="F16" s="492" t="s">
+      <c r="F16" s="492">
+        <f>SUM('Corrected energy balance step 2'!P89:R89)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="435">
+        <f>SUM('Corrected energy balance step 2'!T89,'Corrected energy balance step 2'!AV89)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="435">
+        <f>SUM('Corrected energy balance step 2'!U89:AQ89)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="435">
+        <f>SUM('Corrected energy balance step 2'!AU89,'Corrected energy balance step 2'!AZ89)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="435">
+        <f>'Corrected energy balance step 2'!BM89</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="427">
+        <f>'Corrected energy balance step 2'!BK83</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="437">
+        <f>SUM('Corrected energy balance step 2'!O89,'Corrected energy balance step 2'!U89,'Corrected energy balance step 2'!AT89,'Corrected energy balance step 2'!AW89:AY89,'Corrected energy balance step 2'!BA89,'Corrected energy balance step 2'!BB89:BK89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="160"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="403"/>
+      <c r="E17" s="498"/>
+      <c r="F17" s="498"/>
+      <c r="G17" s="403"/>
+      <c r="H17" s="403"/>
+      <c r="I17" s="403"/>
+      <c r="J17" s="403"/>
+      <c r="K17" s="403"/>
+      <c r="L17" s="404"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18" s="178"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="405"/>
+      <c r="E18" s="499"/>
+      <c r="F18" s="499"/>
+      <c r="G18" s="405"/>
+      <c r="H18" s="405"/>
+      <c r="I18" s="405"/>
+      <c r="J18" s="405"/>
+      <c r="K18" s="405"/>
+      <c r="L18" s="406"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="B19" s="178" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="197"/>
+      <c r="D19" s="379">
+        <f>D11-D14-D16</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="461" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="435">
-        <f>'Import from Chemical analysis'!F11</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="435">
-        <f>'Import from Chemical analysis'!G11</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="435">
-        <f>'Import from Chemical analysis'!H11</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="435">
-        <f>'Import from Chemical analysis'!I11</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="435">
-        <f>'Import from Chemical analysis'!J11</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="437">
-        <f>'Import from Chemical analysis'!K11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="B17" s="496" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="197"/>
-      <c r="D17" s="435">
-        <v>0</v>
-      </c>
-      <c r="E17" s="492" t="s">
+      <c r="F19" s="461" t="s">
         <v>264</v>
       </c>
-      <c r="F17" s="492" t="s">
-        <v>264</v>
-      </c>
-      <c r="G17" s="435">
-        <v>0</v>
-      </c>
-      <c r="H17" s="435">
-        <v>0</v>
-      </c>
-      <c r="I17" s="435">
-        <v>0</v>
-      </c>
-      <c r="J17" s="435">
-        <v>0</v>
-      </c>
-      <c r="K17" s="435">
-        <v>0</v>
-      </c>
-      <c r="L17" s="437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30">
-      <c r="B18" s="496" t="s">
-        <v>519</v>
-      </c>
-      <c r="C18" s="197" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="435">
-        <f>D16-D17</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="492" t="s">
-        <v>264</v>
-      </c>
-      <c r="F18" s="492" t="s">
-        <v>264</v>
-      </c>
-      <c r="G18" s="435">
-        <f t="shared" ref="G18:L18" si="0">G16-G17</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="435">
+      <c r="G19" s="379">
+        <f t="shared" ref="G19:L19" si="0">G11-G14-G16</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="379">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I18" s="435">
+      <c r="I19" s="379">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="435">
+      <c r="J19" s="379">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="435">
+      <c r="K19" s="379">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="437">
+      <c r="L19" s="380">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="160"/>
-      <c r="B19" s="179"/>
-      <c r="C19" s="200" t="s">
-        <v>264</v>
-      </c>
-      <c r="D19" s="403"/>
-      <c r="E19" s="498"/>
-      <c r="F19" s="498"/>
-      <c r="G19" s="403"/>
-      <c r="H19" s="403"/>
-      <c r="I19" s="403"/>
-      <c r="J19" s="403"/>
-      <c r="K19" s="403"/>
-      <c r="L19" s="404"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="B20" s="178"/>
-      <c r="C20" s="197"/>
-      <c r="D20" s="405"/>
-      <c r="E20" s="499"/>
-      <c r="F20" s="499"/>
-      <c r="G20" s="405"/>
-      <c r="H20" s="405"/>
-      <c r="I20" s="405"/>
-      <c r="J20" s="405"/>
-      <c r="K20" s="405"/>
-      <c r="L20" s="406"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="B21" s="178" t="s">
-        <v>325</v>
-      </c>
-      <c r="C21" s="197"/>
-      <c r="D21" s="379">
-        <f>D11-D14-D18</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="461" t="s">
-        <v>264</v>
-      </c>
-      <c r="F21" s="461" t="s">
-        <v>264</v>
-      </c>
-      <c r="G21" s="379">
-        <f t="shared" ref="G21:L21" si="1">G11-G14-G18</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="379">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="379">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="379">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="379">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="380">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="16" thickBot="1">
-      <c r="B22" s="180"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="411"/>
-      <c r="E22" s="446"/>
-      <c r="F22" s="446"/>
-      <c r="G22" s="411"/>
-      <c r="H22" s="411"/>
-      <c r="I22" s="411"/>
-      <c r="J22" s="411"/>
-      <c r="K22" s="411"/>
-      <c r="L22" s="412"/>
+    <row r="20" spans="1:12" ht="16" thickBot="1">
+      <c r="B20" s="180"/>
+      <c r="C20" s="199"/>
+      <c r="D20" s="411"/>
+      <c r="E20" s="446"/>
+      <c r="F20" s="446"/>
+      <c r="G20" s="411"/>
+      <c r="H20" s="411"/>
+      <c r="I20" s="411"/>
+      <c r="J20" s="411"/>
+      <c r="K20" s="411"/>
+      <c r="L20" s="412"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="H22:L22">
+  <conditionalFormatting sqref="H20:L20">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:G22">
+  <conditionalFormatting sqref="D20:G20">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -18366,9 +18206,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="D19:L20 E21:F21 D16:L16" emptyCellReference="1"/>
+    <ignoredError sqref="D17:L18 E19:F19" emptyCellReference="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18995,7 +18834,7 @@
         <v>42571</v>
       </c>
       <c r="C58" s="158" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D58" s="159">
         <v>1.5</v>
@@ -19006,7 +18845,7 @@
         <v>42576</v>
       </c>
       <c r="C59" s="157" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D59" s="159">
         <v>1.51</v>
@@ -19078,11 +18917,11 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="45" customHeight="1">
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="579" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="576"/>
-      <c r="D5" s="577"/>
+      <c r="C5" s="580"/>
+      <c r="D5" s="581"/>
       <c r="E5" s="167"/>
     </row>
     <row r="6" spans="2:8" ht="16" thickBot="1"/>
@@ -19309,15 +19148,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="90" customHeight="1">
-      <c r="B5" s="578" t="s">
+      <c r="B5" s="582" t="s">
         <v>513</v>
       </c>
-      <c r="C5" s="579"/>
-      <c r="D5" s="579"/>
-      <c r="E5" s="579"/>
-      <c r="F5" s="579"/>
-      <c r="G5" s="579"/>
-      <c r="H5" s="580"/>
+      <c r="C5" s="583"/>
+      <c r="D5" s="583"/>
+      <c r="E5" s="583"/>
+      <c r="F5" s="583"/>
+      <c r="G5" s="583"/>
+      <c r="H5" s="584"/>
     </row>
     <row r="6" spans="2:13" ht="16" thickBot="1"/>
     <row r="7" spans="2:13">
@@ -19923,7 +19762,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="20">
       <c r="B2" s="75" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
@@ -19955,15 +19794,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="55" customHeight="1">
-      <c r="B5" s="581" t="s">
-        <v>692</v>
-      </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="582"/>
-      <c r="E5" s="582"/>
-      <c r="F5" s="582"/>
-      <c r="G5" s="582"/>
-      <c r="H5" s="583"/>
+      <c r="B5" s="585" t="s">
+        <v>688</v>
+      </c>
+      <c r="C5" s="586"/>
+      <c r="D5" s="586"/>
+      <c r="E5" s="586"/>
+      <c r="F5" s="586"/>
+      <c r="G5" s="586"/>
+      <c r="H5" s="587"/>
     </row>
     <row r="6" spans="2:13" ht="16" thickBot="1"/>
     <row r="7" spans="2:13">
@@ -20735,7 +20574,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="20">
       <c r="B2" s="75" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="181"/>
@@ -20767,15 +20606,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1">
-      <c r="B5" s="581" t="s">
-        <v>694</v>
-      </c>
-      <c r="C5" s="582"/>
-      <c r="D5" s="582"/>
-      <c r="E5" s="582"/>
-      <c r="F5" s="582"/>
-      <c r="G5" s="582"/>
-      <c r="H5" s="583"/>
+      <c r="B5" s="585" t="s">
+        <v>690</v>
+      </c>
+      <c r="C5" s="586"/>
+      <c r="D5" s="586"/>
+      <c r="E5" s="586"/>
+      <c r="F5" s="586"/>
+      <c r="G5" s="586"/>
+      <c r="H5" s="587"/>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1"/>
     <row r="7" spans="1:13">
@@ -20858,7 +20697,7 @@
     <row r="11" spans="1:13">
       <c r="A11" s="160"/>
       <c r="B11" s="531" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C11" s="532"/>
       <c r="D11" s="208"/>
@@ -20902,7 +20741,7 @@
     <row r="12" spans="1:13">
       <c r="A12" s="160"/>
       <c r="B12" s="533" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C12" s="534"/>
       <c r="D12" s="200" t="s">
@@ -20948,7 +20787,7 @@
     <row r="13" spans="1:13">
       <c r="A13" s="160"/>
       <c r="B13" s="531" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C13" s="532"/>
       <c r="D13" s="197"/>
@@ -21018,7 +20857,7 @@
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="541" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C16" s="542"/>
       <c r="D16" s="197"/>
@@ -21535,7 +21374,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="20">
       <c r="B2" s="75" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="181"/>
@@ -21567,15 +21406,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1">
-      <c r="B5" s="569" t="s">
-        <v>693</v>
-      </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="570"/>
-      <c r="E5" s="570"/>
-      <c r="F5" s="570"/>
-      <c r="G5" s="570"/>
-      <c r="H5" s="574"/>
+      <c r="B5" s="573" t="s">
+        <v>689</v>
+      </c>
+      <c r="C5" s="574"/>
+      <c r="D5" s="574"/>
+      <c r="E5" s="574"/>
+      <c r="F5" s="574"/>
+      <c r="G5" s="574"/>
+      <c r="H5" s="578"/>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1"/>
     <row r="7" spans="1:13">
@@ -21657,7 +21496,7 @@
     <row r="11" spans="1:13">
       <c r="A11" s="160"/>
       <c r="B11" s="531" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C11" s="532"/>
       <c r="D11" s="208"/>
@@ -21701,7 +21540,7 @@
     <row r="12" spans="1:13">
       <c r="A12" s="160"/>
       <c r="B12" s="533" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C12" s="534"/>
       <c r="D12" s="200" t="s">
@@ -21747,7 +21586,7 @@
     <row r="13" spans="1:13">
       <c r="A13" s="160"/>
       <c r="B13" s="531" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C13" s="532"/>
       <c r="D13" s="197"/>
@@ -21804,7 +21643,7 @@
     <row r="15" spans="1:13">
       <c r="A15" s="160"/>
       <c r="B15" s="556" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C15" s="537"/>
       <c r="D15" s="538"/>
@@ -22262,12 +22101,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="571" t="s">
+      <c r="B5" s="575" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="572"/>
-      <c r="D5" s="572"/>
-      <c r="E5" s="573"/>
+      <c r="C5" s="576"/>
+      <c r="D5" s="576"/>
+      <c r="E5" s="577"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1"/>
     <row r="7" spans="2:7">
@@ -23500,12 +23339,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="571" t="s">
+      <c r="B5" s="575" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="572"/>
-      <c r="D5" s="572"/>
-      <c r="E5" s="573"/>
+      <c r="C5" s="576"/>
+      <c r="D5" s="576"/>
+      <c r="E5" s="577"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1"/>
     <row r="7" spans="2:7">
@@ -25021,23 +24860,23 @@
     </row>
     <row r="16" spans="2:3" ht="28" customHeight="1">
       <c r="B16" s="119" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="28" customHeight="1">
       <c r="B17" s="119" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="28" customHeight="1">
       <c r="B18" s="118" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C18" s="73" t="s">
         <v>315</v>
@@ -25045,7 +24884,7 @@
     </row>
     <row r="19" spans="2:3" ht="28" customHeight="1">
       <c r="B19" s="118" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C19" s="73" t="s">
         <v>316</v>
@@ -25093,50 +24932,50 @@
     </row>
     <row r="25" spans="2:3" ht="28" customHeight="1">
       <c r="B25" s="117" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C25" s="125" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="28" customHeight="1">
       <c r="B26" s="117" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="28" customHeight="1">
       <c r="B27" s="118" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="28" customHeight="1">
       <c r="B28" s="118" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="28" customHeight="1">
       <c r="B29" s="119" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="28" customHeight="1">
       <c r="B30" s="119" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="28" customHeight="1">
@@ -25144,7 +24983,7 @@
         <v>367</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" customHeight="1">
@@ -25152,7 +24991,7 @@
         <v>371</v>
       </c>
       <c r="C32" s="126" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="28" customHeight="1">
@@ -25160,7 +24999,7 @@
         <v>369</v>
       </c>
       <c r="C33" s="126" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="28" customHeight="1">
@@ -25168,7 +25007,7 @@
         <v>368</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" customHeight="1">
@@ -25176,7 +25015,7 @@
         <v>372</v>
       </c>
       <c r="C35" s="126" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="28" customHeight="1">
@@ -25184,7 +25023,7 @@
         <v>370</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="28" customHeight="1">
@@ -25192,7 +25031,7 @@
         <v>366</v>
       </c>
       <c r="C37" s="73" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="28" customHeight="1">
@@ -25200,7 +25039,7 @@
         <v>447</v>
       </c>
       <c r="C38" s="73" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="28" customHeight="1">
@@ -25208,7 +25047,7 @@
         <v>449</v>
       </c>
       <c r="C39" s="73" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="28" customHeight="1">
@@ -25216,7 +25055,7 @@
         <v>451</v>
       </c>
       <c r="C40" s="73" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="28" customHeight="1">
@@ -25224,7 +25063,7 @@
         <v>453</v>
       </c>
       <c r="C41" s="73" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="28" customHeight="1">
@@ -25232,7 +25071,7 @@
         <v>455</v>
       </c>
       <c r="C42" s="73" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="28" customHeight="1">
@@ -25253,7 +25092,7 @@
     </row>
     <row r="45" spans="2:3" ht="28" customHeight="1">
       <c r="B45" s="120" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C45" s="73" t="s">
         <v>304</v>
@@ -25261,7 +25100,7 @@
     </row>
     <row r="46" spans="2:3" ht="28" customHeight="1">
       <c r="B46" s="120" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C46" s="73" t="s">
         <v>305</v>
@@ -25269,7 +25108,7 @@
     </row>
     <row r="47" spans="2:3" ht="28" customHeight="1">
       <c r="B47" s="120" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C47" s="126" t="s">
         <v>306</v>
@@ -25277,7 +25116,7 @@
     </row>
     <row r="48" spans="2:3" ht="28" customHeight="1">
       <c r="B48" s="120" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C48" s="126" t="s">
         <v>302</v>
@@ -25285,7 +25124,7 @@
     </row>
     <row r="49" spans="2:3" ht="28" customHeight="1">
       <c r="B49" s="120" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C49" s="126" t="s">
         <v>307</v>
@@ -25293,7 +25132,7 @@
     </row>
     <row r="50" spans="2:3" ht="28" customHeight="1">
       <c r="B50" s="120" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C50" s="73" t="s">
         <v>303</v>
@@ -25301,7 +25140,7 @@
     </row>
     <row r="51" spans="2:3" ht="28" customHeight="1">
       <c r="B51" s="120" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C51" s="73" t="s">
         <v>448</v>
@@ -25309,7 +25148,7 @@
     </row>
     <row r="52" spans="2:3" ht="28" customHeight="1">
       <c r="B52" s="120" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C52" s="73" t="s">
         <v>450</v>
@@ -25317,7 +25156,7 @@
     </row>
     <row r="53" spans="2:3" ht="28" customHeight="1">
       <c r="B53" s="120" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C53" s="73" t="s">
         <v>452</v>
@@ -25325,7 +25164,7 @@
     </row>
     <row r="54" spans="2:3" ht="28" customHeight="1">
       <c r="B54" s="120" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C54" s="73" t="s">
         <v>454</v>
@@ -25871,7 +25710,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -25884,7 +25723,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B3" s="452">
         <f>'Shares energetic FD subsectors'!E11</f>
@@ -25893,7 +25732,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B4" s="452">
         <f>'Shares energetic FD subsectors'!E12</f>
@@ -25902,7 +25741,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B5" s="452">
         <f>'Shares energetic FD subsectors'!E13</f>
@@ -25911,7 +25750,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B6" s="452">
         <f>'Shares energetic FD subsectors'!E14</f>
@@ -25920,7 +25759,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B7" s="452">
         <f>'Shares energetic FD subsectors'!E15</f>
@@ -25929,7 +25768,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B8" s="452">
         <f>'Shares energetic FD subsectors'!E16</f>
@@ -25938,7 +25777,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B9" s="452">
         <f>'Shares energetic FD subsectors'!E17</f>
@@ -25947,7 +25786,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B10" s="452">
         <f>'Shares energetic FD subsectors'!E18</f>
@@ -25956,7 +25795,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B11" s="452">
         <f>'Shares energetic FD subsectors'!E19</f>
@@ -25965,7 +25804,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B12" s="452">
         <f>'Shares energetic FD subsectors'!E20</f>
@@ -26114,7 +25953,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26127,7 +25966,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B3" s="452">
         <f>'Shares energetic FD subsectors'!E23</f>
@@ -26136,7 +25975,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B4" s="452">
         <f>'Shares energetic FD subsectors'!E24</f>
@@ -26145,7 +25984,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B5" s="452">
         <f>'Shares energetic FD subsectors'!E25</f>
@@ -26154,7 +25993,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B6" s="452">
         <f>'Shares energetic FD subsectors'!E26</f>
@@ -26163,7 +26002,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B7" s="452">
         <f>'Shares energetic FD subsectors'!E27</f>
@@ -26172,7 +26011,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B8" s="452">
         <f>'Shares energetic FD subsectors'!E28</f>
@@ -26181,7 +26020,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B9" s="452">
         <f>'Shares energetic FD subsectors'!E29</f>
@@ -26190,7 +26029,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B10" s="452">
         <f>'Shares energetic FD subsectors'!E30</f>
@@ -26199,7 +26038,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B11" s="452">
         <f>'Shares energetic FD subsectors'!E31</f>
@@ -26208,7 +26047,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B12" s="452">
         <f>'Shares energetic FD subsectors'!E32</f>
@@ -26241,7 +26080,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26254,7 +26093,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B3" s="452">
         <f>'Shares energetic FD subsectors'!E35</f>
@@ -26263,7 +26102,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B4" s="452">
         <f>'Shares energetic FD subsectors'!E36</f>
@@ -26272,7 +26111,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B5" s="452">
         <f>'Shares energetic FD subsectors'!E37</f>
@@ -26281,7 +26120,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B6" s="452">
         <f>'Shares energetic FD subsectors'!E38</f>
@@ -26290,7 +26129,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B7" s="452">
         <f>'Shares energetic FD subsectors'!E39</f>
@@ -26299,7 +26138,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B8" s="452">
         <f>'Shares energetic FD subsectors'!E40</f>
@@ -26308,7 +26147,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B9" s="452">
         <f>'Shares energetic FD subsectors'!E41</f>
@@ -26317,7 +26156,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B10" s="452">
         <f>'Shares energetic FD subsectors'!E42</f>
@@ -26326,7 +26165,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B11" s="452">
         <f>'Shares energetic FD subsectors'!E43</f>
@@ -26335,7 +26174,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B12" s="452">
         <f>'Shares energetic FD subsectors'!E44</f>
@@ -26368,7 +26207,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26381,7 +26220,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B3" s="452">
         <f>'Shares energetic FD subsectors'!E47</f>
@@ -26390,7 +26229,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B4" s="452">
         <f>'Shares energetic FD subsectors'!E48</f>
@@ -26399,7 +26238,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B5" s="452">
         <f>'Shares energetic FD subsectors'!E49</f>
@@ -26408,7 +26247,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B6" s="452">
         <f>'Shares energetic FD subsectors'!E50</f>
@@ -26417,7 +26256,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B7" s="452">
         <f>'Shares energetic FD subsectors'!E51</f>
@@ -26426,7 +26265,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B8" s="452">
         <f>'Shares energetic FD subsectors'!E52</f>
@@ -26435,7 +26274,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B9" s="452">
         <f>'Shares energetic FD subsectors'!E53</f>
@@ -26444,7 +26283,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B10" s="452">
         <f>'Shares energetic FD subsectors'!E54</f>
@@ -26453,7 +26292,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B11" s="452">
         <f>'Shares energetic FD subsectors'!E55</f>
@@ -26462,7 +26301,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B12" s="452">
         <f>'Shares energetic FD subsectors'!E56</f>
@@ -26495,7 +26334,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26508,7 +26347,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B3" s="452">
         <f>'Shares energetic FD subsectors'!E59</f>
@@ -26517,7 +26356,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B4" s="452">
         <f>'Shares energetic FD subsectors'!E60</f>
@@ -26526,7 +26365,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B5" s="452">
         <f>'Shares energetic FD subsectors'!E61</f>
@@ -26535,7 +26374,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B6" s="452">
         <f>'Shares energetic FD subsectors'!E62</f>
@@ -26544,7 +26383,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B7" s="452">
         <f>'Shares energetic FD subsectors'!E63</f>
@@ -26553,7 +26392,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B8" s="452">
         <f>'Shares energetic FD subsectors'!E64</f>
@@ -26562,7 +26401,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B9" s="452">
         <f>'Shares energetic FD subsectors'!E65</f>
@@ -26571,7 +26410,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B10" s="452">
         <f>'Shares energetic FD subsectors'!E66</f>
@@ -26580,7 +26419,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B11" s="452">
         <f>'Shares energetic FD subsectors'!E67</f>
@@ -26589,7 +26428,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B12" s="452">
         <f>'Shares energetic FD subsectors'!E68</f>
@@ -26622,7 +26461,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26635,7 +26474,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B3" s="452">
         <f>'Shares energetic FD subsectors'!E71</f>
@@ -26644,7 +26483,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B4" s="452">
         <f>'Shares energetic FD subsectors'!E72</f>
@@ -26653,7 +26492,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B5" s="452">
         <f>'Shares energetic FD subsectors'!E73</f>
@@ -26662,7 +26501,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B6" s="452">
         <f>'Shares energetic FD subsectors'!E74</f>
@@ -26671,7 +26510,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B7" s="452">
         <f>'Shares energetic FD subsectors'!E75</f>
@@ -26680,7 +26519,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B8" s="452">
         <f>'Shares energetic FD subsectors'!E76</f>
@@ -26689,7 +26528,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B9" s="452">
         <f>'Shares energetic FD subsectors'!E77</f>
@@ -26698,7 +26537,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B10" s="452">
         <f>'Shares energetic FD subsectors'!E78</f>
@@ -26707,7 +26546,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B11" s="452">
         <f>'Shares energetic FD subsectors'!E79</f>
@@ -26716,7 +26555,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B12" s="452">
         <f>'Shares energetic FD subsectors'!E80</f>
@@ -26749,7 +26588,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26762,7 +26601,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B3" s="452">
         <f>'Shares non-e FD subsectors'!E11</f>
@@ -26771,7 +26610,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B4" s="452">
         <f>'Shares non-e FD subsectors'!E12</f>
@@ -26780,7 +26619,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B5" s="452">
         <f>'Shares non-e FD subsectors'!E13</f>
@@ -26789,7 +26628,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B6" s="452">
         <f>'Shares non-e FD subsectors'!E14</f>
@@ -26798,7 +26637,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B7" s="452">
         <f>'Shares non-e FD subsectors'!E15</f>
@@ -26807,7 +26646,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B8" s="452">
         <f>'Shares non-e FD subsectors'!E16</f>
@@ -26816,7 +26655,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B9" s="452">
         <f>'Shares non-e FD subsectors'!E17</f>
@@ -26825,7 +26664,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B10" s="452">
         <f>'Shares non-e FD subsectors'!E18</f>
@@ -26834,7 +26673,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B11" s="452">
         <f>'Shares non-e FD subsectors'!E19</f>
@@ -26843,7 +26682,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B12" s="452">
         <f>'Shares non-e FD subsectors'!E20</f>
@@ -26876,7 +26715,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26889,7 +26728,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B3" s="452">
         <f>'Shares non-e FD subsectors'!E23</f>
@@ -26898,7 +26737,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B4" s="452">
         <f>'Shares non-e FD subsectors'!E24</f>
@@ -26907,7 +26746,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B5" s="452">
         <f>'Shares non-e FD subsectors'!E25</f>
@@ -26916,7 +26755,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B6" s="452">
         <f>'Shares non-e FD subsectors'!E26</f>
@@ -26925,7 +26764,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B7" s="452">
         <f>'Shares non-e FD subsectors'!E27</f>
@@ -26934,7 +26773,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B8" s="452">
         <f>'Shares non-e FD subsectors'!E28</f>
@@ -26943,7 +26782,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B9" s="452">
         <f>'Shares non-e FD subsectors'!E29</f>
@@ -26952,7 +26791,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B10" s="452">
         <f>'Shares non-e FD subsectors'!E30</f>
@@ -26961,7 +26800,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B11" s="452">
         <f>'Shares non-e FD subsectors'!E31</f>
@@ -26970,7 +26809,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B12" s="452">
         <f>'Shares non-e FD subsectors'!E32</f>
@@ -27003,7 +26842,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -27016,7 +26855,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B3" s="452">
         <f>'Shares non-e FD subsectors'!E35</f>
@@ -27025,7 +26864,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B4" s="452">
         <f>'Shares non-e FD subsectors'!E36</f>
@@ -27034,7 +26873,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B5" s="452">
         <f>'Shares non-e FD subsectors'!E37</f>
@@ -27043,7 +26882,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B6" s="452">
         <f>'Shares non-e FD subsectors'!E38</f>
@@ -27052,7 +26891,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B7" s="452">
         <f>'Shares non-e FD subsectors'!E39</f>
@@ -27061,7 +26900,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B8" s="452">
         <f>'Shares non-e FD subsectors'!E40</f>
@@ -27070,7 +26909,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B9" s="452">
         <f>'Shares non-e FD subsectors'!E41</f>
@@ -27079,7 +26918,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B10" s="452">
         <f>'Shares non-e FD subsectors'!E42</f>
@@ -27088,7 +26927,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B11" s="452">
         <f>'Shares non-e FD subsectors'!E43</f>
@@ -27097,7 +26936,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B12" s="452">
         <f>'Shares non-e FD subsectors'!E44</f>
@@ -27130,7 +26969,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -27143,7 +26982,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B3" s="452">
         <f>'Shares non-e FD subsectors'!E47</f>
@@ -27152,7 +26991,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B4" s="452">
         <f>'Shares non-e FD subsectors'!E48</f>
@@ -27161,7 +27000,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B5" s="452">
         <f>'Shares non-e FD subsectors'!E49</f>
@@ -27170,7 +27009,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B6" s="452">
         <f>'Shares non-e FD subsectors'!E50</f>
@@ -27179,7 +27018,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B7" s="452">
         <f>'Shares non-e FD subsectors'!E51</f>
@@ -27188,7 +27027,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B8" s="452">
         <f>'Shares non-e FD subsectors'!E52</f>
@@ -27197,7 +27036,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B9" s="452">
         <f>'Shares non-e FD subsectors'!E53</f>
@@ -27206,7 +27045,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B10" s="452">
         <f>'Shares non-e FD subsectors'!E54</f>
@@ -27215,7 +27054,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B11" s="452">
         <f>'Shares non-e FD subsectors'!E55</f>
@@ -27224,7 +27063,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B12" s="452">
         <f>'Shares non-e FD subsectors'!E56</f>
@@ -27680,10 +27519,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="79" customHeight="1">
-      <c r="B5" s="560" t="s">
+      <c r="B5" s="564" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="561"/>
+      <c r="C5" s="565"/>
     </row>
     <row r="6" spans="2:4" ht="16" thickBot="1">
       <c r="B6" s="8"/>
@@ -28383,11 +28222,11 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="562" t="s">
+      <c r="B5" s="566" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="563"/>
-      <c r="D5" s="564"/>
+      <c r="C5" s="567"/>
+      <c r="D5" s="568"/>
       <c r="G5" s="510"/>
       <c r="I5" s="16"/>
       <c r="J5" s="8"/>
@@ -28398,9 +28237,9 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="562"/>
-      <c r="C6" s="563"/>
-      <c r="D6" s="564"/>
+      <c r="B6" s="566"/>
+      <c r="C6" s="567"/>
+      <c r="D6" s="568"/>
       <c r="G6" s="511"/>
       <c r="I6" s="16"/>
       <c r="J6" s="8"/>
@@ -28411,9 +28250,9 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="2:16" ht="32" customHeight="1">
-      <c r="B7" s="560"/>
-      <c r="C7" s="565"/>
-      <c r="D7" s="561"/>
+      <c r="B7" s="564"/>
+      <c r="C7" s="569"/>
+      <c r="D7" s="565"/>
       <c r="I7" s="17"/>
       <c r="J7" s="10"/>
       <c r="K7" s="507"/>
@@ -29362,7 +29201,7 @@
         <v>242</v>
       </c>
       <c r="E47" s="339">
-        <f>'Non-energetic cons analysis'!D21</f>
+        <f>'Non-energetic cons analysis'!D19</f>
         <v>0</v>
       </c>
       <c r="F47" s="225"/>
@@ -29394,7 +29233,7 @@
         <v>242</v>
       </c>
       <c r="E48" s="339">
-        <f>'Non-energetic cons analysis'!G21</f>
+        <f>'Non-energetic cons analysis'!G19</f>
         <v>0</v>
       </c>
       <c r="F48" s="225"/>
@@ -29426,7 +29265,7 @@
         <v>242</v>
       </c>
       <c r="E49" s="339">
-        <f>'Non-energetic cons analysis'!H21</f>
+        <f>'Non-energetic cons analysis'!H19</f>
         <v>0</v>
       </c>
       <c r="F49" s="225"/>
@@ -29458,7 +29297,7 @@
         <v>242</v>
       </c>
       <c r="E50" s="339">
-        <f>'Non-energetic cons analysis'!I21</f>
+        <f>'Non-energetic cons analysis'!I19</f>
         <v>0</v>
       </c>
       <c r="F50" s="225"/>
@@ -29490,7 +29329,7 @@
         <v>242</v>
       </c>
       <c r="E51" s="339">
-        <f>'Non-energetic cons analysis'!J21</f>
+        <f>'Non-energetic cons analysis'!J19</f>
         <v>0</v>
       </c>
       <c r="F51" s="225"/>
@@ -29522,7 +29361,7 @@
         <v>242</v>
       </c>
       <c r="E52" s="339">
-        <f>'Non-energetic cons analysis'!K21</f>
+        <f>'Non-energetic cons analysis'!K19</f>
         <v>0</v>
       </c>
       <c r="F52" s="225"/>
@@ -29765,7 +29604,7 @@
         <v>242</v>
       </c>
       <c r="E64" s="523">
-        <f>'Non-energetic cons analysis'!L21</f>
+        <f>'Non-energetic cons analysis'!L19</f>
         <v>0</v>
       </c>
       <c r="F64" s="524"/>
@@ -29777,7 +29616,7 @@
         <v>506</v>
       </c>
       <c r="L64" s="520" t="e">
-        <f>'Non-energetic cons analysis'!L21/SUM('Non-energetic cons analysis'!D21:L21)</f>
+        <f>'Non-energetic cons analysis'!L19/SUM('Non-energetic cons analysis'!D19:L19)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M64" s="214"/>
@@ -36920,13 +36759,13 @@
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
       <c r="A5" s="76"/>
-      <c r="B5" s="566" t="s">
+      <c r="B5" s="570" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="567"/>
-      <c r="D5" s="567"/>
-      <c r="E5" s="567"/>
-      <c r="F5" s="568"/>
+      <c r="C5" s="571"/>
+      <c r="D5" s="571"/>
+      <c r="E5" s="571"/>
+      <c r="F5" s="572"/>
       <c r="H5" s="76"/>
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>

--- a/analyses/5_industry_analysis.xlsx
+++ b/analyses/5_industry_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="835" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="835" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -33,43 +33,48 @@
     <sheet name="Non-energetic FD subsectors" sheetId="108" r:id="rId24"/>
     <sheet name="Shares energetic FD subsectors" sheetId="100" r:id="rId25"/>
     <sheet name="Shares non-e FD subsectors" sheetId="109" r:id="rId26"/>
-    <sheet name="csv_industry_coal_ps" sheetId="80" r:id="rId27"/>
-    <sheet name="csv_industry_network_gas_ps" sheetId="81" r:id="rId28"/>
-    <sheet name="csv_industry_crude_oil_ps" sheetId="82" r:id="rId29"/>
-    <sheet name="csv_industry_wood_pellets_ps" sheetId="90" r:id="rId30"/>
-    <sheet name="csv_industry_steam_hot_water_ps" sheetId="83" r:id="rId31"/>
-    <sheet name="csv_industry_electricity_ps" sheetId="87" r:id="rId32"/>
-    <sheet name="csv_industry_coal_non_e_ps" sheetId="94" r:id="rId33"/>
-    <sheet name="csv_industry_netw_gas_non_e_ps" sheetId="95" r:id="rId34"/>
-    <sheet name="csv_industry_crude_oil_non_e_ps" sheetId="96" r:id="rId35"/>
-    <sheet name="csv_industry_wood_pel_non_e_ps" sheetId="97" r:id="rId36"/>
-    <sheet name="csv_industry_trans_coal_ps" sheetId="91" r:id="rId37"/>
-    <sheet name="csv_industry_trans_coal_eff" sheetId="92" r:id="rId38"/>
-    <sheet name="csv_industry_other_coal_e " sheetId="102" r:id="rId39"/>
-    <sheet name="csv_industry_other_gas_e" sheetId="104" r:id="rId40"/>
-    <sheet name="csv_industry_other_crude_oil_e" sheetId="103" r:id="rId41"/>
-    <sheet name="csv_industry_other_wood_e" sheetId="105" r:id="rId42"/>
-    <sheet name="csv_industry_other_heat_e" sheetId="107" r:id="rId43"/>
-    <sheet name="csv_industry_other_electri_e" sheetId="106" r:id="rId44"/>
-    <sheet name="csv_industry_other_coal_non_e" sheetId="110" r:id="rId45"/>
-    <sheet name="csv_industry_other_gas_non_e" sheetId="111" r:id="rId46"/>
-    <sheet name="csv_industry_other_crude_oil_ne" sheetId="112" r:id="rId47"/>
-    <sheet name="csv_industry_other_wood_non_e" sheetId="113" r:id="rId48"/>
+    <sheet name="Shares electric heaters" sheetId="114" r:id="rId27"/>
+    <sheet name="csv_industry_coal_ps" sheetId="80" r:id="rId28"/>
+    <sheet name="csv_industry_network_gas_ps" sheetId="81" r:id="rId29"/>
+    <sheet name="csv_industry_crude_oil_ps" sheetId="82" r:id="rId30"/>
+    <sheet name="csv_industry_wood_pellets_ps" sheetId="90" r:id="rId31"/>
+    <sheet name="csv_industry_steam_hot_water_ps" sheetId="83" r:id="rId32"/>
+    <sheet name="csv_industry_electricity_ps" sheetId="87" r:id="rId33"/>
+    <sheet name="csv_industry_coal_non_e_ps" sheetId="94" r:id="rId34"/>
+    <sheet name="csv_industry_netw_gas_non_e_ps" sheetId="95" r:id="rId35"/>
+    <sheet name="csv_industry_crude_oil_non_e_ps" sheetId="96" r:id="rId36"/>
+    <sheet name="csv_industry_wood_pel_non_e_ps" sheetId="97" r:id="rId37"/>
+    <sheet name="csv_industry_trans_coal_ps" sheetId="91" r:id="rId38"/>
+    <sheet name="csv_industry_trans_coal_eff" sheetId="92" r:id="rId39"/>
+    <sheet name="csv_industry_other_coal_e " sheetId="102" r:id="rId40"/>
+    <sheet name="csv_industry_other_gas_e" sheetId="104" r:id="rId41"/>
+    <sheet name="csv_industry_other_crude_oil_e" sheetId="103" r:id="rId42"/>
+    <sheet name="csv_industry_other_wood_e" sheetId="105" r:id="rId43"/>
+    <sheet name="csv_industry_other_heat_e" sheetId="107" r:id="rId44"/>
+    <sheet name="csv_industry_other_electri_e" sheetId="106" r:id="rId45"/>
+    <sheet name="csv_industry_other_coal_non_e" sheetId="110" r:id="rId46"/>
+    <sheet name="csv_industry_other_gas_non_e" sheetId="111" r:id="rId47"/>
+    <sheet name="csv_industry_other_crude_oil_ne" sheetId="112" r:id="rId48"/>
+    <sheet name="csv_industry_other_wood_non_e" sheetId="113" r:id="rId49"/>
+    <sheet name="csv_industry_other_food_elec_ps" sheetId="115" r:id="rId50"/>
+    <sheet name="csv_industry_other_paper_el_ps" sheetId="116" r:id="rId51"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId49"/>
-    <externalReference r:id="rId50"/>
+    <externalReference r:id="rId52"/>
+    <externalReference r:id="rId53"/>
   </externalReferences>
   <definedNames>
     <definedName name="base_year" localSheetId="22">Dashboard!$E$14</definedName>
     <definedName name="base_year" localSheetId="21">Dashboard!$E$14</definedName>
     <definedName name="base_year" localSheetId="23">[1]Dashboard!$E$14</definedName>
+    <definedName name="base_year" localSheetId="26">Dashboard!$E$14</definedName>
     <definedName name="base_year" localSheetId="24">Dashboard!$E$14</definedName>
     <definedName name="base_year" localSheetId="25">Dashboard!$E$14</definedName>
     <definedName name="base_year">Dashboard!$E$14</definedName>
     <definedName name="country" localSheetId="22">Dashboard!$E$13</definedName>
     <definedName name="country" localSheetId="21">Dashboard!$E$13</definedName>
     <definedName name="country" localSheetId="23">[1]Dashboard!$E$13</definedName>
+    <definedName name="country" localSheetId="26">Dashboard!$E$13</definedName>
     <definedName name="country" localSheetId="24">Dashboard!$E$13</definedName>
     <definedName name="country" localSheetId="25">Dashboard!$E$13</definedName>
     <definedName name="country">Dashboard!$E$13</definedName>
@@ -250,7 +255,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="723">
   <si>
     <t>Changelog</t>
   </si>
@@ -2403,6 +2408,96 @@
   </si>
   <si>
     <t>In this sheet the non-energetic final demand in the Other industy sub-sector from the whole industry and the Metal industry and Chemical industry sector. The  non-energetic final demand for crude oil of the chemical industry is corrected for the oil products which refineries produce for the petrochemical industry; it is imported from the 'Non-energetic cons analysis' tab.</t>
+  </si>
+  <si>
+    <t>Added electricity split for food and paper industry</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Final demand of electricity</t>
+  </si>
+  <si>
+    <t>Final demand of electricity in food and tobacco industry</t>
+  </si>
+  <si>
+    <t>Final demand of electricity in paper and pulp industry</t>
+  </si>
+  <si>
+    <t>Value should be positive and smaller than the final electricity demand</t>
+  </si>
+  <si>
+    <t>industry_food_electric_heater</t>
+  </si>
+  <si>
+    <t>industry_paper_electric_heater</t>
+  </si>
+  <si>
+    <t>Electric heaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Final electricity demand used for electric heating</t>
+  </si>
+  <si>
+    <t>Indicate "yes" to add the fertilizers sector; also expand row 57 to 67 to input the required data</t>
+  </si>
+  <si>
+    <t>Shares per sub-sector per application</t>
+  </si>
+  <si>
+    <t>Electric heater</t>
+  </si>
+  <si>
+    <t>Useful demand electricity</t>
+  </si>
+  <si>
+    <t>On this sheet the shares per sub-sector per application are calculated based on the energetic final demand for sectors which could use electric heating technologies.</t>
+  </si>
+  <si>
+    <t>Shares electric heaters</t>
+  </si>
+  <si>
+    <t>industry_other_food_heater_electricity</t>
+  </si>
+  <si>
+    <t>industry_useful_demand_for_other_food_electricity</t>
+  </si>
+  <si>
+    <t>industry_final_demand_for_other_food_electricity_parent_share</t>
+  </si>
+  <si>
+    <t>industry_final_demand_for_other_paper_electricity_parent_share</t>
+  </si>
+  <si>
+    <t>industry_other_paper_heater_electricity</t>
+  </si>
+  <si>
+    <t>industry_useful_demand_for_other_paper_electricity</t>
+  </si>
+  <si>
+    <t>csv_industry_other_paper_el_ps</t>
+  </si>
+  <si>
+    <t>csv_industry_other_food_elec_ps</t>
+  </si>
+  <si>
+    <t>CSV-file containing the split of food industry sector final demand for electricity over application</t>
+  </si>
+  <si>
+    <t>CSV-file containing the split of paper industry sector final demand for electricity over application</t>
+  </si>
+  <si>
+    <t>Split of final demand of electricity over electric heating and other applications for several sectors. This data is exported using the purple sheets</t>
+  </si>
+  <si>
+    <t>Value should be "yes" or "no"</t>
+  </si>
+  <si>
+    <t>industry_electric_heater</t>
   </si>
 </sst>
 </file>
@@ -2726,7 +2821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -3350,8 +3445,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1470">
+  <cellStyleXfs count="1528">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4822,8 +4930,66 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="588">
+  <cellXfs count="609">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5948,6 +6114,32 @@
     <xf numFmtId="3" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="1377" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6020,8 +6212,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1470">
+  <cellStyles count="1528">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -6756,6 +6951,35 @@
     <cellStyle name="Followed Hyperlink" xfId="1465" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1467" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1527" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -7488,12 +7712,63 @@
     <cellStyle name="Hyperlink" xfId="1464" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1466" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1468" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1470" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1472" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1474" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1476" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1478" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1480" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1482" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1484" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1486" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1488" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1490" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1492" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1494" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1496" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1498" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1500" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1502" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1504" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1506" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1508" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1510" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1512" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1514" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1516" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1518" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1520" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1522" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1524" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1526" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="772"/>
     <cellStyle name="Percent 3" xfId="1377"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -7720,6 +7995,28 @@
         <color rgb="FFCCFFCC"/>
       </font>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCCFFCC"/>
+      </font>
+      <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
@@ -7867,15 +8164,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7885,8 +8182,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2159000" y="1816100"/>
-          <a:ext cx="14046200" cy="6477000"/>
+          <a:off x="2120900" y="1816100"/>
+          <a:ext cx="14084300" cy="6769100"/>
         </a:xfrm>
         <a:prstGeom prst="corner">
           <a:avLst>
@@ -7933,13 +8230,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8086,13 +8383,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8102,8 +8399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="3505200"/>
-          <a:ext cx="1714500" cy="3022600"/>
+          <a:off x="228600" y="3860800"/>
+          <a:ext cx="1714500" cy="2667000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8153,7 +8450,7 @@
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8164,7 +8461,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4572000" y="1803400"/>
-          <a:ext cx="9512300" cy="5727700"/>
+          <a:ext cx="9512300" cy="6019800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8210,14 +8507,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8229,8 +8526,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6197600" y="3181350"/>
-          <a:ext cx="1206500" cy="2692400"/>
+          <a:off x="6197600" y="3473450"/>
+          <a:ext cx="1193800" cy="2654300"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8262,14 +8559,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8281,8 +8578,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6197600" y="3181350"/>
-          <a:ext cx="1206500" cy="1930400"/>
+          <a:off x="6197600" y="3473450"/>
+          <a:ext cx="1193800" cy="1892300"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8314,14 +8611,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8333,8 +8630,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6197600" y="3181350"/>
-          <a:ext cx="1206500" cy="1168400"/>
+          <a:off x="6197600" y="3473450"/>
+          <a:ext cx="1193800" cy="1193800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8366,13 +8663,13 @@
     <xdr:from>
       <xdr:col>67</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>75</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8382,8 +8679,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14465300" y="1816100"/>
-          <a:ext cx="1727200" cy="5715000"/>
+          <a:off x="14465300" y="1803400"/>
+          <a:ext cx="1727200" cy="6019800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8429,13 +8726,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8492,14 +8789,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8509,7 +8806,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="1816100"/>
-          <a:ext cx="1714500" cy="1562100"/>
+          <a:ext cx="1714500" cy="2197100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8553,14 +8850,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8569,7 +8866,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="2476500"/>
+          <a:off x="419100" y="3136900"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8615,12 +8912,12 @@
       <xdr:col>77</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>85</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8630,8 +8927,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16662400" y="1778000"/>
-          <a:ext cx="1689100" cy="6515099"/>
+          <a:off x="16662400" y="1790700"/>
+          <a:ext cx="1689100" cy="6794499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8683,15 +8980,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8699,9 +8996,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4318000" y="1816100"/>
-          <a:ext cx="0" cy="5715000"/>
+        <a:xfrm flipH="1">
+          <a:off x="4343400" y="1828800"/>
+          <a:ext cx="12700" cy="6007100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8734,13 +9031,13 @@
     <xdr:from>
       <xdr:col>66</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8750,8 +9047,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14249400" y="1816100"/>
-          <a:ext cx="0" cy="5715000"/>
+          <a:off x="14249400" y="1790700"/>
+          <a:ext cx="0" cy="6032500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8782,15 +9079,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8800,8 +9097,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18567400" y="1816100"/>
-          <a:ext cx="0" cy="6477000"/>
+          <a:off x="18542000" y="1778000"/>
+          <a:ext cx="25400" cy="6807200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -8834,14 +9131,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8853,8 +9150,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="2762250"/>
-          <a:ext cx="3187700" cy="419100"/>
+          <a:off x="1714500" y="3422650"/>
+          <a:ext cx="3187700" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -8886,13 +9183,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8942,13 +9239,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8990,15 +9287,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9007,7 +9304,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7404100" y="3302000"/>
+          <a:off x="7391400" y="3619500"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9046,15 +9343,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9063,7 +9360,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7404100" y="4064000"/>
+          <a:off x="7391400" y="4381500"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9102,15 +9399,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9119,7 +9416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7404100" y="4826000"/>
+          <a:off x="7391400" y="5080000"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9158,15 +9455,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9175,7 +9472,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7404100" y="5588000"/>
+          <a:off x="7391400" y="5842000"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9214,15 +9511,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9231,7 +9528,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="368300" y="4622800"/>
+          <a:off x="406400" y="4946650"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9278,15 +9575,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9298,8 +9595,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1663700" y="4349750"/>
-          <a:ext cx="5740400" cy="558800"/>
+          <a:off x="1701800" y="4667250"/>
+          <a:ext cx="5689600" cy="565150"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9330,15 +9627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9350,8 +9647,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1663700" y="4908550"/>
-          <a:ext cx="5740400" cy="203200"/>
+          <a:off x="1701800" y="5232400"/>
+          <a:ext cx="5689600" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9382,15 +9679,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9402,8 +9699,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1663700" y="4908550"/>
-          <a:ext cx="5740400" cy="965200"/>
+          <a:off x="1701800" y="5232400"/>
+          <a:ext cx="5689600" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9434,15 +9731,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9451,7 +9748,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11506200" y="6527800"/>
+          <a:off x="11480800" y="6743700"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9495,15 +9792,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9515,8 +9812,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8699500" y="3587750"/>
-          <a:ext cx="2806700" cy="3225800"/>
+          <a:off x="8686800" y="3905250"/>
+          <a:ext cx="2794000" cy="3124200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9547,15 +9844,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9567,8 +9864,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8699500" y="4349750"/>
-          <a:ext cx="2806700" cy="2463800"/>
+          <a:off x="8686800" y="4667250"/>
+          <a:ext cx="2794000" cy="2362200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9599,15 +9896,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9619,8 +9916,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8699500" y="5111750"/>
-          <a:ext cx="2806700" cy="1701800"/>
+          <a:off x="8686800" y="5365750"/>
+          <a:ext cx="2794000" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9651,15 +9948,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9671,8 +9968,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8699500" y="5873750"/>
-          <a:ext cx="2806700" cy="939800"/>
+          <a:off x="8686800" y="6127750"/>
+          <a:ext cx="2794000" cy="901700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -9703,15 +10000,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9720,7 +10017,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10629900" y="4432300"/>
+          <a:off x="10617200" y="4699000"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9764,15 +10061,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9781,7 +10078,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10629900" y="5575300"/>
+          <a:off x="10604500" y="5842000"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9820,15 +10117,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9839,9 +10136,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8699500" y="5861050"/>
-          <a:ext cx="1930400" cy="12700"/>
+        <a:xfrm>
+          <a:off x="8686800" y="6127750"/>
+          <a:ext cx="1917700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9870,15 +10167,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9887,7 +10184,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14744700" y="4432300"/>
+          <a:off x="14719300" y="4699000"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9927,15 +10224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9947,8 +10244,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11925300" y="4718050"/>
-          <a:ext cx="2819400" cy="0"/>
+          <a:off x="11912600" y="4984750"/>
+          <a:ext cx="2806700" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9977,15 +10274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9997,8 +10294,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8699500" y="4349750"/>
-          <a:ext cx="1930400" cy="368300"/>
+          <a:off x="8686800" y="4667250"/>
+          <a:ext cx="1930400" cy="317500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10029,15 +10326,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10049,8 +10346,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8699500" y="4718050"/>
-          <a:ext cx="1930400" cy="393700"/>
+          <a:off x="8686800" y="4984750"/>
+          <a:ext cx="1930400" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10082,14 +10379,14 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10101,8 +10398,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6197600" y="3181350"/>
-          <a:ext cx="1206500" cy="406400"/>
+          <a:off x="6197600" y="3473450"/>
+          <a:ext cx="1193800" cy="431800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10133,27 +10430,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="131" name="Elbow Connector 130"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="91" idx="3"/>
-          <a:endCxn id="73" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1663700" y="3587750"/>
+          <a:off x="1701800" y="3911600"/>
           <a:ext cx="5740400" cy="1320800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -10186,14 +10482,14 @@
     <xdr:from>
       <xdr:col>78</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>84</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10202,7 +10498,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16891000" y="4419600"/>
+          <a:off x="16891000" y="4991100"/>
           <a:ext cx="1295400" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10247,14 +10543,14 @@
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10263,7 +10559,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14744700" y="5575300"/>
+          <a:off x="14744700" y="5842000"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10307,15 +10603,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10327,8 +10623,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11925300" y="5861050"/>
-          <a:ext cx="2819400" cy="0"/>
+          <a:off x="11899900" y="6127750"/>
+          <a:ext cx="2844800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10358,14 +10654,14 @@
     <xdr:from>
       <xdr:col>78</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>84</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10374,7 +10670,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16852900" y="6426200"/>
+          <a:off x="16852900" y="6654800"/>
           <a:ext cx="1295400" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10418,15 +10714,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10437,9 +10733,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12801600" y="6807200"/>
-          <a:ext cx="4051300" cy="6350"/>
+        <a:xfrm>
+          <a:off x="12776200" y="7029450"/>
+          <a:ext cx="4076700" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10469,14 +10765,14 @@
     <xdr:from>
       <xdr:col>78</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>84</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10485,7 +10781,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16840200" y="7480300"/>
+          <a:off x="16840200" y="7581900"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10534,15 +10830,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10554,8 +10850,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12801600" y="6813550"/>
-          <a:ext cx="4038600" cy="952500"/>
+          <a:off x="12776200" y="7029450"/>
+          <a:ext cx="4064000" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10586,15 +10882,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10605,9 +10901,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16040100" y="4711700"/>
-          <a:ext cx="850900" cy="6350"/>
+        <a:xfrm>
+          <a:off x="16014700" y="5276850"/>
+          <a:ext cx="876300" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10637,13 +10933,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10696,13 +10992,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10755,13 +11051,13 @@
     <xdr:from>
       <xdr:col>71</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>71</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10773,7 +11069,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15328900" y="7531100"/>
+          <a:off x="15328900" y="7823200"/>
           <a:ext cx="0" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -10804,13 +11100,13 @@
     <xdr:from>
       <xdr:col>43</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10822,7 +11118,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9328150" y="7531100"/>
+          <a:off x="9328150" y="7823200"/>
           <a:ext cx="0" cy="260350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -10851,16 +11147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10869,7 +11165,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="406400" y="5372100"/>
+          <a:off x="444500" y="5695950"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10915,28 +11211,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="56" name="Elbow Connector 55"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="55" idx="3"/>
-          <a:endCxn id="74" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1701800" y="4349750"/>
+          <a:off x="1739900" y="4673600"/>
           <a:ext cx="5702300" cy="1308100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -10967,16 +11262,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10988,8 +11283,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1701800" y="5111750"/>
-          <a:ext cx="5702300" cy="546100"/>
+          <a:off x="1739900" y="5365750"/>
+          <a:ext cx="5651500" cy="615950"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11019,16 +11314,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11040,8 +11335,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1701800" y="5657850"/>
-          <a:ext cx="5702300" cy="215900"/>
+          <a:off x="1739900" y="5981700"/>
+          <a:ext cx="5651500" cy="146050"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11071,28 +11366,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="59" name="Elbow Connector 58"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="55" idx="3"/>
-          <a:endCxn id="73" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1701800" y="3587750"/>
+          <a:off x="1739900" y="3911600"/>
           <a:ext cx="5702300" cy="2070100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -11124,14 +11418,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11141,7 +11435,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7378700" y="2451100"/>
+          <a:off x="7416800" y="3124200"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11186,14 +11480,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11202,7 +11496,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4902200" y="2895600"/>
+          <a:off x="4902200" y="3187700"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11247,14 +11541,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11266,8 +11560,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1714500" y="2736850"/>
-          <a:ext cx="5664200" cy="25400"/>
+          <a:off x="1714500" y="3409950"/>
+          <a:ext cx="5702300" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11295,16 +11589,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11313,7 +11607,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12522200" y="2451100"/>
+          <a:off x="12509500" y="2844800"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11366,14 +11660,14 @@
     <xdr:from>
       <xdr:col>58</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11382,7 +11676,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12522200" y="3225800"/>
+          <a:off x="12522200" y="3670300"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11434,15 +11728,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11454,8 +11748,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11925300" y="2736850"/>
-          <a:ext cx="596900" cy="1981200"/>
+          <a:off x="11912600" y="3130550"/>
+          <a:ext cx="596900" cy="1854200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11486,15 +11780,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11506,8 +11800,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11925300" y="3511550"/>
-          <a:ext cx="596900" cy="2349500"/>
+          <a:off x="11899900" y="3956050"/>
+          <a:ext cx="622300" cy="2171700"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11538,15 +11832,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11558,8 +11852,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8674100" y="2736850"/>
-          <a:ext cx="3848100" cy="774700"/>
+          <a:off x="8712200" y="3409950"/>
+          <a:ext cx="3810000" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -11590,15 +11884,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>40</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11610,8 +11904,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8674100" y="2736850"/>
-          <a:ext cx="3848100" cy="0"/>
+          <a:off x="8712200" y="3409950"/>
+          <a:ext cx="3797300" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11641,14 +11935,14 @@
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11657,7 +11951,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14732000" y="2463800"/>
+          <a:off x="14732000" y="2832100"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11697,15 +11991,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>78</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>84</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11714,7 +12008,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16891000" y="2463800"/>
+          <a:off x="16865600" y="2832100"/>
           <a:ext cx="1295400" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11759,14 +12053,14 @@
     <xdr:from>
       <xdr:col>78</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>84</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11775,7 +12069,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16891000" y="5562600"/>
+          <a:off x="16891000" y="5829300"/>
           <a:ext cx="1295400" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11820,14 +12114,14 @@
     <xdr:from>
       <xdr:col>74</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11839,7 +12133,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="16040100" y="5854700"/>
+          <a:off x="16040100" y="6121400"/>
           <a:ext cx="850900" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -11870,14 +12164,14 @@
     <xdr:from>
       <xdr:col>74</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11889,8 +12183,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16027400" y="2749550"/>
-          <a:ext cx="863600" cy="6350"/>
+          <a:off x="16027400" y="3117850"/>
+          <a:ext cx="838200" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11920,14 +12214,14 @@
     <xdr:from>
       <xdr:col>68</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11936,7 +12230,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14732000" y="3225800"/>
+          <a:off x="14732000" y="3657600"/>
           <a:ext cx="1295400" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11977,14 +12271,14 @@
     <xdr:from>
       <xdr:col>74</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11995,8 +12289,8 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="16027400" y="3505200"/>
+        <a:xfrm>
+          <a:off x="16027400" y="3943350"/>
           <a:ext cx="863600" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -12027,14 +12321,14 @@
     <xdr:from>
       <xdr:col>78</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>84</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12043,7 +12337,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16891000" y="3213100"/>
+          <a:off x="16891000" y="3657600"/>
           <a:ext cx="1295400" cy="584200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12088,14 +12382,14 @@
     <xdr:from>
       <xdr:col>64</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -12106,9 +12400,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13817600" y="3511550"/>
-          <a:ext cx="914400" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="13817600" y="3943350"/>
+          <a:ext cx="914400" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12136,15 +12430,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>68</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -12156,9 +12450,226 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13804900" y="3117850"/>
+          <a:ext cx="927100" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="Elbow Connector 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="272" idx="0"/>
+          <a:endCxn id="187" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="13731875" y="2149475"/>
+          <a:ext cx="412750" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="Rectangle 186"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="13817600" y="2736850"/>
-          <a:ext cx="914400" cy="12700"/>
+          <a:off x="14719300" y="2438400"/>
+          <a:ext cx="1295400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Shares electric heaters</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="Rectangle 188"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16865600" y="2451100"/>
+          <a:ext cx="1295400" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" u="none"/>
+            <a:t>CSVs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" u="none" baseline="0"/>
+            <a:t> with application shares for subsectors</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" u="sng"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="190" name="Elbow Connector 195"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="187" idx="3"/>
+          <a:endCxn id="189" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16014700" y="2724150"/>
+          <a:ext cx="850900" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -12494,6 +13005,63 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7484741" cy="276999"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="11201400"/>
+          <a:ext cx="7484741" cy="276999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
+            <a:t>The ETM supports a detailed modelling of the other industry </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+            <a:t>sector, for which you need to provide additional data.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13324,7 +13892,7 @@
       </c>
       <c r="C5" s="23">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -13354,7 +13922,7 @@
       </c>
       <c r="C8" s="71">
         <f>MAX(Changelog!B:B)</f>
-        <v>42576</v>
+        <v>42613</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -13639,13 +14207,13 @@
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
       <c r="A5" s="76"/>
-      <c r="B5" s="570" t="s">
+      <c r="B5" s="590" t="s">
         <v>475</v>
       </c>
-      <c r="C5" s="571"/>
-      <c r="D5" s="571"/>
-      <c r="E5" s="571"/>
-      <c r="F5" s="572"/>
+      <c r="C5" s="591"/>
+      <c r="D5" s="591"/>
+      <c r="E5" s="591"/>
+      <c r="F5" s="592"/>
       <c r="H5" s="76"/>
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>
@@ -14141,11 +14709,11 @@
       <c r="E4" s="84"/>
     </row>
     <row r="5" spans="2:7" ht="60" customHeight="1">
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="593" t="s">
         <v>479</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="574"/>
+      <c r="C5" s="594"/>
+      <c r="D5" s="594"/>
       <c r="E5" s="84"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1">
@@ -14324,12 +14892,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="595" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="576"/>
-      <c r="D5" s="576"/>
-      <c r="E5" s="577"/>
+      <c r="C5" s="596"/>
+      <c r="D5" s="596"/>
+      <c r="E5" s="597"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1"/>
     <row r="7" spans="2:7">
@@ -14796,12 +15364,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1">
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="595" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="576"/>
-      <c r="D5" s="576"/>
-      <c r="E5" s="577"/>
+      <c r="C5" s="596"/>
+      <c r="D5" s="596"/>
+      <c r="E5" s="597"/>
     </row>
     <row r="6" spans="2:5" ht="16" thickBot="1"/>
     <row r="7" spans="2:5">
@@ -15063,14 +15631,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1">
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="593" t="s">
         <v>529</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="574"/>
-      <c r="E5" s="574"/>
-      <c r="F5" s="574"/>
-      <c r="G5" s="578"/>
+      <c r="C5" s="594"/>
+      <c r="D5" s="594"/>
+      <c r="E5" s="594"/>
+      <c r="F5" s="594"/>
+      <c r="G5" s="598"/>
     </row>
     <row r="6" spans="1:12" ht="16" thickBot="1"/>
     <row r="7" spans="1:12">
@@ -15724,12 +16292,12 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="H27:L27">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:G27">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15794,14 +16362,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="44" customHeight="1">
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="593" t="s">
         <v>692</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="574"/>
-      <c r="E5" s="574"/>
-      <c r="F5" s="574"/>
-      <c r="G5" s="578"/>
+      <c r="C5" s="594"/>
+      <c r="D5" s="594"/>
+      <c r="E5" s="594"/>
+      <c r="F5" s="594"/>
+      <c r="G5" s="598"/>
     </row>
     <row r="6" spans="2:12" ht="16" thickBot="1"/>
     <row r="7" spans="2:12">
@@ -16062,12 +16630,12 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:L15">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:G15">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16134,14 +16702,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1">
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="593" t="s">
         <v>530</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="574"/>
-      <c r="E5" s="574"/>
-      <c r="F5" s="574"/>
-      <c r="G5" s="578"/>
+      <c r="C5" s="594"/>
+      <c r="D5" s="594"/>
+      <c r="E5" s="594"/>
+      <c r="F5" s="594"/>
+      <c r="G5" s="598"/>
     </row>
     <row r="6" spans="2:12" ht="16" thickBot="1"/>
     <row r="7" spans="2:12">
@@ -16642,12 +17210,12 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="H25:L25">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:G25">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16712,14 +17280,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="29" customHeight="1">
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="593" t="s">
         <v>531</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="574"/>
-      <c r="E5" s="574"/>
-      <c r="F5" s="574"/>
-      <c r="G5" s="578"/>
+      <c r="C5" s="594"/>
+      <c r="D5" s="594"/>
+      <c r="E5" s="594"/>
+      <c r="F5" s="594"/>
+      <c r="G5" s="598"/>
     </row>
     <row r="6" spans="2:12" ht="16" thickBot="1"/>
     <row r="7" spans="2:12">
@@ -17137,12 +17705,12 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:L20">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:G20">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17206,14 +17774,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="29" customHeight="1">
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="593" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="574"/>
-      <c r="E5" s="574"/>
-      <c r="F5" s="574"/>
-      <c r="G5" s="578"/>
+      <c r="C5" s="594"/>
+      <c r="D5" s="594"/>
+      <c r="E5" s="594"/>
+      <c r="F5" s="594"/>
+      <c r="G5" s="598"/>
     </row>
     <row r="6" spans="2:12" ht="16" thickBot="1"/>
     <row r="7" spans="2:12">
@@ -17820,12 +18388,12 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="H26:L26">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:G26">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17890,14 +18458,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1">
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="593" t="s">
         <v>533</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="574"/>
-      <c r="E5" s="574"/>
-      <c r="F5" s="574"/>
-      <c r="G5" s="578"/>
+      <c r="C5" s="594"/>
+      <c r="D5" s="594"/>
+      <c r="E5" s="594"/>
+      <c r="F5" s="594"/>
+      <c r="G5" s="598"/>
     </row>
     <row r="6" spans="2:12" ht="16" thickBot="1"/>
     <row r="7" spans="2:12">
@@ -18194,12 +18762,12 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:L20">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:G20">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18221,10 +18789,10 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="B2:D60"/>
+  <dimension ref="B2:D61"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -18852,9 +19420,20 @@
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="17"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="254"/>
+      <c r="B60" s="156">
+        <v>42613</v>
+      </c>
+      <c r="C60" s="157" t="s">
+        <v>693</v>
+      </c>
+      <c r="D60" s="159">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="17"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="254"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18917,11 +19496,11 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="45" customHeight="1">
-      <c r="B5" s="579" t="s">
+      <c r="B5" s="599" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="580"/>
-      <c r="D5" s="581"/>
+      <c r="C5" s="600"/>
+      <c r="D5" s="601"/>
       <c r="E5" s="167"/>
     </row>
     <row r="6" spans="2:8" ht="16" thickBot="1"/>
@@ -19080,7 +19659,7 @@
     <mergeCell ref="B5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19148,15 +19727,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="90" customHeight="1">
-      <c r="B5" s="582" t="s">
+      <c r="B5" s="602" t="s">
         <v>513</v>
       </c>
-      <c r="C5" s="583"/>
-      <c r="D5" s="583"/>
-      <c r="E5" s="583"/>
-      <c r="F5" s="583"/>
-      <c r="G5" s="583"/>
-      <c r="H5" s="584"/>
+      <c r="C5" s="603"/>
+      <c r="D5" s="603"/>
+      <c r="E5" s="603"/>
+      <c r="F5" s="603"/>
+      <c r="G5" s="603"/>
+      <c r="H5" s="604"/>
     </row>
     <row r="6" spans="2:13" ht="16" thickBot="1"/>
     <row r="7" spans="2:13">
@@ -19794,15 +20373,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="55" customHeight="1">
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="605" t="s">
         <v>688</v>
       </c>
-      <c r="C5" s="586"/>
-      <c r="D5" s="586"/>
-      <c r="E5" s="586"/>
-      <c r="F5" s="586"/>
-      <c r="G5" s="586"/>
-      <c r="H5" s="587"/>
+      <c r="C5" s="606"/>
+      <c r="D5" s="606"/>
+      <c r="E5" s="606"/>
+      <c r="F5" s="606"/>
+      <c r="G5" s="606"/>
+      <c r="H5" s="607"/>
     </row>
     <row r="6" spans="2:13" ht="16" thickBot="1"/>
     <row r="7" spans="2:13">
@@ -20559,7 +21138,7 @@
   <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -20606,15 +21185,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1">
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="605" t="s">
         <v>690</v>
       </c>
-      <c r="C5" s="586"/>
-      <c r="D5" s="586"/>
-      <c r="E5" s="586"/>
-      <c r="F5" s="586"/>
-      <c r="G5" s="586"/>
-      <c r="H5" s="587"/>
+      <c r="C5" s="606"/>
+      <c r="D5" s="606"/>
+      <c r="E5" s="606"/>
+      <c r="F5" s="606"/>
+      <c r="G5" s="606"/>
+      <c r="H5" s="607"/>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1"/>
     <row r="7" spans="1:13">
@@ -21332,12 +21911,12 @@
     <mergeCell ref="B5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="I27:M27">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:H27">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21406,15 +21985,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1">
-      <c r="B5" s="573" t="s">
+      <c r="B5" s="593" t="s">
         <v>689</v>
       </c>
-      <c r="C5" s="574"/>
-      <c r="D5" s="574"/>
-      <c r="E5" s="574"/>
-      <c r="F5" s="574"/>
-      <c r="G5" s="574"/>
-      <c r="H5" s="578"/>
+      <c r="C5" s="594"/>
+      <c r="D5" s="594"/>
+      <c r="E5" s="594"/>
+      <c r="F5" s="594"/>
+      <c r="G5" s="594"/>
+      <c r="H5" s="598"/>
     </row>
     <row r="6" spans="1:13" ht="16" thickBot="1"/>
     <row r="7" spans="1:13">
@@ -22047,12 +22626,12 @@
     <mergeCell ref="B5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="I27:M27">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:H27">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22074,7 +22653,7 @@
   <dimension ref="B2:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22101,12 +22680,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="595" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="576"/>
-      <c r="D5" s="576"/>
-      <c r="E5" s="577"/>
+      <c r="C5" s="596"/>
+      <c r="D5" s="596"/>
+      <c r="E5" s="597"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1"/>
     <row r="7" spans="2:7">
@@ -23312,7 +23891,7 @@
   <dimension ref="B2:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23339,12 +23918,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="575" t="s">
+      <c r="B5" s="595" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="576"/>
-      <c r="D5" s="576"/>
-      <c r="E5" s="577"/>
+      <c r="C5" s="596"/>
+      <c r="D5" s="596"/>
+      <c r="E5" s="597"/>
     </row>
     <row r="6" spans="2:7" ht="16" thickBot="1"/>
     <row r="7" spans="2:7">
@@ -24544,6 +25123,215 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="344" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="20">
+      <c r="B2" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="386"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" ht="31" customHeight="1">
+      <c r="B5" s="595" t="s">
+        <v>708</v>
+      </c>
+      <c r="C5" s="596"/>
+      <c r="D5" s="596"/>
+      <c r="E5" s="597"/>
+    </row>
+    <row r="6" spans="2:7" ht="16" thickBot="1"/>
+    <row r="7" spans="2:7">
+      <c r="B7" s="328" t="s">
+        <v>705</v>
+      </c>
+      <c r="C7" s="108"/>
+      <c r="D7" s="387"/>
+      <c r="E7" s="333"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="239"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="388"/>
+      <c r="E8" s="334"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="239" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="389" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="332" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="329" t="s">
+        <v>694</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="386"/>
+      <c r="E10" s="110"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="330"/>
+      <c r="C11" s="581" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="582">
+        <f>'Energetic FD subsectors'!L21</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="583" t="e">
+        <f>SUM(E12:E13)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G11" s="519"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="330"/>
+      <c r="C12" s="111" t="s">
+        <v>706</v>
+      </c>
+      <c r="D12" s="544" t="str">
+        <f>Dashboard!E63</f>
+        <v/>
+      </c>
+      <c r="E12" s="292" t="e">
+        <f>IF(SUM($D$12:$D$13)=0,0,D12/SUM($D$12:$D$13))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="330"/>
+      <c r="C13" s="111" t="s">
+        <v>707</v>
+      </c>
+      <c r="D13" s="544" t="e">
+        <f>D11-D12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="292" t="e">
+        <f>IF(SUM($D$12:$D$13)=0,1,D13/SUM($D$12:$D$13))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="330"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="545"/>
+      <c r="E14" s="334"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="33"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="545"/>
+      <c r="E15" s="293"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="329" t="s">
+        <v>695</v>
+      </c>
+      <c r="C16" s="109"/>
+      <c r="D16" s="546"/>
+      <c r="E16" s="294"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="330"/>
+      <c r="C17" s="581" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="582">
+        <f>'Energetic FD subsectors'!L22</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="583" t="e">
+        <f>SUM(E18:E19)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="519"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="330"/>
+      <c r="C18" s="111" t="s">
+        <v>706</v>
+      </c>
+      <c r="D18" s="544" t="str">
+        <f>Dashboard!E65</f>
+        <v/>
+      </c>
+      <c r="E18" s="292" t="e">
+        <f>IF(SUM($D$18:$D$19)=0,0,D18/SUM($D$18:$D$19))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="330"/>
+      <c r="C19" s="111" t="s">
+        <v>707</v>
+      </c>
+      <c r="D19" s="544" t="e">
+        <f>D17-D18</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E19" s="292" t="e">
+        <f>IF(SUM($D$18:$D$19)=0,1,D19/SUM($D$18:$D$19))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="330"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="545"/>
+      <c r="E20" s="295"/>
+    </row>
+    <row r="21" spans="2:7" ht="16" thickBot="1">
+      <c r="B21" s="331"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="547"/>
+      <c r="E21" s="113"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet22" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
@@ -24607,7 +25395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet24" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -24672,7 +25460,476 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+    <tabColor theme="2"/>
+  </sheetPr>
+  <dimension ref="B2:C59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="147.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="20">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="30" customHeight="1">
+      <c r="B4" s="312" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="313" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="28" customHeight="1">
+      <c r="B5" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="28" customHeight="1">
+      <c r="B6" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="28" customHeight="1">
+      <c r="B7" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="28" customHeight="1">
+      <c r="B8" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="28" customHeight="1">
+      <c r="B9" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="28" customHeight="1">
+      <c r="B10" s="114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="28" customHeight="1">
+      <c r="B11" s="115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="28" customHeight="1">
+      <c r="B12" s="116" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="460" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="28" customHeight="1">
+      <c r="B13" s="116" t="s">
+        <v>477</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="28" customHeight="1">
+      <c r="B14" s="116" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="28" customHeight="1">
+      <c r="B15" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="125" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="28" customHeight="1">
+      <c r="B16" s="119" t="s">
+        <v>649</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="28" customHeight="1">
+      <c r="B17" s="119" t="s">
+        <v>650</v>
+      </c>
+      <c r="C17" s="73" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="28" customHeight="1">
+      <c r="B18" s="118" t="s">
+        <v>658</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="28" customHeight="1">
+      <c r="B19" s="118" t="s">
+        <v>659</v>
+      </c>
+      <c r="C19" s="73" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="28" customHeight="1">
+      <c r="B20" s="117" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="28" customHeight="1">
+      <c r="B21" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="31" customHeight="1">
+      <c r="B22" s="117" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="460" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="31" customHeight="1">
+      <c r="B23" s="117" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="460" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="28" customHeight="1">
+      <c r="B24" s="117" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="73" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="28" customHeight="1">
+      <c r="B25" s="117" t="s">
+        <v>654</v>
+      </c>
+      <c r="C25" s="125" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="28" customHeight="1">
+      <c r="B26" s="117" t="s">
+        <v>653</v>
+      </c>
+      <c r="C26" s="125" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="28" customHeight="1">
+      <c r="B27" s="118" t="s">
+        <v>520</v>
+      </c>
+      <c r="C27" s="73" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="28" customHeight="1">
+      <c r="B28" s="118" t="s">
+        <v>660</v>
+      </c>
+      <c r="C28" s="73" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="28" customHeight="1">
+      <c r="B29" s="119" t="s">
+        <v>649</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="28" customHeight="1">
+      <c r="B30" s="119" t="s">
+        <v>650</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="28" customHeight="1">
+      <c r="B31" s="119" t="s">
+        <v>709</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="28" customHeight="1">
+      <c r="B32" s="120" t="s">
+        <v>367</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="28" customHeight="1">
+      <c r="B33" s="120" t="s">
+        <v>371</v>
+      </c>
+      <c r="C33" s="126" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="28" customHeight="1">
+      <c r="B34" s="120" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" s="126" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="28" customHeight="1">
+      <c r="B35" s="120" t="s">
+        <v>368</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="28" customHeight="1">
+      <c r="B36" s="120" t="s">
+        <v>372</v>
+      </c>
+      <c r="C36" s="126" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="28" customHeight="1">
+      <c r="B37" s="120" t="s">
+        <v>370</v>
+      </c>
+      <c r="C37" s="126" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="28" customHeight="1">
+      <c r="B38" s="120" t="s">
+        <v>366</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="28" customHeight="1">
+      <c r="B39" s="120" t="s">
+        <v>447</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="28" customHeight="1">
+      <c r="B40" s="120" t="s">
+        <v>449</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="28" customHeight="1">
+      <c r="B41" s="120" t="s">
+        <v>451</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="28" customHeight="1">
+      <c r="B42" s="120" t="s">
+        <v>453</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="28" customHeight="1">
+      <c r="B43" s="120" t="s">
+        <v>455</v>
+      </c>
+      <c r="C43" s="73" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="28" customHeight="1">
+      <c r="B44" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="C44" s="126" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="28" customHeight="1">
+      <c r="B45" s="120" t="s">
+        <v>409</v>
+      </c>
+      <c r="C45" s="126" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="28" customHeight="1">
+      <c r="B46" s="120" t="s">
+        <v>674</v>
+      </c>
+      <c r="C46" s="73" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="28" customHeight="1">
+      <c r="B47" s="120" t="s">
+        <v>675</v>
+      </c>
+      <c r="C47" s="73" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="28" customHeight="1">
+      <c r="B48" s="120" t="s">
+        <v>676</v>
+      </c>
+      <c r="C48" s="126" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="28" customHeight="1">
+      <c r="B49" s="120" t="s">
+        <v>677</v>
+      </c>
+      <c r="C49" s="126" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="28" customHeight="1">
+      <c r="B50" s="120" t="s">
+        <v>678</v>
+      </c>
+      <c r="C50" s="126" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="28" customHeight="1">
+      <c r="B51" s="120" t="s">
+        <v>679</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="28" customHeight="1">
+      <c r="B52" s="120" t="s">
+        <v>680</v>
+      </c>
+      <c r="C52" s="73" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="28" customHeight="1">
+      <c r="B53" s="120" t="s">
+        <v>681</v>
+      </c>
+      <c r="C53" s="73" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="28" customHeight="1">
+      <c r="B54" s="120" t="s">
+        <v>682</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="28" customHeight="1">
+      <c r="B55" s="120" t="s">
+        <v>683</v>
+      </c>
+      <c r="C55" s="73" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="28" customHeight="1">
+      <c r="B56" s="120" t="s">
+        <v>717</v>
+      </c>
+      <c r="C56" s="73" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="28" customHeight="1">
+      <c r="B57" s="120" t="s">
+        <v>716</v>
+      </c>
+      <c r="C57" s="73" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="28" customHeight="1"/>
+    <row r="59" spans="2:3" ht="28" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet25" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -24738,452 +25995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
-    <tabColor theme="2"/>
-  </sheetPr>
-  <dimension ref="B2:C56"/>
-  <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="30.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="147.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="20">
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="30" customHeight="1">
-      <c r="B4" s="312" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="313" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="28" customHeight="1">
-      <c r="B5" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="28" customHeight="1">
-      <c r="B6" s="114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="28" customHeight="1">
-      <c r="B7" s="114" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="28" customHeight="1">
-      <c r="B8" s="114" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="28" customHeight="1">
-      <c r="B9" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="28" customHeight="1">
-      <c r="B10" s="114" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="28" customHeight="1">
-      <c r="B11" s="115" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="73" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="28" customHeight="1">
-      <c r="B12" s="116" t="s">
-        <v>398</v>
-      </c>
-      <c r="C12" s="460" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="28" customHeight="1">
-      <c r="B13" s="116" t="s">
-        <v>477</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="28" customHeight="1">
-      <c r="B14" s="116" t="s">
-        <v>478</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="28" customHeight="1">
-      <c r="B15" s="116" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="125" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="28" customHeight="1">
-      <c r="B16" s="119" t="s">
-        <v>649</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="28" customHeight="1">
-      <c r="B17" s="119" t="s">
-        <v>650</v>
-      </c>
-      <c r="C17" s="73" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="28" customHeight="1">
-      <c r="B18" s="118" t="s">
-        <v>658</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="28" customHeight="1">
-      <c r="B19" s="118" t="s">
-        <v>659</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="28" customHeight="1">
-      <c r="B20" s="117" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="28" customHeight="1">
-      <c r="B21" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="31" customHeight="1">
-      <c r="B22" s="117" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="460" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="31" customHeight="1">
-      <c r="B23" s="117" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="460" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="28" customHeight="1">
-      <c r="B24" s="117" t="s">
-        <v>249</v>
-      </c>
-      <c r="C24" s="73" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="28" customHeight="1">
-      <c r="B25" s="117" t="s">
-        <v>654</v>
-      </c>
-      <c r="C25" s="125" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="28" customHeight="1">
-      <c r="B26" s="117" t="s">
-        <v>653</v>
-      </c>
-      <c r="C26" s="125" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="28" customHeight="1">
-      <c r="B27" s="118" t="s">
-        <v>520</v>
-      </c>
-      <c r="C27" s="73" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="28" customHeight="1">
-      <c r="B28" s="118" t="s">
-        <v>660</v>
-      </c>
-      <c r="C28" s="73" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="28" customHeight="1">
-      <c r="B29" s="119" t="s">
-        <v>649</v>
-      </c>
-      <c r="C29" s="73" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="28" customHeight="1">
-      <c r="B30" s="119" t="s">
-        <v>650</v>
-      </c>
-      <c r="C30" s="73" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="28" customHeight="1">
-      <c r="B31" s="120" t="s">
-        <v>367</v>
-      </c>
-      <c r="C31" s="73" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="28" customHeight="1">
-      <c r="B32" s="120" t="s">
-        <v>371</v>
-      </c>
-      <c r="C32" s="126" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="28" customHeight="1">
-      <c r="B33" s="120" t="s">
-        <v>369</v>
-      </c>
-      <c r="C33" s="126" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="28" customHeight="1">
-      <c r="B34" s="120" t="s">
-        <v>368</v>
-      </c>
-      <c r="C34" s="73" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="28" customHeight="1">
-      <c r="B35" s="120" t="s">
-        <v>372</v>
-      </c>
-      <c r="C35" s="126" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="28" customHeight="1">
-      <c r="B36" s="120" t="s">
-        <v>370</v>
-      </c>
-      <c r="C36" s="126" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="28" customHeight="1">
-      <c r="B37" s="120" t="s">
-        <v>366</v>
-      </c>
-      <c r="C37" s="73" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="28" customHeight="1">
-      <c r="B38" s="120" t="s">
-        <v>447</v>
-      </c>
-      <c r="C38" s="73" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="28" customHeight="1">
-      <c r="B39" s="120" t="s">
-        <v>449</v>
-      </c>
-      <c r="C39" s="73" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="28" customHeight="1">
-      <c r="B40" s="120" t="s">
-        <v>451</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="28" customHeight="1">
-      <c r="B41" s="120" t="s">
-        <v>453</v>
-      </c>
-      <c r="C41" s="73" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="28" customHeight="1">
-      <c r="B42" s="120" t="s">
-        <v>455</v>
-      </c>
-      <c r="C42" s="73" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" ht="28" customHeight="1">
-      <c r="B43" s="120" t="s">
-        <v>408</v>
-      </c>
-      <c r="C43" s="126" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="28" customHeight="1">
-      <c r="B44" s="120" t="s">
-        <v>409</v>
-      </c>
-      <c r="C44" s="126" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="28" customHeight="1">
-      <c r="B45" s="120" t="s">
-        <v>674</v>
-      </c>
-      <c r="C45" s="73" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="28" customHeight="1">
-      <c r="B46" s="120" t="s">
-        <v>675</v>
-      </c>
-      <c r="C46" s="73" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="28" customHeight="1">
-      <c r="B47" s="120" t="s">
-        <v>676</v>
-      </c>
-      <c r="C47" s="126" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="28" customHeight="1">
-      <c r="B48" s="120" t="s">
-        <v>677</v>
-      </c>
-      <c r="C48" s="126" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="28" customHeight="1">
-      <c r="B49" s="120" t="s">
-        <v>678</v>
-      </c>
-      <c r="C49" s="126" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="28" customHeight="1">
-      <c r="B50" s="120" t="s">
-        <v>679</v>
-      </c>
-      <c r="C50" s="73" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="28" customHeight="1">
-      <c r="B51" s="120" t="s">
-        <v>680</v>
-      </c>
-      <c r="C51" s="73" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="28" customHeight="1">
-      <c r="B52" s="120" t="s">
-        <v>681</v>
-      </c>
-      <c r="C52" s="73" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="28" customHeight="1">
-      <c r="B53" s="120" t="s">
-        <v>682</v>
-      </c>
-      <c r="C53" s="73" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="28" customHeight="1">
-      <c r="B54" s="120" t="s">
-        <v>683</v>
-      </c>
-      <c r="C54" s="73" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="28" customHeight="1"/>
-    <row r="56" spans="2:3" ht="28" customHeight="1"/>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet26" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -25249,7 +26061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet27" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -25315,7 +26127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet28" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -25380,7 +26192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet29" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -25433,7 +26245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet30" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -25485,7 +26297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet31" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -25537,7 +26349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet32" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -25589,7 +26401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet34" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -25645,7 +26457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet35" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -25681,133 +26493,6 @@
       </c>
       <c r="B3" s="452">
         <f>'Coal loss analysis'!D18</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>535</v>
-      </c>
-      <c r="B3" s="452">
-        <f>'Shares energetic FD subsectors'!E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>536</v>
-      </c>
-      <c r="B4" s="452">
-        <f>'Shares energetic FD subsectors'!E12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>537</v>
-      </c>
-      <c r="B5" s="452">
-        <f>'Shares energetic FD subsectors'!E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B6" s="452">
-        <f>'Shares energetic FD subsectors'!E14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B7" s="452">
-        <f>'Shares energetic FD subsectors'!E15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>540</v>
-      </c>
-      <c r="B8" s="452">
-        <f>'Shares energetic FD subsectors'!E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>541</v>
-      </c>
-      <c r="B9" s="452">
-        <f>'Shares energetic FD subsectors'!E17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>542</v>
-      </c>
-      <c r="B10" s="452">
-        <f>'Shares energetic FD subsectors'!E18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B11" s="452">
-        <f>'Shares energetic FD subsectors'!E19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>544</v>
-      </c>
-      <c r="B12" s="452">
-        <f>'Shares energetic FD subsectors'!E20</f>
         <v>1</v>
       </c>
     </row>
@@ -25946,14 +26631,14 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="L59" sqref="L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -25966,91 +26651,91 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="B3" s="452">
-        <f>'Shares energetic FD subsectors'!E23</f>
+        <f>'Shares energetic FD subsectors'!E11</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B4" s="452">
-        <f>'Shares energetic FD subsectors'!E24</f>
+        <f>'Shares energetic FD subsectors'!E12</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B5" s="452">
-        <f>'Shares energetic FD subsectors'!E25</f>
+        <f>'Shares energetic FD subsectors'!E13</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B6" s="452">
-        <f>'Shares energetic FD subsectors'!E26</f>
+        <f>'Shares energetic FD subsectors'!E14</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B7" s="452">
-        <f>'Shares energetic FD subsectors'!E27</f>
+        <f>'Shares energetic FD subsectors'!E15</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B8" s="452">
-        <f>'Shares energetic FD subsectors'!E28</f>
+        <f>'Shares energetic FD subsectors'!E16</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="B9" s="452">
-        <f>'Shares energetic FD subsectors'!E29</f>
+        <f>'Shares energetic FD subsectors'!E17</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="B10" s="452">
-        <f>'Shares energetic FD subsectors'!E30</f>
+        <f>'Shares energetic FD subsectors'!E18</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B11" s="452">
-        <f>'Shares energetic FD subsectors'!E31</f>
+        <f>'Shares energetic FD subsectors'!E19</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B12" s="452">
-        <f>'Shares energetic FD subsectors'!E32</f>
+        <f>'Shares energetic FD subsectors'!E20</f>
         <v>1</v>
       </c>
     </row>
@@ -26080,7 +26765,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26093,91 +26778,91 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B3" s="452">
-        <f>'Shares energetic FD subsectors'!E35</f>
+        <f>'Shares energetic FD subsectors'!E23</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B4" s="452">
-        <f>'Shares energetic FD subsectors'!E36</f>
+        <f>'Shares energetic FD subsectors'!E24</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B5" s="452">
-        <f>'Shares energetic FD subsectors'!E37</f>
+        <f>'Shares energetic FD subsectors'!E25</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B6" s="452">
-        <f>'Shares energetic FD subsectors'!E38</f>
+        <f>'Shares energetic FD subsectors'!E26</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="B7" s="452">
-        <f>'Shares energetic FD subsectors'!E39</f>
+        <f>'Shares energetic FD subsectors'!E27</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B8" s="452">
-        <f>'Shares energetic FD subsectors'!E40</f>
+        <f>'Shares energetic FD subsectors'!E28</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B9" s="452">
-        <f>'Shares energetic FD subsectors'!E41</f>
+        <f>'Shares energetic FD subsectors'!E29</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B10" s="452">
-        <f>'Shares energetic FD subsectors'!E42</f>
+        <f>'Shares energetic FD subsectors'!E30</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="B11" s="452">
-        <f>'Shares energetic FD subsectors'!E43</f>
+        <f>'Shares energetic FD subsectors'!E31</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B12" s="452">
-        <f>'Shares energetic FD subsectors'!E44</f>
+        <f>'Shares energetic FD subsectors'!E32</f>
         <v>1</v>
       </c>
     </row>
@@ -26200,14 +26885,14 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26220,91 +26905,91 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B3" s="452">
-        <f>'Shares energetic FD subsectors'!E47</f>
+        <f>'Shares energetic FD subsectors'!E35</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B4" s="452">
-        <f>'Shares energetic FD subsectors'!E48</f>
+        <f>'Shares energetic FD subsectors'!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B5" s="452">
-        <f>'Shares energetic FD subsectors'!E49</f>
+        <f>'Shares energetic FD subsectors'!E37</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B6" s="452">
-        <f>'Shares energetic FD subsectors'!E50</f>
+        <f>'Shares energetic FD subsectors'!E38</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B7" s="452">
-        <f>'Shares energetic FD subsectors'!E51</f>
+        <f>'Shares energetic FD subsectors'!E39</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B8" s="452">
-        <f>'Shares energetic FD subsectors'!E52</f>
+        <f>'Shares energetic FD subsectors'!E40</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="B9" s="452">
-        <f>'Shares energetic FD subsectors'!E53</f>
+        <f>'Shares energetic FD subsectors'!E41</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B10" s="452">
-        <f>'Shares energetic FD subsectors'!E54</f>
+        <f>'Shares energetic FD subsectors'!E42</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B11" s="452">
-        <f>'Shares energetic FD subsectors'!E55</f>
+        <f>'Shares energetic FD subsectors'!E43</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="B12" s="452">
-        <f>'Shares energetic FD subsectors'!E56</f>
+        <f>'Shares energetic FD subsectors'!E44</f>
         <v>1</v>
       </c>
     </row>
@@ -26327,14 +27012,14 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26347,91 +27032,91 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B3" s="452">
-        <f>'Shares energetic FD subsectors'!E59</f>
+        <f>'Shares energetic FD subsectors'!E47</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B4" s="452">
-        <f>'Shares energetic FD subsectors'!E60</f>
+        <f>'Shares energetic FD subsectors'!E48</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B5" s="452">
-        <f>'Shares energetic FD subsectors'!E61</f>
+        <f>'Shares energetic FD subsectors'!E49</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B6" s="452">
-        <f>'Shares energetic FD subsectors'!E62</f>
+        <f>'Shares energetic FD subsectors'!E50</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B7" s="452">
-        <f>'Shares energetic FD subsectors'!E63</f>
+        <f>'Shares energetic FD subsectors'!E51</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B8" s="452">
-        <f>'Shares energetic FD subsectors'!E64</f>
+        <f>'Shares energetic FD subsectors'!E52</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B9" s="452">
-        <f>'Shares energetic FD subsectors'!E65</f>
+        <f>'Shares energetic FD subsectors'!E53</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B10" s="452">
-        <f>'Shares energetic FD subsectors'!E66</f>
+        <f>'Shares energetic FD subsectors'!E54</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="B11" s="452">
-        <f>'Shares energetic FD subsectors'!E67</f>
+        <f>'Shares energetic FD subsectors'!E55</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B12" s="452">
-        <f>'Shares energetic FD subsectors'!E68</f>
+        <f>'Shares energetic FD subsectors'!E56</f>
         <v>1</v>
       </c>
     </row>
@@ -26454,14 +27139,14 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26474,91 +27159,91 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B3" s="452">
-        <f>'Shares energetic FD subsectors'!E71</f>
+        <f>'Shares energetic FD subsectors'!E59</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B4" s="452">
-        <f>'Shares energetic FD subsectors'!E72</f>
+        <f>'Shares energetic FD subsectors'!E60</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B5" s="452">
-        <f>'Shares energetic FD subsectors'!E73</f>
+        <f>'Shares energetic FD subsectors'!E61</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="B6" s="452">
-        <f>'Shares energetic FD subsectors'!E74</f>
+        <f>'Shares energetic FD subsectors'!E62</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="B7" s="452">
-        <f>'Shares energetic FD subsectors'!E75</f>
+        <f>'Shares energetic FD subsectors'!E63</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B8" s="452">
-        <f>'Shares energetic FD subsectors'!E76</f>
+        <f>'Shares energetic FD subsectors'!E64</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="B9" s="452">
-        <f>'Shares energetic FD subsectors'!E77</f>
+        <f>'Shares energetic FD subsectors'!E65</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B10" s="452">
-        <f>'Shares energetic FD subsectors'!E78</f>
+        <f>'Shares energetic FD subsectors'!E66</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="B11" s="452">
-        <f>'Shares energetic FD subsectors'!E79</f>
+        <f>'Shares energetic FD subsectors'!E67</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="B12" s="452">
-        <f>'Shares energetic FD subsectors'!E80</f>
+        <f>'Shares energetic FD subsectors'!E68</f>
         <v>1</v>
       </c>
     </row>
@@ -26581,14 +27266,14 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26601,91 +27286,91 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="B3" s="452">
-        <f>'Shares non-e FD subsectors'!E11</f>
+        <f>'Shares energetic FD subsectors'!E71</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="B4" s="452">
-        <f>'Shares non-e FD subsectors'!E12</f>
+        <f>'Shares energetic FD subsectors'!E72</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="B5" s="452">
-        <f>'Shares non-e FD subsectors'!E13</f>
+        <f>'Shares energetic FD subsectors'!E73</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="B6" s="452">
-        <f>'Shares non-e FD subsectors'!E14</f>
+        <f>'Shares energetic FD subsectors'!E74</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
       <c r="B7" s="452">
-        <f>'Shares non-e FD subsectors'!E15</f>
+        <f>'Shares energetic FD subsectors'!E75</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="B8" s="452">
-        <f>'Shares non-e FD subsectors'!E16</f>
+        <f>'Shares energetic FD subsectors'!E76</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
       <c r="B9" s="452">
-        <f>'Shares non-e FD subsectors'!E17</f>
+        <f>'Shares energetic FD subsectors'!E77</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="B10" s="452">
-        <f>'Shares non-e FD subsectors'!E18</f>
+        <f>'Shares energetic FD subsectors'!E78</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="B11" s="452">
-        <f>'Shares non-e FD subsectors'!E19</f>
+        <f>'Shares energetic FD subsectors'!E79</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="B12" s="452">
-        <f>'Shares non-e FD subsectors'!E20</f>
+        <f>'Shares energetic FD subsectors'!E80</f>
         <v>1</v>
       </c>
     </row>
@@ -26715,7 +27400,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26728,91 +27413,91 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B3" s="452">
-        <f>'Shares non-e FD subsectors'!E23</f>
+        <f>'Shares non-e FD subsectors'!E11</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="B4" s="452">
-        <f>'Shares non-e FD subsectors'!E24</f>
+        <f>'Shares non-e FD subsectors'!E12</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="B5" s="452">
-        <f>'Shares non-e FD subsectors'!E25</f>
+        <f>'Shares non-e FD subsectors'!E13</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="B6" s="452">
-        <f>'Shares non-e FD subsectors'!E26</f>
+        <f>'Shares non-e FD subsectors'!E14</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="B7" s="452">
-        <f>'Shares non-e FD subsectors'!E27</f>
+        <f>'Shares non-e FD subsectors'!E15</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="B8" s="452">
-        <f>'Shares non-e FD subsectors'!E28</f>
+        <f>'Shares non-e FD subsectors'!E16</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="B9" s="452">
-        <f>'Shares non-e FD subsectors'!E29</f>
+        <f>'Shares non-e FD subsectors'!E17</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="B10" s="452">
-        <f>'Shares non-e FD subsectors'!E30</f>
+        <f>'Shares non-e FD subsectors'!E18</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="B11" s="452">
-        <f>'Shares non-e FD subsectors'!E31</f>
+        <f>'Shares non-e FD subsectors'!E19</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="B12" s="452">
-        <f>'Shares non-e FD subsectors'!E32</f>
+        <f>'Shares non-e FD subsectors'!E20</f>
         <v>1</v>
       </c>
     </row>
@@ -26842,7 +27527,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26855,91 +27540,91 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="B3" s="452">
-        <f>'Shares non-e FD subsectors'!E35</f>
+        <f>'Shares non-e FD subsectors'!E23</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="B4" s="452">
-        <f>'Shares non-e FD subsectors'!E36</f>
+        <f>'Shares non-e FD subsectors'!E24</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="B5" s="452">
-        <f>'Shares non-e FD subsectors'!E37</f>
+        <f>'Shares non-e FD subsectors'!E25</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="B6" s="452">
-        <f>'Shares non-e FD subsectors'!E38</f>
+        <f>'Shares non-e FD subsectors'!E26</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="B7" s="452">
-        <f>'Shares non-e FD subsectors'!E39</f>
+        <f>'Shares non-e FD subsectors'!E27</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="B8" s="452">
-        <f>'Shares non-e FD subsectors'!E40</f>
+        <f>'Shares non-e FD subsectors'!E28</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="B9" s="452">
-        <f>'Shares non-e FD subsectors'!E41</f>
+        <f>'Shares non-e FD subsectors'!E29</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="B10" s="452">
-        <f>'Shares non-e FD subsectors'!E42</f>
+        <f>'Shares non-e FD subsectors'!E30</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="B11" s="452">
-        <f>'Shares non-e FD subsectors'!E43</f>
+        <f>'Shares non-e FD subsectors'!E31</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="B12" s="452">
-        <f>'Shares non-e FD subsectors'!E44</f>
+        <f>'Shares non-e FD subsectors'!E32</f>
         <v>1</v>
       </c>
     </row>
@@ -26969,6 +27654,133 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B3" s="452">
+        <f>'Shares non-e FD subsectors'!E35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>629</v>
+      </c>
+      <c r="B4" s="452">
+        <f>'Shares non-e FD subsectors'!E36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B5" s="452">
+        <f>'Shares non-e FD subsectors'!E37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B6" s="452">
+        <f>'Shares non-e FD subsectors'!E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B7" s="452">
+        <f>'Shares non-e FD subsectors'!E39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B8" s="452">
+        <f>'Shares non-e FD subsectors'!E40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B9" s="452">
+        <f>'Shares non-e FD subsectors'!E41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B10" s="452">
+        <f>'Shares non-e FD subsectors'!E42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>636</v>
+      </c>
+      <c r="B11" s="452">
+        <f>'Shares non-e FD subsectors'!E43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>637</v>
+      </c>
+      <c r="B12" s="452">
+        <f>'Shares non-e FD subsectors'!E44</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>638</v>
       </c>
     </row>
@@ -27087,10 +27899,10 @@
     <tabColor theme="2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:CZ28"/>
+  <dimension ref="B2:CZ29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CZ21" sqref="CZ21"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="CO17" sqref="CO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -27467,11 +28279,83 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="2:80">
-      <c r="CB8" s="49"/>
-    </row>
-    <row r="28" spans="104:104">
-      <c r="CZ28" s="1" t="s">
+    <row r="7" spans="2:80" ht="23">
+      <c r="B7" s="52"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="52"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="52"/>
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="52"/>
+      <c r="BB7" s="52"/>
+      <c r="BC7" s="52"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
+      <c r="BG7" s="52"/>
+      <c r="BH7" s="52"/>
+      <c r="BI7" s="52"/>
+      <c r="BJ7" s="52"/>
+      <c r="BK7" s="52"/>
+      <c r="BL7" s="52"/>
+      <c r="BM7" s="52"/>
+      <c r="BN7" s="52"/>
+      <c r="BO7" s="52"/>
+      <c r="BP7" s="52"/>
+      <c r="BR7" s="52"/>
+      <c r="BS7" s="52"/>
+      <c r="BT7" s="52"/>
+      <c r="BU7" s="61"/>
+    </row>
+    <row r="9" spans="2:80">
+      <c r="CB9" s="49"/>
+    </row>
+    <row r="29" spans="104:104">
+      <c r="CZ29" s="1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -27483,6 +28367,164 @@
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>710</v>
+      </c>
+      <c r="B3" s="452" t="e">
+        <f>'Shares electric heaters'!E12</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4" s="452" t="e">
+        <f>'Shares electric heaters'!E13</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="452"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="452"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="452"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="452"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="452"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="452"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="452"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="452"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="452" t="e">
+        <f>'Shares electric heaters'!E18</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4" s="452" t="e">
+        <f>'Shares electric heaters'!E19</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="452"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="452"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="452"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="452"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="452"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="452"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="452"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="452"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -27519,10 +28561,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="79" customHeight="1">
-      <c r="B5" s="564" t="s">
+      <c r="B5" s="584" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="565"/>
+      <c r="C5" s="585"/>
     </row>
     <row r="6" spans="2:4" ht="16" thickBot="1">
       <c r="B6" s="8"/>
@@ -28152,15 +29194,15 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:P65"/>
+  <dimension ref="B2:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="20.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.83203125" style="123" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.83203125" style="1" customWidth="1"/>
@@ -28168,7 +29210,7 @@
     <col min="8" max="8" width="2.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.83203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="50.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="59.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="50.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="1"/>
@@ -28222,11 +29264,11 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="566" t="s">
+      <c r="B5" s="586" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="567"/>
-      <c r="D5" s="568"/>
+      <c r="C5" s="587"/>
+      <c r="D5" s="588"/>
       <c r="G5" s="510"/>
       <c r="I5" s="16"/>
       <c r="J5" s="8"/>
@@ -28237,9 +29279,9 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="2:16">
-      <c r="B6" s="566"/>
-      <c r="C6" s="567"/>
-      <c r="D6" s="568"/>
+      <c r="B6" s="586"/>
+      <c r="C6" s="587"/>
+      <c r="D6" s="588"/>
       <c r="G6" s="511"/>
       <c r="I6" s="16"/>
       <c r="J6" s="8"/>
@@ -28250,9 +29292,9 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="2:16" ht="32" customHeight="1">
-      <c r="B7" s="564"/>
-      <c r="C7" s="569"/>
-      <c r="D7" s="565"/>
+      <c r="B7" s="584"/>
+      <c r="C7" s="589"/>
+      <c r="D7" s="585"/>
       <c r="I7" s="17"/>
       <c r="J7" s="10"/>
       <c r="K7" s="507"/>
@@ -29401,7 +30443,7 @@
       <c r="P53" s="318"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="B54" s="8"/>
+      <c r="B54" s="565"/>
       <c r="C54" s="8"/>
       <c r="D54" s="271"/>
       <c r="E54" s="340"/>
@@ -29417,287 +30459,570 @@
       <c r="P54" s="318"/>
     </row>
     <row r="55" spans="2:16" ht="16" thickBot="1">
-      <c r="D55" s="273"/>
-      <c r="E55" s="344"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="123"/>
+      <c r="B55" s="565"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="271"/>
+      <c r="E55" s="340"/>
+      <c r="F55" s="220"/>
+      <c r="G55" s="220"/>
+      <c r="H55" s="220"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="251"/>
+      <c r="M55" s="8"/>
       <c r="O55" s="317"/>
       <c r="P55" s="318"/>
     </row>
     <row r="56" spans="2:16" ht="16" thickBot="1">
-      <c r="B56" s="243" t="s">
-        <v>341</v>
-      </c>
-      <c r="C56" s="244"/>
-      <c r="D56" s="274"/>
-      <c r="E56" s="345"/>
-      <c r="F56" s="245"/>
-      <c r="G56" s="245"/>
-      <c r="H56" s="245"/>
-      <c r="I56" s="246"/>
-      <c r="J56" s="246"/>
-      <c r="K56" s="279" t="s">
-        <v>84</v>
-      </c>
-      <c r="L56" s="247"/>
-      <c r="M56" s="249"/>
-      <c r="O56" s="317"/>
-      <c r="P56" s="318"/>
-    </row>
-    <row r="57" spans="2:16">
-      <c r="B57" s="239"/>
-      <c r="C57" s="238"/>
+      <c r="B56" s="307" t="s">
+        <v>704</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="271"/>
+      <c r="E56" s="580"/>
+      <c r="F56" s="220"/>
+      <c r="G56" s="220"/>
+      <c r="H56" s="220"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="L56" s="608" t="b">
+        <f>IF(OR(E56="yes",E56="no"),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="8"/>
+      <c r="O56" s="317" t="s">
+        <v>722</v>
+      </c>
+      <c r="P56" s="7">
+        <f>IF(L56=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" ht="16" thickBot="1">
+      <c r="B57" s="307"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="271"/>
-      <c r="E57" s="338"/>
-      <c r="F57" s="241"/>
-      <c r="G57" s="241"/>
-      <c r="H57" s="241"/>
+      <c r="E57" s="340"/>
+      <c r="F57" s="220"/>
+      <c r="G57" s="220"/>
+      <c r="H57" s="220"/>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="26"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="251"/>
+      <c r="M57" s="8"/>
       <c r="O57" s="317"/>
       <c r="P57" s="318"/>
     </row>
-    <row r="58" spans="2:16" ht="60">
-      <c r="B58" s="239"/>
-      <c r="C58" s="240" t="s">
-        <v>342</v>
-      </c>
-      <c r="D58" s="271"/>
-      <c r="E58" s="338"/>
-      <c r="F58" s="241"/>
-      <c r="G58" s="241"/>
-      <c r="H58" s="241"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="28"/>
+    <row r="58" spans="2:16" outlineLevel="1">
+      <c r="B58" s="573" t="s">
+        <v>702</v>
+      </c>
+      <c r="C58" s="574"/>
+      <c r="D58" s="575"/>
+      <c r="E58" s="576"/>
+      <c r="F58" s="577"/>
+      <c r="G58" s="577"/>
+      <c r="H58" s="577"/>
+      <c r="I58" s="574"/>
+      <c r="J58" s="574"/>
+      <c r="K58" s="574"/>
+      <c r="L58" s="578"/>
+      <c r="M58" s="579"/>
       <c r="O58" s="317"/>
       <c r="P58" s="318"/>
     </row>
-    <row r="59" spans="2:16">
-      <c r="B59" s="239"/>
-      <c r="C59" s="240"/>
-      <c r="D59" s="271"/>
-      <c r="E59" s="338"/>
-      <c r="F59" s="241"/>
-      <c r="G59" s="241"/>
-      <c r="H59" s="241"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="275"/>
+    <row r="59" spans="2:16" outlineLevel="1">
+      <c r="B59" s="283" t="s">
+        <v>375</v>
+      </c>
+      <c r="C59" s="280"/>
+      <c r="D59" s="277" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="337" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="278"/>
+      <c r="G59" s="278"/>
+      <c r="H59" s="278"/>
+      <c r="I59" s="277"/>
+      <c r="J59" s="276"/>
+      <c r="K59" s="281" t="s">
+        <v>87</v>
+      </c>
+      <c r="L59" s="281" t="s">
+        <v>88</v>
+      </c>
+      <c r="M59" s="282" t="s">
+        <v>83</v>
+      </c>
       <c r="O59" s="317"/>
       <c r="P59" s="318"/>
     </row>
-    <row r="60" spans="2:16" s="49" customFormat="1">
-      <c r="B60" s="284" t="s">
-        <v>375</v>
-      </c>
-      <c r="C60" s="285"/>
-      <c r="D60" s="286" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" s="346" t="s">
-        <v>85</v>
-      </c>
-      <c r="F60" s="287"/>
-      <c r="G60" s="287"/>
-      <c r="H60" s="287"/>
-      <c r="I60" s="277"/>
-      <c r="J60" s="277"/>
-      <c r="K60" s="281" t="s">
-        <v>87</v>
-      </c>
-      <c r="L60" s="277" t="s">
-        <v>88</v>
-      </c>
-      <c r="M60" s="288" t="s">
-        <v>83</v>
-      </c>
-      <c r="O60" s="323"/>
-      <c r="P60" s="324"/>
-    </row>
-    <row r="61" spans="2:16">
-      <c r="B61" s="239"/>
-      <c r="C61" s="240"/>
+    <row r="60" spans="2:16" outlineLevel="1">
+      <c r="B60" s="569"/>
+      <c r="C60" s="566"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="567"/>
+      <c r="F60" s="568"/>
+      <c r="G60" s="568"/>
+      <c r="H60" s="568"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="572"/>
+      <c r="M60" s="570"/>
+      <c r="O60" s="317"/>
+      <c r="P60" s="318"/>
+    </row>
+    <row r="61" spans="2:16" outlineLevel="1">
+      <c r="B61" s="33" t="s">
+        <v>696</v>
+      </c>
+      <c r="C61" s="8"/>
       <c r="D61" s="271"/>
-      <c r="E61" s="338"/>
-      <c r="F61" s="241"/>
-      <c r="G61" s="241"/>
-      <c r="H61" s="241"/>
+      <c r="E61" s="340"/>
+      <c r="F61" s="220"/>
+      <c r="G61" s="220"/>
+      <c r="H61" s="220"/>
       <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="213"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="214"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="215"/>
+      <c r="M61" s="28"/>
       <c r="O61" s="317"/>
       <c r="P61" s="318"/>
     </row>
-    <row r="62" spans="2:16" ht="30">
+    <row r="62" spans="2:16" ht="16" outlineLevel="1" thickBot="1">
       <c r="B62" s="27"/>
-      <c r="C62" s="521" t="s">
+      <c r="C62" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="D62" s="271" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="340">
+        <f>'Energetic FD subsectors'!L21</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="220"/>
+      <c r="G62" s="220"/>
+      <c r="H62" s="220"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="215"/>
+      <c r="M62" s="28"/>
+      <c r="O62" s="317"/>
+      <c r="P62" s="318"/>
+    </row>
+    <row r="63" spans="2:16" ht="16" outlineLevel="1" thickBot="1">
+      <c r="B63" s="27"/>
+      <c r="C63" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="D63" s="271" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="564" t="str">
+        <f>IF(E56="no",0,"")</f>
+        <v/>
+      </c>
+      <c r="F63" s="220"/>
+      <c r="G63" s="220"/>
+      <c r="H63" s="220"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="L63" s="485" t="b">
+        <f>IF(AND(E63&gt;=0,E63&lt;=E62),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="28"/>
+      <c r="O63" s="317" t="s">
+        <v>700</v>
+      </c>
+      <c r="P63" s="7">
+        <f>IF(L63=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" ht="16" outlineLevel="1" thickBot="1">
+      <c r="B64" s="27"/>
+      <c r="C64" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="D64" s="271" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="340">
+        <f>'Energetic FD subsectors'!L22</f>
+        <v>0</v>
+      </c>
+      <c r="F64" s="220"/>
+      <c r="G64" s="220"/>
+      <c r="H64" s="220"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="215"/>
+      <c r="M64" s="28"/>
+      <c r="O64" s="317"/>
+      <c r="P64" s="318"/>
+    </row>
+    <row r="65" spans="2:16" ht="16" outlineLevel="1" thickBot="1">
+      <c r="B65" s="27"/>
+      <c r="C65" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="D65" s="271" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="564" t="str">
+        <f>IF(E56="no",0,"")</f>
+        <v/>
+      </c>
+      <c r="F65" s="220"/>
+      <c r="G65" s="220"/>
+      <c r="H65" s="220"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="L65" s="485" t="b">
+        <f>IF(AND(E65&gt;=0,E65&lt;=E64),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="28"/>
+      <c r="O65" s="317" t="s">
+        <v>701</v>
+      </c>
+      <c r="P65" s="7">
+        <f>IF(L65=TRUE,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" ht="16" outlineLevel="1" thickBot="1">
+      <c r="B66" s="38"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="272"/>
+      <c r="E66" s="343"/>
+      <c r="F66" s="223"/>
+      <c r="G66" s="223"/>
+      <c r="H66" s="223"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="112"/>
+      <c r="K66" s="571"/>
+      <c r="L66" s="217"/>
+      <c r="M66" s="48"/>
+      <c r="O66" s="317"/>
+      <c r="P66" s="318"/>
+    </row>
+    <row r="67" spans="2:16" ht="16" thickBot="1">
+      <c r="D67" s="273"/>
+      <c r="E67" s="344"/>
+      <c r="F67" s="123"/>
+      <c r="G67" s="123"/>
+      <c r="H67" s="123"/>
+      <c r="O67" s="317"/>
+      <c r="P67" s="318"/>
+    </row>
+    <row r="68" spans="2:16" ht="16" thickBot="1">
+      <c r="B68" s="243" t="s">
+        <v>341</v>
+      </c>
+      <c r="C68" s="244"/>
+      <c r="D68" s="274"/>
+      <c r="E68" s="345"/>
+      <c r="F68" s="245"/>
+      <c r="G68" s="245"/>
+      <c r="H68" s="245"/>
+      <c r="I68" s="246"/>
+      <c r="J68" s="246"/>
+      <c r="K68" s="279" t="s">
+        <v>84</v>
+      </c>
+      <c r="L68" s="247"/>
+      <c r="M68" s="249"/>
+      <c r="O68" s="317"/>
+      <c r="P68" s="318"/>
+    </row>
+    <row r="69" spans="2:16">
+      <c r="B69" s="239"/>
+      <c r="C69" s="238"/>
+      <c r="D69" s="271"/>
+      <c r="E69" s="338"/>
+      <c r="F69" s="241"/>
+      <c r="G69" s="241"/>
+      <c r="H69" s="241"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="26"/>
+      <c r="O69" s="317"/>
+      <c r="P69" s="318"/>
+    </row>
+    <row r="70" spans="2:16" ht="60">
+      <c r="B70" s="239"/>
+      <c r="C70" s="240" t="s">
+        <v>342</v>
+      </c>
+      <c r="D70" s="271"/>
+      <c r="E70" s="338"/>
+      <c r="F70" s="241"/>
+      <c r="G70" s="241"/>
+      <c r="H70" s="241"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="28"/>
+      <c r="O70" s="317"/>
+      <c r="P70" s="318"/>
+    </row>
+    <row r="71" spans="2:16">
+      <c r="B71" s="239"/>
+      <c r="C71" s="240"/>
+      <c r="D71" s="271"/>
+      <c r="E71" s="338"/>
+      <c r="F71" s="241"/>
+      <c r="G71" s="241"/>
+      <c r="H71" s="241"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="275"/>
+      <c r="O71" s="317"/>
+      <c r="P71" s="318"/>
+    </row>
+    <row r="72" spans="2:16" s="49" customFormat="1">
+      <c r="B72" s="284" t="s">
+        <v>375</v>
+      </c>
+      <c r="C72" s="285"/>
+      <c r="D72" s="286" t="s">
+        <v>86</v>
+      </c>
+      <c r="E72" s="346" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" s="287"/>
+      <c r="G72" s="287"/>
+      <c r="H72" s="287"/>
+      <c r="I72" s="277"/>
+      <c r="J72" s="277"/>
+      <c r="K72" s="281" t="s">
+        <v>87</v>
+      </c>
+      <c r="L72" s="277" t="s">
+        <v>88</v>
+      </c>
+      <c r="M72" s="288" t="s">
+        <v>83</v>
+      </c>
+      <c r="O72" s="323"/>
+      <c r="P72" s="324"/>
+    </row>
+    <row r="73" spans="2:16">
+      <c r="B73" s="239"/>
+      <c r="C73" s="240"/>
+      <c r="D73" s="271"/>
+      <c r="E73" s="338"/>
+      <c r="F73" s="241"/>
+      <c r="G73" s="241"/>
+      <c r="H73" s="241"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="213"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="214"/>
+      <c r="O73" s="317"/>
+      <c r="P73" s="318"/>
+    </row>
+    <row r="74" spans="2:16">
+      <c r="B74" s="27"/>
+      <c r="C74" s="521" t="s">
         <v>338</v>
       </c>
-      <c r="D62" s="522" t="s">
+      <c r="D74" s="522" t="s">
         <v>242</v>
       </c>
-      <c r="E62" s="523">
+      <c r="E74" s="523">
         <f>'Own use analysis'!L14</f>
         <v>0</v>
       </c>
-      <c r="F62" s="524"/>
-      <c r="G62" s="524"/>
-      <c r="H62" s="524"/>
-      <c r="I62" s="525"/>
-      <c r="J62" s="525"/>
-      <c r="K62" s="526" t="s">
+      <c r="F74" s="524"/>
+      <c r="G74" s="524"/>
+      <c r="H74" s="524"/>
+      <c r="I74" s="525"/>
+      <c r="J74" s="525"/>
+      <c r="K74" s="526" t="s">
         <v>504</v>
       </c>
-      <c r="L62" s="520" t="e">
+      <c r="L74" s="520" t="e">
         <f>'Own use analysis'!L14/SUM('Own use analysis'!D14:L14)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M62" s="214"/>
-      <c r="O62" s="317"/>
-      <c r="P62" s="318"/>
-    </row>
-    <row r="63" spans="2:16" ht="30">
-      <c r="B63" s="27"/>
-      <c r="C63" s="521" t="s">
+      <c r="M74" s="214"/>
+      <c r="O74" s="317"/>
+      <c r="P74" s="318"/>
+    </row>
+    <row r="75" spans="2:16" ht="30">
+      <c r="B75" s="27"/>
+      <c r="C75" s="521" t="s">
         <v>339</v>
       </c>
-      <c r="D63" s="522" t="s">
+      <c r="D75" s="522" t="s">
         <v>242</v>
       </c>
-      <c r="E63" s="523">
+      <c r="E75" s="523">
         <f>'Energetic cons analysis'!L25</f>
         <v>0</v>
       </c>
-      <c r="F63" s="524"/>
-      <c r="G63" s="524"/>
-      <c r="H63" s="524"/>
-      <c r="I63" s="525"/>
-      <c r="J63" s="525"/>
-      <c r="K63" s="526" t="s">
+      <c r="F75" s="524"/>
+      <c r="G75" s="524"/>
+      <c r="H75" s="524"/>
+      <c r="I75" s="525"/>
+      <c r="J75" s="525"/>
+      <c r="K75" s="526" t="s">
         <v>505</v>
       </c>
-      <c r="L63" s="520" t="e">
+      <c r="L75" s="520" t="e">
         <f>'Energetic cons analysis'!L25/SUM('Energetic cons analysis'!D25:L25)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M63" s="214"/>
-      <c r="O63" s="317"/>
-      <c r="P63" s="318"/>
-    </row>
-    <row r="64" spans="2:16" ht="30">
-      <c r="B64" s="27"/>
-      <c r="C64" s="521" t="s">
+      <c r="M75" s="214"/>
+      <c r="O75" s="317"/>
+      <c r="P75" s="318"/>
+    </row>
+    <row r="76" spans="2:16" ht="30">
+      <c r="B76" s="27"/>
+      <c r="C76" s="521" t="s">
         <v>340</v>
       </c>
-      <c r="D64" s="522" t="s">
+      <c r="D76" s="522" t="s">
         <v>242</v>
       </c>
-      <c r="E64" s="523">
+      <c r="E76" s="523">
         <f>'Non-energetic cons analysis'!L19</f>
         <v>0</v>
       </c>
-      <c r="F64" s="524"/>
-      <c r="G64" s="524"/>
-      <c r="H64" s="524"/>
-      <c r="I64" s="525"/>
-      <c r="J64" s="525"/>
-      <c r="K64" s="526" t="s">
+      <c r="F76" s="524"/>
+      <c r="G76" s="524"/>
+      <c r="H76" s="524"/>
+      <c r="I76" s="525"/>
+      <c r="J76" s="525"/>
+      <c r="K76" s="526" t="s">
         <v>506</v>
       </c>
-      <c r="L64" s="520" t="e">
+      <c r="L76" s="520" t="e">
         <f>'Non-energetic cons analysis'!L19/SUM('Non-energetic cons analysis'!D19:L19)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M64" s="214"/>
-      <c r="O64" s="317"/>
-      <c r="P64" s="318"/>
-    </row>
-    <row r="65" spans="2:16" ht="16" thickBot="1">
-      <c r="B65" s="38"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="272"/>
-      <c r="E65" s="343"/>
-      <c r="F65" s="223"/>
-      <c r="G65" s="223"/>
-      <c r="H65" s="223"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="216"/>
-      <c r="L65" s="217"/>
-      <c r="M65" s="218"/>
-      <c r="O65" s="322"/>
-      <c r="P65" s="325"/>
+      <c r="M76" s="214"/>
+      <c r="O76" s="317"/>
+      <c r="P76" s="318"/>
+    </row>
+    <row r="77" spans="2:16" ht="16" thickBot="1">
+      <c r="B77" s="38"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="272"/>
+      <c r="E77" s="343"/>
+      <c r="F77" s="223"/>
+      <c r="G77" s="223"/>
+      <c r="H77" s="223"/>
+      <c r="I77" s="47"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="216"/>
+      <c r="L77" s="217"/>
+      <c r="M77" s="218"/>
+      <c r="O77" s="322"/>
+      <c r="P77" s="325"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:D7"/>
   </mergeCells>
-  <conditionalFormatting sqref="L62:L64">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
+  <conditionalFormatting sqref="L74:L76">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
       <formula>0.005</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="lessThan">
       <formula>0.01</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:L44">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47:L52">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:L36">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L65">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36759,13 +38084,13 @@
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1">
       <c r="A5" s="76"/>
-      <c r="B5" s="570" t="s">
+      <c r="B5" s="590" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="571"/>
-      <c r="D5" s="571"/>
-      <c r="E5" s="571"/>
-      <c r="F5" s="572"/>
+      <c r="C5" s="591"/>
+      <c r="D5" s="591"/>
+      <c r="E5" s="591"/>
+      <c r="F5" s="592"/>
       <c r="H5" s="76"/>
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>

--- a/analyses/5_industry_analysis.xlsx
+++ b/analyses/5_industry_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosdekok/Projects/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3249BCA2-366B-994F-8482-F41D880A962C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A3BB46-85B7-2744-80D2-72C4DD3657C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="47280" windowHeight="25420" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="835" firstSheet="44" activeTab="54" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -64,10 +64,14 @@
     <sheet name="csv_industry_other_wood_non_e" sheetId="113" r:id="rId49"/>
     <sheet name="csv_industry_other_food_elec_ps" sheetId="115" r:id="rId50"/>
     <sheet name="csv_industry_other_paper_el_ps" sheetId="116" r:id="rId51"/>
+    <sheet name="csv_chemicals_other_residual_he" sheetId="117" r:id="rId52"/>
+    <sheet name="csv_refineries_residual_heat" sheetId="118" r:id="rId53"/>
+    <sheet name="csv_fertilizers_residual_heat" sheetId="119" r:id="rId54"/>
+    <sheet name="csv_ict_residual_heat" sheetId="121" r:id="rId55"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId52"/>
-    <externalReference r:id="rId53"/>
+    <externalReference r:id="rId56"/>
+    <externalReference r:id="rId57"/>
   </externalReferences>
   <definedNames>
     <definedName name="base_year" localSheetId="22">Dashboard!$E$14</definedName>
@@ -270,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="687">
   <si>
     <t>Changelog</t>
   </si>
@@ -2310,7 +2314,106 @@
     <t>industry_electric_heater</t>
   </si>
   <si>
-    <t>Aggregated all industry other categories except for food and paper to non_specified. Caution to prevent confusion: the category non_specified was already used as one of the industry other subsectors. In this update, we merge all other categories (except food and paper, so: minerals, mining, etc.) into this non_specified category in the output csv tabs.</t>
+    <t>Residual heat</t>
+  </si>
+  <si>
+    <t>In the ETM residual heat is implemented as useful demand heat that is reused in heat networks. There are two types of residual heat distinguished: from flue gasses and processes. For each industrial sector the potential of these types can be chosen.</t>
+  </si>
+  <si>
+    <t>Residual heat from flue gasses</t>
+  </si>
+  <si>
+    <t>Residual heat from processes</t>
+  </si>
+  <si>
+    <t>Heat that cannot be recovered</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Residual heat potentials are added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual heat from chemical sector [% of useful heat demand] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual heat from fertilizer industry [% of useful heat demand] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual heat from refineries [% of useful heat demand] </t>
+  </si>
+  <si>
+    <t>residual_heat_processes_chemicals_other</t>
+  </si>
+  <si>
+    <t>residual_heat_flue_gasses_chemicals_other</t>
+  </si>
+  <si>
+    <t>residual_heat_flue_gasses_chemicals_refineries</t>
+  </si>
+  <si>
+    <t>residual_heat_processes_chemicals_refineries</t>
+  </si>
+  <si>
+    <t>residual_heat_flue_gasses_chemicals_fertilizers</t>
+  </si>
+  <si>
+    <t>residual_heat_processes_chemicals_fertilizers</t>
+  </si>
+  <si>
+    <t>industry_useful_demand_for_chemical_other_useable_heat_parent_share</t>
+  </si>
+  <si>
+    <t>industry_chemicals_other_flue_gasses_potential_residual_heat</t>
+  </si>
+  <si>
+    <t>industry_chemicals_other_processes_potential_residual_heat</t>
+  </si>
+  <si>
+    <t>industry_chemicals_other_used_heat</t>
+  </si>
+  <si>
+    <t>industry_useful_demand_for_chemical_refineries_useable_heat_parent_share</t>
+  </si>
+  <si>
+    <t>industry_chemicals_refineries_flue_gasses_potential_residual_heat</t>
+  </si>
+  <si>
+    <t>industry_chemicals_refineries_processes_potential_residual_heat</t>
+  </si>
+  <si>
+    <t>industry_chemicals_refineries_used_heat</t>
+  </si>
+  <si>
+    <t>industry_chemicals_fertilizers_flue_gasses_potential_residual_heat</t>
+  </si>
+  <si>
+    <t>industry_chemicals_fertilizers_processes_potential_residual_heat</t>
+  </si>
+  <si>
+    <t>industry_chemicals_fertilizers_used_heat</t>
+  </si>
+  <si>
+    <t>industry_useful_demand_for_other_ict_electricity_parent_share</t>
+  </si>
+  <si>
+    <t>industry_other_ict_potential_residual_heat_from_servers_electricity</t>
+  </si>
+  <si>
+    <t>industry_other_ict_other_systems_electricity</t>
+  </si>
+  <si>
+    <t>Residual heat from servers</t>
+  </si>
+  <si>
+    <t>residual_heat_ict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residual heat from ICT [% of useful electricity demand] </t>
+  </si>
+  <si>
+    <t>industry_chemicals_fertilizers_haber_bosch_process_hydrogen_parent_share</t>
   </si>
 </sst>
 </file>
@@ -2652,7 +2755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -3289,6 +3392,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1528">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4820,7 +4936,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="610">
+  <cellXfs count="614">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5974,6 +6090,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6046,7 +6167,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1528">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -14277,7 +14397,7 @@
       </c>
       <c r="C8" s="71">
         <f>MAX(Changelog!B:B)</f>
-        <v>43864</v>
+        <v>43872</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -14562,13 +14682,13 @@
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>475</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="592"/>
-      <c r="E5" s="592"/>
-      <c r="F5" s="593"/>
+      <c r="C5" s="597"/>
+      <c r="D5" s="597"/>
+      <c r="E5" s="597"/>
+      <c r="F5" s="598"/>
       <c r="H5" s="76"/>
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>
@@ -15064,11 +15184,11 @@
       <c r="E4" s="84"/>
     </row>
     <row r="5" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="599" t="s">
         <v>479</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="595"/>
+      <c r="C5" s="600"/>
+      <c r="D5" s="600"/>
       <c r="E5" s="84"/>
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15247,12 +15367,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="596" t="s">
+      <c r="B5" s="601" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="597"/>
-      <c r="E5" s="598"/>
+      <c r="C5" s="602"/>
+      <c r="D5" s="602"/>
+      <c r="E5" s="603"/>
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -15719,12 +15839,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="596" t="s">
+      <c r="B5" s="601" t="s">
         <v>528</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="597"/>
-      <c r="E5" s="598"/>
+      <c r="C5" s="602"/>
+      <c r="D5" s="602"/>
+      <c r="E5" s="603"/>
     </row>
     <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -15986,14 +16106,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="599" t="s">
         <v>529</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="595"/>
-      <c r="E5" s="595"/>
-      <c r="F5" s="595"/>
-      <c r="G5" s="599"/>
+      <c r="C5" s="600"/>
+      <c r="D5" s="600"/>
+      <c r="E5" s="600"/>
+      <c r="F5" s="600"/>
+      <c r="G5" s="604"/>
     </row>
     <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -16717,14 +16837,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="599" t="s">
         <v>622</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="595"/>
-      <c r="E5" s="595"/>
-      <c r="F5" s="595"/>
-      <c r="G5" s="599"/>
+      <c r="C5" s="600"/>
+      <c r="D5" s="600"/>
+      <c r="E5" s="600"/>
+      <c r="F5" s="600"/>
+      <c r="G5" s="604"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -17057,14 +17177,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="599" t="s">
         <v>530</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="595"/>
-      <c r="E5" s="595"/>
-      <c r="F5" s="595"/>
-      <c r="G5" s="599"/>
+      <c r="C5" s="600"/>
+      <c r="D5" s="600"/>
+      <c r="E5" s="600"/>
+      <c r="F5" s="600"/>
+      <c r="G5" s="604"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -17592,7 +17712,7 @@
   <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17635,14 +17755,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="599" t="s">
         <v>531</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="595"/>
-      <c r="E5" s="595"/>
-      <c r="F5" s="595"/>
-      <c r="G5" s="599"/>
+      <c r="C5" s="600"/>
+      <c r="D5" s="600"/>
+      <c r="E5" s="600"/>
+      <c r="F5" s="600"/>
+      <c r="G5" s="604"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -18087,7 +18207,7 @@
   <dimension ref="A2:L28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18129,14 +18249,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="599" t="s">
         <v>532</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="595"/>
-      <c r="E5" s="595"/>
-      <c r="F5" s="595"/>
-      <c r="G5" s="599"/>
+      <c r="C5" s="600"/>
+      <c r="D5" s="600"/>
+      <c r="E5" s="600"/>
+      <c r="F5" s="600"/>
+      <c r="G5" s="604"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -18769,7 +18889,7 @@
   </sheetPr>
   <dimension ref="A2:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -18813,14 +18933,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="599" t="s">
         <v>533</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="595"/>
-      <c r="E5" s="595"/>
-      <c r="F5" s="595"/>
-      <c r="G5" s="599"/>
+      <c r="C5" s="600"/>
+      <c r="D5" s="600"/>
+      <c r="E5" s="600"/>
+      <c r="F5" s="600"/>
+      <c r="G5" s="604"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -19144,10 +19264,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="B2:D62"/>
+  <dimension ref="B2:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19785,21 +19905,31 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="119" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="156">
-        <v>43864</v>
-      </c>
-      <c r="C61" s="158" t="s">
-        <v>653</v>
+        <v>43872</v>
+      </c>
+      <c r="C61" s="157" t="s">
+        <v>659</v>
       </c>
       <c r="D61" s="159">
         <v>1.53</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="609"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="254"/>
+      <c r="B62" s="156"/>
+      <c r="C62" s="157"/>
+      <c r="D62" s="159"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="156"/>
+      <c r="C63" s="157"/>
+      <c r="D63" s="159"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="17"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="254"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19862,11 +19992,11 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="600" t="s">
+      <c r="B5" s="605" t="s">
         <v>363</v>
       </c>
-      <c r="C5" s="601"/>
-      <c r="D5" s="602"/>
+      <c r="C5" s="606"/>
+      <c r="D5" s="607"/>
       <c r="E5" s="167"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -20093,15 +20223,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="603" t="s">
+      <c r="B5" s="608" t="s">
         <v>513</v>
       </c>
-      <c r="C5" s="604"/>
-      <c r="D5" s="604"/>
-      <c r="E5" s="604"/>
-      <c r="F5" s="604"/>
-      <c r="G5" s="604"/>
-      <c r="H5" s="605"/>
+      <c r="C5" s="609"/>
+      <c r="D5" s="609"/>
+      <c r="E5" s="609"/>
+      <c r="F5" s="609"/>
+      <c r="G5" s="609"/>
+      <c r="H5" s="610"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -20693,7 +20823,7 @@
   <dimension ref="B2:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20739,15 +20869,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="606" t="s">
+      <c r="B5" s="611" t="s">
         <v>618</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="607"/>
-      <c r="E5" s="607"/>
-      <c r="F5" s="607"/>
-      <c r="G5" s="607"/>
-      <c r="H5" s="608"/>
+      <c r="C5" s="612"/>
+      <c r="D5" s="612"/>
+      <c r="E5" s="612"/>
+      <c r="F5" s="612"/>
+      <c r="G5" s="612"/>
+      <c r="H5" s="613"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -21504,7 +21634,7 @@
   <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21551,15 +21681,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="606" t="s">
+      <c r="B5" s="611" t="s">
         <v>620</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="607"/>
-      <c r="E5" s="607"/>
-      <c r="F5" s="607"/>
-      <c r="G5" s="607"/>
-      <c r="H5" s="608"/>
+      <c r="C5" s="612"/>
+      <c r="D5" s="612"/>
+      <c r="E5" s="612"/>
+      <c r="F5" s="612"/>
+      <c r="G5" s="612"/>
+      <c r="H5" s="613"/>
     </row>
     <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -22304,7 +22434,7 @@
   <dimension ref="A2:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22351,15 +22481,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="594" t="s">
+      <c r="B5" s="599" t="s">
         <v>619</v>
       </c>
-      <c r="C5" s="595"/>
-      <c r="D5" s="595"/>
-      <c r="E5" s="595"/>
-      <c r="F5" s="595"/>
-      <c r="G5" s="595"/>
-      <c r="H5" s="599"/>
+      <c r="C5" s="600"/>
+      <c r="D5" s="600"/>
+      <c r="E5" s="600"/>
+      <c r="F5" s="600"/>
+      <c r="G5" s="600"/>
+      <c r="H5" s="604"/>
     </row>
     <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -23018,8 +23148,8 @@
   </sheetPr>
   <dimension ref="B2:G93"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23046,12 +23176,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="596" t="s">
+      <c r="B5" s="601" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="597"/>
-      <c r="E5" s="598"/>
+      <c r="C5" s="602"/>
+      <c r="D5" s="602"/>
+      <c r="E5" s="603"/>
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -24284,12 +24414,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="596" t="s">
+      <c r="B5" s="601" t="s">
         <v>484</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="597"/>
-      <c r="E5" s="598"/>
+      <c r="C5" s="602"/>
+      <c r="D5" s="602"/>
+      <c r="E5" s="603"/>
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -25522,12 +25652,12 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="596" t="s">
+      <c r="B5" s="601" t="s">
         <v>638</v>
       </c>
-      <c r="C5" s="597"/>
-      <c r="D5" s="597"/>
-      <c r="E5" s="598"/>
+      <c r="C5" s="602"/>
+      <c r="D5" s="602"/>
+      <c r="E5" s="603"/>
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -25833,7 +25963,7 @@
   </sheetPr>
   <dimension ref="B2:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -26830,9 +26960,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -27066,7 +27194,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27133,12 +27261,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -27200,12 +27328,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -27267,12 +27395,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -27334,12 +27462,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -27401,12 +27529,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -27468,12 +27596,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -27535,12 +27663,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -27602,12 +27730,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -27670,7 +27798,7 @@
   <dimension ref="B2:CZ29"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="BE52" sqref="BE52"/>
+      <selection activeCell="CO17" sqref="CO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28148,13 +28276,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="55.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -28230,12 +28355,12 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="AB60" sqref="AB60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -28301,6 +28426,239 @@
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B71940-1AD1-E440-9192-65CCF3B5FCDE}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B3" s="452">
+        <f>Dashboard!E85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" s="452">
+        <f>Dashboard!E86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B5" s="452">
+        <f>Dashboard!E87</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6FF57E-AC00-A144-98DC-C9E113E51D8D}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B3" s="452">
+        <f>Dashboard!E90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>675</v>
+      </c>
+      <c r="B4" s="452">
+        <f>Dashboard!E91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B5" s="452">
+        <f>Dashboard!E92</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0859CC87-3D21-F24F-9F38-432043B5D750}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>677</v>
+      </c>
+      <c r="B3" s="452">
+        <f>Dashboard!E95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>678</v>
+      </c>
+      <c r="B4" s="452">
+        <f>Dashboard!E96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B5" s="452">
+        <f>Dashboard!E97</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EDABB-E71D-8A48-AE17-655974A88DE1}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="452">
+        <f>Dashboard!E100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B4" s="452">
+        <f>Dashboard!E101</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -28335,10 +28693,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="585" t="s">
+      <c r="B5" s="590" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="586"/>
+      <c r="C5" s="591"/>
     </row>
     <row r="6" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
@@ -28968,10 +29326,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:P77"/>
+  <dimension ref="B2:P102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -29040,11 +29398,11 @@
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="587" t="s">
+      <c r="B5" s="592" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="589"/>
+      <c r="C5" s="593"/>
+      <c r="D5" s="594"/>
       <c r="G5" s="510"/>
       <c r="I5" s="16"/>
       <c r="J5" s="8"/>
@@ -29055,9 +29413,9 @@
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="587"/>
-      <c r="C6" s="588"/>
-      <c r="D6" s="589"/>
+      <c r="B6" s="592"/>
+      <c r="C6" s="593"/>
+      <c r="D6" s="594"/>
       <c r="G6" s="511"/>
       <c r="I6" s="16"/>
       <c r="J6" s="8"/>
@@ -29068,9 +29426,9 @@
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="2:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="585"/>
-      <c r="C7" s="590"/>
-      <c r="D7" s="586"/>
+      <c r="B7" s="590"/>
+      <c r="C7" s="595"/>
+      <c r="D7" s="591"/>
       <c r="I7" s="17"/>
       <c r="J7" s="10"/>
       <c r="K7" s="507"/>
@@ -30724,6 +31082,469 @@
       <c r="M77" s="218"/>
       <c r="O77" s="322"/>
       <c r="P77" s="325"/>
+    </row>
+    <row r="79" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="250" t="s">
+        <v>653</v>
+      </c>
+      <c r="C80" s="246"/>
+      <c r="D80" s="248"/>
+      <c r="E80" s="246"/>
+      <c r="F80" s="246"/>
+      <c r="G80" s="246"/>
+      <c r="H80" s="246"/>
+      <c r="I80" s="246"/>
+      <c r="J80" s="246"/>
+      <c r="K80" s="246"/>
+      <c r="L80" s="246"/>
+      <c r="M80" s="249"/>
+      <c r="O80" s="586"/>
+      <c r="P80" s="5"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B81" s="585"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
+      <c r="M81" s="26"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="7"/>
+    </row>
+    <row r="82" spans="2:16" ht="85" x14ac:dyDescent="0.2">
+      <c r="B82" s="27"/>
+      <c r="C82" s="240" t="s">
+        <v>654</v>
+      </c>
+      <c r="D82" s="94"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="28"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="7"/>
+    </row>
+    <row r="83" spans="2:16" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="284" t="s">
+        <v>375</v>
+      </c>
+      <c r="C83" s="285"/>
+      <c r="D83" s="286" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" s="346" t="s">
+        <v>85</v>
+      </c>
+      <c r="F83" s="287"/>
+      <c r="G83" s="287"/>
+      <c r="H83" s="287"/>
+      <c r="I83" s="277"/>
+      <c r="J83" s="277"/>
+      <c r="K83" s="281" t="s">
+        <v>87</v>
+      </c>
+      <c r="L83" s="277" t="s">
+        <v>88</v>
+      </c>
+      <c r="M83" s="288" t="s">
+        <v>83</v>
+      </c>
+      <c r="O83" s="323"/>
+      <c r="P83" s="324"/>
+    </row>
+    <row r="84" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="C84" s="8"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="28"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="7"/>
+    </row>
+    <row r="85" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="27"/>
+      <c r="C85" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D85" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E85" s="587"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="28"/>
+      <c r="O85" s="317" t="s">
+        <v>664</v>
+      </c>
+      <c r="P85" s="7"/>
+    </row>
+    <row r="86" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="27"/>
+      <c r="C86" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="D86" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E86" s="588"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="28"/>
+      <c r="O86" s="317" t="s">
+        <v>663</v>
+      </c>
+      <c r="P86" s="7"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B87" s="27"/>
+      <c r="C87" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D87" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E87" s="589">
+        <f>1-E85-E86</f>
+        <v>1</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="28"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="7"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B88" s="27"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="94"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="28"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="7"/>
+    </row>
+    <row r="89" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="33" t="s">
+        <v>662</v>
+      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="28"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="7"/>
+    </row>
+    <row r="90" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="27"/>
+      <c r="C90" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D90" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E90" s="587"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="28"/>
+      <c r="O90" s="317" t="s">
+        <v>665</v>
+      </c>
+      <c r="P90" s="7"/>
+    </row>
+    <row r="91" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="27"/>
+      <c r="C91" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="D91" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E91" s="588"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="28"/>
+      <c r="O91" s="317" t="s">
+        <v>666</v>
+      </c>
+      <c r="P91" s="7"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B92" s="27"/>
+      <c r="C92" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D92" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E92" s="589">
+        <f>1-E90-E91</f>
+        <v>1</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="28"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="7"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B93" s="27"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="28"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="7"/>
+    </row>
+    <row r="94" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="33" t="s">
+        <v>661</v>
+      </c>
+      <c r="C94" s="8"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="28"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="7"/>
+    </row>
+    <row r="95" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="27"/>
+      <c r="C95" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D95" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E95" s="587"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="28"/>
+      <c r="O95" s="317" t="s">
+        <v>667</v>
+      </c>
+      <c r="P95" s="7"/>
+    </row>
+    <row r="96" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="27"/>
+      <c r="C96" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="D96" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E96" s="588"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="28"/>
+      <c r="O96" s="317" t="s">
+        <v>668</v>
+      </c>
+      <c r="P96" s="7"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B97" s="27"/>
+      <c r="C97" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D97" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E97" s="589">
+        <f>1-E95-E96</f>
+        <v>1</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="28"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="7"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B98" s="27"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="94"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="28"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="7"/>
+    </row>
+    <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="33" t="s">
+        <v>685</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="28"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="7"/>
+    </row>
+    <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="27"/>
+      <c r="C100" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="D100" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E100" s="588"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="28"/>
+      <c r="O100" s="317" t="s">
+        <v>684</v>
+      </c>
+      <c r="P100" s="7"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B101" s="27"/>
+      <c r="C101" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D101" s="94" t="s">
+        <v>658</v>
+      </c>
+      <c r="E101" s="589">
+        <f>1-E100</f>
+        <v>1</v>
+      </c>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="28"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="7"/>
+    </row>
+    <row r="102" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="38"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47"/>
+      <c r="F102" s="47"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="47"/>
+      <c r="L102" s="47"/>
+      <c r="M102" s="48"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -37854,13 +38675,13 @@
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76"/>
-      <c r="B5" s="591" t="s">
+      <c r="B5" s="596" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="592"/>
-      <c r="D5" s="592"/>
-      <c r="E5" s="592"/>
-      <c r="F5" s="593"/>
+      <c r="C5" s="597"/>
+      <c r="D5" s="597"/>
+      <c r="E5" s="597"/>
+      <c r="F5" s="598"/>
       <c r="H5" s="76"/>
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>

--- a/analyses/5_industry_analysis.xlsx
+++ b/analyses/5_industry_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CC9F74-0C47-8D48-988F-AE430E28233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C154E2-09EC-7545-B475-2B607D454B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13560" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="50040" windowHeight="27460" tabRatio="835" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -41,16 +41,16 @@
     <sheet name="Shares non-e FD subsectors" sheetId="109" r:id="rId26"/>
     <sheet name="Shares electric heaters" sheetId="114" r:id="rId27"/>
     <sheet name="csv_industry_coal_ps" sheetId="80" r:id="rId28"/>
-    <sheet name="csv_industry_network_gas_ps" sheetId="81" r:id="rId29"/>
-    <sheet name="csv_industry_crude_oil_ps" sheetId="82" r:id="rId30"/>
-    <sheet name="csv_industry_wood_pellets_ps" sheetId="90" r:id="rId31"/>
-    <sheet name="csv_industry_steam_hot_water_ps" sheetId="83" r:id="rId32"/>
-    <sheet name="csv_industry_electricity_ps" sheetId="87" r:id="rId33"/>
-    <sheet name="csv_industry_coal_non_e_ps" sheetId="94" r:id="rId34"/>
-    <sheet name="csv_industry_netw_gas_non_e_ps" sheetId="95" r:id="rId35"/>
-    <sheet name="csv_industry_crude_oil_non_e_ps" sheetId="96" r:id="rId36"/>
-    <sheet name="csv_industry_wood_pel_non_e_ps" sheetId="97" r:id="rId37"/>
-    <sheet name="csv_industry_trans_coal_ps" sheetId="91" r:id="rId38"/>
+    <sheet name="csv_industry_cokes_ps" sheetId="122" r:id="rId29"/>
+    <sheet name="csv_industry_network_gas_ps" sheetId="81" r:id="rId30"/>
+    <sheet name="csv_industry_crude_oil_ps" sheetId="82" r:id="rId31"/>
+    <sheet name="csv_industry_wood_pellets_ps" sheetId="90" r:id="rId32"/>
+    <sheet name="csv_industry_steam_hot_water_ps" sheetId="83" r:id="rId33"/>
+    <sheet name="csv_industry_electricity_ps" sheetId="87" r:id="rId34"/>
+    <sheet name="csv_industry_coal_non_e_ps" sheetId="94" r:id="rId35"/>
+    <sheet name="csv_industry_netw_gas_non_e_ps" sheetId="95" r:id="rId36"/>
+    <sheet name="csv_industry_crude_oil_non_e_ps" sheetId="96" r:id="rId37"/>
+    <sheet name="csv_industry_wood_pel_non_e_ps" sheetId="97" r:id="rId38"/>
     <sheet name="csv_industry_other_coal_e " sheetId="102" r:id="rId39"/>
     <sheet name="csv_industry_other_gas_e" sheetId="104" r:id="rId40"/>
     <sheet name="csv_industry_other_crude_oil_e" sheetId="103" r:id="rId41"/>
@@ -71,6 +71,7 @@
   <externalReferences>
     <externalReference r:id="rId55"/>
     <externalReference r:id="rId56"/>
+    <externalReference r:id="rId57"/>
   </externalReferences>
   <definedNames>
     <definedName name="base_year" localSheetId="22">Dashboard!$E$14</definedName>
@@ -273,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="684">
   <si>
     <t>Changelog</t>
   </si>
@@ -1344,15 +1345,6 @@
   </si>
   <si>
     <t>Import new data from Metal analysis; improve coal loss analysis</t>
-  </si>
-  <si>
-    <t>industry_transformation_generic_coal_parent_share</t>
-  </si>
-  <si>
-    <t>industry_own_use_coal</t>
-  </si>
-  <si>
-    <t>industry_final_demand_coal</t>
   </si>
   <si>
     <t>CSV-file containing the parent shares of industry_transformation_generic_coal</t>
@@ -2401,6 +2393,18 @@
   </si>
   <si>
     <t>Mathijs Bijkerk</t>
+  </si>
+  <si>
+    <t>industry_final_demand_cokes_parent_share</t>
+  </si>
+  <si>
+    <t>industry_final_demand_for_metal_cokes</t>
+  </si>
+  <si>
+    <t>industry_final_demand_for_other_cokes</t>
+  </si>
+  <si>
+    <t>eu</t>
   </si>
 </sst>
 </file>
@@ -4923,7 +4927,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="618">
+  <cellXfs count="617">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5865,9 +5869,6 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -6072,6 +6073,26 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6143,26 +6164,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1528">
@@ -14004,6 +14005,28 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="export_data_button"/>
+      <definedName name="import_chemical_analysis_data_button"/>
+      <definedName name="import_data_button"/>
+      <definedName name="import_metal_analysis_data_button"/>
+      <definedName name="select_dashboard_values"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -14331,7 +14354,7 @@
   </sheetPr>
   <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -14372,9 +14395,9 @@
       <c r="B6" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="23" t="str">
         <f>country</f>
-        <v>0</v>
+        <v>eu</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -14384,7 +14407,7 @@
       </c>
       <c r="C7" s="305">
         <f>base_year</f>
-        <v>0</v>
+        <v>2011</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -14403,7 +14426,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -14630,7 +14653,7 @@
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="75" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -14679,13 +14702,13 @@
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76"/>
-      <c r="B5" s="592" t="s">
-        <v>469</v>
-      </c>
-      <c r="C5" s="593"/>
-      <c r="D5" s="593"/>
-      <c r="E5" s="593"/>
-      <c r="F5" s="594"/>
+      <c r="B5" s="599" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="600"/>
+      <c r="D5" s="600"/>
+      <c r="E5" s="600"/>
+      <c r="F5" s="601"/>
       <c r="H5" s="76"/>
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>
@@ -14749,7 +14772,7 @@
     <row r="8" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="76"/>
       <c r="B8" s="381" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C8" s="457"/>
       <c r="D8" s="457"/>
@@ -14770,7 +14793,7 @@
     <row r="9" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="76"/>
       <c r="B9" s="378" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C9" s="451"/>
       <c r="D9" s="451"/>
@@ -14791,7 +14814,7 @@
     <row r="10" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="76"/>
       <c r="B10" s="381" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C10" s="451"/>
       <c r="D10" s="451"/>
@@ -14812,17 +14835,17 @@
     <row r="11" spans="1:17" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76"/>
       <c r="B11" s="382" t="s">
-        <v>421</v>
-      </c>
-      <c r="C11" s="490"/>
-      <c r="D11" s="490"/>
-      <c r="E11" s="490"/>
-      <c r="F11" s="490"/>
-      <c r="G11" s="490"/>
-      <c r="H11" s="490"/>
-      <c r="I11" s="490"/>
-      <c r="J11" s="490"/>
-      <c r="K11" s="491"/>
+        <v>418</v>
+      </c>
+      <c r="C11" s="489"/>
+      <c r="D11" s="489"/>
+      <c r="E11" s="489"/>
+      <c r="F11" s="489"/>
+      <c r="G11" s="489"/>
+      <c r="H11" s="489"/>
+      <c r="I11" s="489"/>
+      <c r="J11" s="489"/>
+      <c r="K11" s="490"/>
       <c r="L11" s="76"/>
       <c r="M11" s="76"/>
       <c r="N11" s="76"/>
@@ -15181,11 +15204,11 @@
       <c r="E4" s="84"/>
     </row>
     <row r="5" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="595" t="s">
-        <v>473</v>
-      </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="596"/>
+      <c r="B5" s="602" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="603"/>
+      <c r="D5" s="603"/>
       <c r="E5" s="84"/>
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -15207,10 +15230,10 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="472" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F8" s="472" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G8" s="28"/>
     </row>
@@ -15220,7 +15243,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="472"/>
       <c r="F9" s="472" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G9" s="28"/>
     </row>
@@ -15235,7 +15258,7 @@
       <c r="E10" s="473"/>
       <c r="F10" s="474"/>
       <c r="G10" s="479" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
@@ -15251,11 +15274,11 @@
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="89"/>
       <c r="C12" s="90" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D12" s="478"/>
       <c r="E12" s="478" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F12" s="480"/>
       <c r="G12" s="477">
@@ -15266,11 +15289,11 @@
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="89"/>
       <c r="C13" s="90" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D13" s="478"/>
       <c r="E13" s="478" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F13" s="480"/>
       <c r="G13" s="477">
@@ -15281,11 +15304,11 @@
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="89"/>
       <c r="C14" s="90" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D14" s="478"/>
       <c r="E14" s="478" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F14" s="480"/>
       <c r="G14" s="477">
@@ -15296,11 +15319,11 @@
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="89"/>
       <c r="C15" s="90" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D15" s="478"/>
       <c r="E15" s="478" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F15" s="480"/>
       <c r="G15" s="477">
@@ -15335,10 +15358,10 @@
   <sheetPr codeName="Sheet12">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:G44"/>
+  <dimension ref="B2:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15364,17 +15387,17 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="597" t="s">
-        <v>520</v>
-      </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="598"/>
-      <c r="E5" s="599"/>
+      <c r="B5" s="604" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="605"/>
+      <c r="D5" s="605"/>
+      <c r="E5" s="606"/>
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="325" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C7" s="108"/>
       <c r="D7" s="384"/>
@@ -15388,14 +15411,14 @@
     </row>
     <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="239" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="386" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E9" s="329" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -15419,12 +15442,12 @@
         <f>IF(SUM($D$11:$D$13)=0,0,D11/SUM($D$11:$D$13))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="515"/>
+      <c r="G11" s="514"/>
     </row>
     <row r="12" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="327"/>
       <c r="C12" s="111" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D12" s="387">
         <f>'Energetic final demand sectors'!D21</f>
@@ -15456,34 +15479,34 @@
       <c r="E14" s="290"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="326" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="388"/>
-      <c r="E15" s="291"/>
-    </row>
-    <row r="16" spans="2:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="327"/>
-      <c r="C16" s="111" t="s">
+      <c r="B15" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="335"/>
+      <c r="E15" s="290"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="33"/>
+      <c r="C16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="387">
-        <f>'Energetic final demand sectors'!G18</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="289">
+      <c r="D16" s="335">
+        <f>'Energetic final demand sectors'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="290">
         <f>IF(SUM($D$16:$D$18)=0,0,D16/SUM($D$16:$D$18))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="327"/>
-      <c r="C17" s="111" t="s">
-        <v>422</v>
-      </c>
-      <c r="D17" s="387">
-        <f>'Energetic final demand sectors'!G21</f>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="33"/>
+      <c r="C17" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" s="335">
+        <f>'Energetic final demand sectors'!E25</f>
         <v>0</v>
       </c>
       <c r="E17" s="289">
@@ -15491,13 +15514,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="327"/>
-      <c r="C18" s="111" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="33"/>
+      <c r="C18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="387">
-        <f>'Energetic final demand sectors'!G26</f>
+      <c r="D18" s="335">
+        <f>'Energetic final demand sectors'!E26</f>
         <v>0</v>
       </c>
       <c r="E18" s="289">
@@ -15506,14 +15529,14 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="327"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="7"/>
       <c r="D19" s="335"/>
-      <c r="E19" s="292"/>
+      <c r="E19" s="290"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="326" t="s">
-        <v>51</v>
+        <v>239</v>
       </c>
       <c r="C20" s="109"/>
       <c r="D20" s="388"/>
@@ -15525,7 +15548,7 @@
         <v>231</v>
       </c>
       <c r="D21" s="387">
-        <f>'Energetic final demand sectors'!H18</f>
+        <f>'Energetic final demand sectors'!G18</f>
         <v>0</v>
       </c>
       <c r="E21" s="289">
@@ -15536,10 +15559,10 @@
     <row r="22" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="327"/>
       <c r="C22" s="111" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D22" s="387">
-        <f>'Energetic final demand sectors'!H21</f>
+        <f>'Energetic final demand sectors'!G21</f>
         <v>0</v>
       </c>
       <c r="E22" s="289">
@@ -15553,7 +15576,7 @@
         <v>82</v>
       </c>
       <c r="D23" s="387">
-        <f>'Energetic final demand sectors'!H26</f>
+        <f>'Energetic final demand sectors'!G26</f>
         <v>0</v>
       </c>
       <c r="E23" s="289">
@@ -15569,7 +15592,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="326" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="C25" s="109"/>
       <c r="D25" s="388"/>
@@ -15581,7 +15604,7 @@
         <v>231</v>
       </c>
       <c r="D26" s="387">
-        <f>'Energetic final demand sectors'!I18</f>
+        <f>'Energetic final demand sectors'!H18</f>
         <v>0</v>
       </c>
       <c r="E26" s="289">
@@ -15592,10 +15615,10 @@
     <row r="27" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="327"/>
       <c r="C27" s="111" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D27" s="387">
-        <f>'Energetic final demand sectors'!I21</f>
+        <f>'Energetic final demand sectors'!H21</f>
         <v>0</v>
       </c>
       <c r="E27" s="289">
@@ -15609,7 +15632,7 @@
         <v>82</v>
       </c>
       <c r="D28" s="387">
-        <f>'Energetic final demand sectors'!I26</f>
+        <f>'Energetic final demand sectors'!H26</f>
         <v>0</v>
       </c>
       <c r="E28" s="289">
@@ -15625,7 +15648,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="326" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="C30" s="109"/>
       <c r="D30" s="388"/>
@@ -15637,7 +15660,7 @@
         <v>231</v>
       </c>
       <c r="D31" s="387">
-        <f>'Energetic final demand sectors'!J18</f>
+        <f>'Energetic final demand sectors'!I18</f>
         <v>0</v>
       </c>
       <c r="E31" s="289">
@@ -15648,10 +15671,10 @@
     <row r="32" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="327"/>
       <c r="C32" s="111" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D32" s="387">
-        <f>'Energetic final demand sectors'!J21</f>
+        <f>'Energetic final demand sectors'!I21</f>
         <v>0</v>
       </c>
       <c r="E32" s="289">
@@ -15665,7 +15688,7 @@
         <v>82</v>
       </c>
       <c r="D33" s="387">
-        <f>'Energetic final demand sectors'!J26</f>
+        <f>'Energetic final demand sectors'!I26</f>
         <v>0</v>
       </c>
       <c r="E33" s="289">
@@ -15681,7 +15704,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="326" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="109"/>
       <c r="D35" s="388"/>
@@ -15693,7 +15716,7 @@
         <v>231</v>
       </c>
       <c r="D36" s="387">
-        <f>'Energetic final demand sectors'!K18</f>
+        <f>'Energetic final demand sectors'!J18</f>
         <v>0</v>
       </c>
       <c r="E36" s="289">
@@ -15704,10 +15727,10 @@
     <row r="37" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="327"/>
       <c r="C37" s="111" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D37" s="387">
-        <f>'Energetic final demand sectors'!K21</f>
+        <f>'Energetic final demand sectors'!J21</f>
         <v>0</v>
       </c>
       <c r="E37" s="289">
@@ -15721,7 +15744,7 @@
         <v>82</v>
       </c>
       <c r="D38" s="387">
-        <f>'Energetic final demand sectors'!K26</f>
+        <f>'Energetic final demand sectors'!J26</f>
         <v>0</v>
       </c>
       <c r="E38" s="289">
@@ -15737,7 +15760,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="326" t="s">
-        <v>501</v>
+        <v>102</v>
       </c>
       <c r="C40" s="109"/>
       <c r="D40" s="388"/>
@@ -15749,24 +15772,26 @@
         <v>231</v>
       </c>
       <c r="D41" s="387">
-        <f>'Energetic final demand sectors'!L18</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="523" t="s">
-        <v>264</v>
+        <f>'Energetic final demand sectors'!K18</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="289">
+        <f>IF(SUM($D$41:$D$43)=0,0,D41/SUM($D$41:$D$43))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B42" s="327"/>
       <c r="C42" s="111" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D42" s="387">
-        <f>'Energetic final demand sectors'!L21</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="523" t="s">
-        <v>264</v>
+        <f>'Energetic final demand sectors'!K21</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="289">
+        <f>IF(SUM($D$41:$D$43)=0,0,D42/SUM($D$41:$D$43))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -15775,18 +15800,72 @@
         <v>82</v>
       </c>
       <c r="D43" s="387">
+        <f>'Energetic final demand sectors'!K26</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="289">
+        <f>IF(SUM($D$41:$D$43)=0,1,D43/SUM($D$41:$D$43))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="327"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="335"/>
+      <c r="E44" s="292"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="326" t="s">
+        <v>498</v>
+      </c>
+      <c r="C45" s="109"/>
+      <c r="D45" s="388"/>
+      <c r="E45" s="291"/>
+    </row>
+    <row r="46" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B46" s="327"/>
+      <c r="C46" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" s="387">
+        <f>'Energetic final demand sectors'!L18</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="522" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B47" s="327"/>
+      <c r="C47" s="111" t="s">
+        <v>419</v>
+      </c>
+      <c r="D47" s="387">
+        <f>'Energetic final demand sectors'!L21</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="522" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B48" s="327"/>
+      <c r="C48" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="387">
         <f>'Energetic final demand sectors'!L26</f>
         <v>0</v>
       </c>
-      <c r="E43" s="523" t="s">
+      <c r="E48" s="522" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="328"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="389"/>
-      <c r="E44" s="113"/>
+    <row r="49" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="328"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="389"/>
+      <c r="E49" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15836,17 +15915,17 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="597" t="s">
-        <v>521</v>
-      </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="598"/>
-      <c r="E5" s="599"/>
+      <c r="B5" s="604" t="s">
+        <v>518</v>
+      </c>
+      <c r="C5" s="605"/>
+      <c r="D5" s="605"/>
+      <c r="E5" s="606"/>
     </row>
     <row r="6" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="325" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C7" s="108"/>
       <c r="D7" s="384"/>
@@ -15860,28 +15939,28 @@
     </row>
     <row r="9" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="239" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="386" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E9" s="329" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="326" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="498"/>
+      <c r="C10" s="497"/>
       <c r="D10" s="383"/>
       <c r="E10" s="110"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="327"/>
-      <c r="C11" s="497" t="s">
-        <v>422</v>
+      <c r="C11" s="496" t="s">
+        <v>419</v>
       </c>
       <c r="D11" s="387">
         <f>'Non-energetic FD sectors'!D13</f>
@@ -15908,7 +15987,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
-      <c r="C13" s="499"/>
+      <c r="C13" s="498"/>
       <c r="D13" s="335"/>
       <c r="E13" s="290"/>
     </row>
@@ -15916,14 +15995,14 @@
       <c r="B14" s="326" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="498"/>
+      <c r="C14" s="497"/>
       <c r="D14" s="388"/>
       <c r="E14" s="291"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="327"/>
-      <c r="C15" s="497" t="s">
-        <v>422</v>
+      <c r="C15" s="496" t="s">
+        <v>419</v>
       </c>
       <c r="D15" s="387">
         <f>'Non-energetic FD sectors'!G13</f>
@@ -15950,7 +16029,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="327"/>
-      <c r="C17" s="499"/>
+      <c r="C17" s="498"/>
       <c r="D17" s="335"/>
       <c r="E17" s="292"/>
     </row>
@@ -15958,14 +16037,14 @@
       <c r="B18" s="326" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="498"/>
+      <c r="C18" s="497"/>
       <c r="D18" s="388"/>
       <c r="E18" s="291"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="327"/>
-      <c r="C19" s="497" t="s">
-        <v>422</v>
+      <c r="C19" s="496" t="s">
+        <v>419</v>
       </c>
       <c r="D19" s="387">
         <f>'Non-energetic FD sectors'!H13</f>
@@ -15992,7 +16071,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="327"/>
-      <c r="C21" s="499"/>
+      <c r="C21" s="498"/>
       <c r="D21" s="335"/>
       <c r="E21" s="292"/>
     </row>
@@ -16000,14 +16079,14 @@
       <c r="B22" s="326" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="498"/>
+      <c r="C22" s="497"/>
       <c r="D22" s="388"/>
       <c r="E22" s="291"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="327"/>
-      <c r="C23" s="497" t="s">
-        <v>422</v>
+      <c r="C23" s="496" t="s">
+        <v>419</v>
       </c>
       <c r="D23" s="387">
         <f>'Non-energetic FD sectors'!I13</f>
@@ -16034,9 +16113,9 @@
     </row>
     <row r="25" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="328"/>
-      <c r="C25" s="500"/>
+      <c r="C25" s="499"/>
       <c r="D25" s="389"/>
-      <c r="E25" s="513"/>
+      <c r="E25" s="512"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16059,8 +16138,8 @@
   </sheetPr>
   <dimension ref="A2:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16103,14 +16182,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="595" t="s">
-        <v>522</v>
-      </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="596"/>
-      <c r="E5" s="596"/>
-      <c r="F5" s="596"/>
-      <c r="G5" s="600"/>
+      <c r="B5" s="602" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="603"/>
+      <c r="D5" s="603"/>
+      <c r="E5" s="603"/>
+      <c r="F5" s="603"/>
+      <c r="G5" s="607"/>
     </row>
     <row r="6" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -16189,16 +16268,16 @@
     <row r="11" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="160"/>
       <c r="B11" s="178" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C11" s="208"/>
       <c r="D11" s="465">
         <f>'Own use analysis'!D14</f>
         <v>0</v>
       </c>
-      <c r="E11" s="404" t="str">
-        <f>'Own use analysis'!E14</f>
-        <v>-</v>
+      <c r="E11" s="404">
+        <f>-('Corrected energy balance step 2'!K40-'Corrected energy balance step 2'!K43-'Corrected energy balance step 2'!K46-'Corrected energy balance step 2'!K53)</f>
+        <v>0</v>
       </c>
       <c r="F11" s="424">
         <f>'Own use analysis'!F14</f>
@@ -16232,16 +16311,14 @@
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="160"/>
       <c r="B12" s="178" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C12" s="208"/>
       <c r="D12" s="424">
         <f>-SUM('Corrected energy balance step 2'!C49:N49,'Corrected energy balance step 2'!S49)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="404" t="s">
-        <v>264</v>
-      </c>
+      <c r="E12" s="404"/>
       <c r="F12" s="424">
         <f>-SUM('Corrected energy balance step 2'!P49:R49)</f>
         <v>0</v>
@@ -16251,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="424">
-        <f>-SUM('Corrected energy balance step 2'!U49:AQ49)</f>
+        <f>-(SUM('Corrected energy balance step 2'!U49:AQ49)+SUM('Corrected energy balance step 2'!AW49:AZ49))</f>
         <v>0</v>
       </c>
       <c r="I12" s="424">
@@ -16283,8 +16360,9 @@
         <f>'Energetic cons analysis'!D11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="436" t="s">
-        <v>264</v>
+      <c r="E13" s="425">
+        <f>'Corrected energy balance step 2'!K60</f>
+        <v>0</v>
       </c>
       <c r="F13" s="425">
         <f>'Energetic cons analysis'!F11</f>
@@ -16325,8 +16403,9 @@
         <f>SUM(D11:D13)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="433" t="s">
-        <v>264</v>
+      <c r="E14" s="426">
+        <f>SUM(E11:E13)</f>
+        <v>0</v>
       </c>
       <c r="F14" s="426">
         <f t="shared" ref="F14:L14" si="0">SUM(F11:F13)</f>
@@ -16388,7 +16467,7 @@
     <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="160"/>
       <c r="B17" s="189" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C17" s="200" t="s">
         <v>265</v>
@@ -16397,8 +16476,9 @@
         <f>SUM('Energetic cons analysis'!D15:D17)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="436" t="s">
-        <v>264</v>
+      <c r="E17" s="425">
+        <f>SUM('Energetic cons analysis'!E15)</f>
+        <v>0</v>
       </c>
       <c r="F17" s="425">
         <f>SUM('Energetic cons analysis'!F15:F17)</f>
@@ -16431,15 +16511,16 @@
     </row>
     <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="190" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C18" s="197"/>
       <c r="D18" s="426">
         <f>SUM(D17:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="433" t="s">
-        <v>264</v>
+      <c r="E18" s="426">
+        <f>SUM(E17:E17)</f>
+        <v>0</v>
       </c>
       <c r="F18" s="426">
         <f t="shared" ref="F18:L18" si="1">SUM(F17:F17)</f>
@@ -16485,7 +16566,7 @@
     </row>
     <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="189" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C20" s="200" t="s">
         <v>265</v>
@@ -16494,9 +16575,9 @@
         <f>'Energetic cons analysis'!D20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="436" t="str">
+      <c r="E20" s="436">
         <f>'Energetic cons analysis'!E20</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="F20" s="436" t="str">
         <f>'Energetic cons analysis'!F20</f>
@@ -16529,15 +16610,16 @@
     </row>
     <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="190" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C21" s="197"/>
       <c r="D21" s="426">
         <f>SUM(D20:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="433" t="s">
-        <v>264</v>
+      <c r="E21" s="426">
+        <f>SUM(E20:E20)</f>
+        <v>0</v>
       </c>
       <c r="F21" s="433" t="s">
         <v>264</v>
@@ -16589,8 +16671,9 @@
         <f>D14</f>
         <v>0</v>
       </c>
-      <c r="E23" s="404" t="s">
-        <v>264</v>
+      <c r="E23" s="424">
+        <f>E14</f>
+        <v>0</v>
       </c>
       <c r="F23" s="404" t="s">
         <v>264</v>
@@ -16623,15 +16706,16 @@
     <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="160"/>
       <c r="B24" s="190" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C24" s="197"/>
       <c r="D24" s="424">
         <f>D18</f>
         <v>0</v>
       </c>
-      <c r="E24" s="404" t="s">
-        <v>264</v>
+      <c r="E24" s="424">
+        <f>E18</f>
+        <v>0</v>
       </c>
       <c r="F24" s="404" t="s">
         <v>264</v>
@@ -16664,7 +16748,7 @@
     <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="160"/>
       <c r="B25" s="189" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C25" s="200" t="s">
         <v>264</v>
@@ -16673,9 +16757,9 @@
         <f>D21</f>
         <v>0</v>
       </c>
-      <c r="E25" s="436" t="str">
+      <c r="E25" s="436">
         <f t="shared" ref="E25:L25" si="5">E21</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="F25" s="436" t="str">
         <f t="shared" si="5"/>
@@ -16708,15 +16792,16 @@
     </row>
     <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="178" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C26" s="197"/>
       <c r="D26" s="428">
         <f>D23-D24-D25</f>
         <v>0</v>
       </c>
-      <c r="E26" s="438" t="s">
-        <v>264</v>
+      <c r="E26" s="428">
+        <f>E23-E24-E25</f>
+        <v>0</v>
       </c>
       <c r="F26" s="438" t="s">
         <v>264</v>
@@ -16834,14 +16919,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="595" t="s">
-        <v>614</v>
-      </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="596"/>
-      <c r="E5" s="596"/>
-      <c r="F5" s="596"/>
-      <c r="G5" s="600"/>
+      <c r="B5" s="602" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="603"/>
+      <c r="D5" s="603"/>
+      <c r="E5" s="603"/>
+      <c r="F5" s="603"/>
+      <c r="G5" s="607"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -16960,7 +17045,7 @@
     </row>
     <row r="12" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="178" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C12" s="197" t="s">
         <v>264</v>
@@ -17002,7 +17087,7 @@
     </row>
     <row r="13" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="178" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C13" s="197" t="s">
         <v>264</v>
@@ -17049,37 +17134,37 @@
         <v>328</v>
       </c>
       <c r="C14" s="197"/>
-      <c r="D14" s="557">
+      <c r="D14" s="556">
         <f>D11-D12-D13</f>
         <v>0</v>
       </c>
-      <c r="E14" s="558" t="s">
+      <c r="E14" s="557" t="s">
         <v>264</v>
       </c>
-      <c r="F14" s="558" t="s">
+      <c r="F14" s="557" t="s">
         <v>264</v>
       </c>
-      <c r="G14" s="559">
+      <c r="G14" s="558">
         <f>G11+G12-G13</f>
         <v>0</v>
       </c>
-      <c r="H14" s="559">
+      <c r="H14" s="558">
         <f>'Non-energetic cons analysis'!H19</f>
         <v>0</v>
       </c>
-      <c r="I14" s="559">
+      <c r="I14" s="558">
         <f>I11-I12-I13</f>
         <v>0</v>
       </c>
-      <c r="J14" s="559">
+      <c r="J14" s="558">
         <f>J11-J12-J13</f>
         <v>0</v>
       </c>
-      <c r="K14" s="559">
+      <c r="K14" s="558">
         <f>K11-K12-K13</f>
         <v>0</v>
       </c>
-      <c r="L14" s="556">
+      <c r="L14" s="555">
         <f>L11-L12-L13</f>
         <v>0</v>
       </c>
@@ -17174,14 +17259,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="595" t="s">
-        <v>523</v>
-      </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="596"/>
-      <c r="E5" s="596"/>
-      <c r="F5" s="596"/>
-      <c r="G5" s="600"/>
+      <c r="B5" s="602" t="s">
+        <v>520</v>
+      </c>
+      <c r="C5" s="603"/>
+      <c r="D5" s="603"/>
+      <c r="E5" s="603"/>
+      <c r="F5" s="603"/>
+      <c r="G5" s="607"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -17258,7 +17343,7 @@
     </row>
     <row r="11" spans="2:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B11" s="195" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C11" s="197"/>
       <c r="D11" s="414"/>
@@ -17709,7 +17794,7 @@
   <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17752,14 +17837,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="595" t="s">
-        <v>524</v>
-      </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="596"/>
-      <c r="E5" s="596"/>
-      <c r="F5" s="596"/>
-      <c r="G5" s="600"/>
+      <c r="B5" s="602" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="603"/>
+      <c r="D5" s="603"/>
+      <c r="E5" s="603"/>
+      <c r="F5" s="603"/>
+      <c r="G5" s="607"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -17836,15 +17921,16 @@
     </row>
     <row r="11" spans="2:12" ht="51" x14ac:dyDescent="0.2">
       <c r="B11" s="195" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C11" s="197"/>
       <c r="D11" s="432">
         <f>-'Fuel aggregation'!E15</f>
         <v>0</v>
       </c>
-      <c r="E11" s="433" t="s">
-        <v>264</v>
+      <c r="E11" s="433">
+        <f>'Fuel aggregation'!F15</f>
+        <v>0</v>
       </c>
       <c r="F11" s="432">
         <f>-'Fuel aggregation'!G15</f>
@@ -17877,15 +17963,16 @@
     </row>
     <row r="12" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="178" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C12" s="197"/>
       <c r="D12" s="432">
         <f>-'Fuel aggregation'!E17</f>
         <v>0</v>
       </c>
-      <c r="E12" s="488" t="s">
-        <v>264</v>
+      <c r="E12" s="432">
+        <f>-'Fuel aggregation'!F17</f>
+        <v>0</v>
       </c>
       <c r="F12" s="432">
         <f>-'Fuel aggregation'!G17</f>
@@ -17918,7 +18005,7 @@
     </row>
     <row r="13" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="179" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C13" s="200" t="s">
         <v>264</v>
@@ -17927,8 +18014,9 @@
         <f>-'Fuel aggregation'!E16</f>
         <v>0</v>
       </c>
-      <c r="E13" s="489" t="s">
-        <v>264</v>
+      <c r="E13" s="486">
+        <f>-'Fuel aggregation'!F16</f>
+        <v>0</v>
       </c>
       <c r="F13" s="486">
         <f>-'Fuel aggregation'!G16</f>
@@ -17968,8 +18056,9 @@
         <f>D11-D12-D13</f>
         <v>0</v>
       </c>
-      <c r="E14" s="457" t="s">
-        <v>264</v>
+      <c r="E14" s="376">
+        <f>E11-E12-E13</f>
+        <v>0</v>
       </c>
       <c r="F14" s="376">
         <f t="shared" ref="F14:L14" si="0">F11-F12-F13</f>
@@ -18015,7 +18104,7 @@
     </row>
     <row r="16" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="195" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C16" s="197"/>
       <c r="D16" s="402"/>
@@ -18037,8 +18126,9 @@
         <f>'Import from Metal analysis'!C12</f>
         <v>0</v>
       </c>
-      <c r="E17" s="404" t="s">
-        <v>264</v>
+      <c r="E17" s="379">
+        <f>'Import from Metal analysis'!D12</f>
+        <v>0</v>
       </c>
       <c r="F17" s="379">
         <f>'Import from Metal analysis'!E12</f>
@@ -18122,8 +18212,9 @@
         <f>D17</f>
         <v>0</v>
       </c>
-      <c r="E19" s="433" t="s">
-        <v>264</v>
+      <c r="E19" s="432">
+        <f>E17</f>
+        <v>0</v>
       </c>
       <c r="F19" s="432">
         <f t="shared" ref="F19:L19" si="1">F17</f>
@@ -18204,7 +18295,7 @@
   <dimension ref="A2:L28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18246,14 +18337,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="595" t="s">
-        <v>525</v>
-      </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="596"/>
-      <c r="E5" s="596"/>
-      <c r="F5" s="596"/>
-      <c r="G5" s="600"/>
+      <c r="B5" s="602" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" s="603"/>
+      <c r="D5" s="603"/>
+      <c r="E5" s="603"/>
+      <c r="F5" s="603"/>
+      <c r="G5" s="607"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -18337,8 +18428,9 @@
         <f>'Fuel aggregation'!E20</f>
         <v>0</v>
       </c>
-      <c r="E11" s="433" t="s">
-        <v>264</v>
+      <c r="E11" s="426">
+        <f>'Fuel aggregation'!F20</f>
+        <v>0</v>
       </c>
       <c r="F11" s="426">
         <f>'Fuel aggregation'!G20</f>
@@ -18371,15 +18463,16 @@
     </row>
     <row r="12" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="195" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C12" s="197"/>
       <c r="D12" s="426">
         <f>-SUM('Corrected energy balance step 2'!C49:N49,'Corrected energy balance step 2'!S49)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="433" t="s">
-        <v>264</v>
+      <c r="E12" s="426">
+        <f>-'Corrected energy balance step 2'!K49</f>
+        <v>0</v>
       </c>
       <c r="F12" s="426" t="s">
         <v>264</v>
@@ -18389,7 +18482,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="426">
-        <f>-SUM('Corrected energy balance step 2'!U49:AQ49)</f>
+        <f>-SUM('Corrected energy balance step 2'!U49:AQ49)-SUM('Corrected energy balance step 2'!AW49:AZ49)</f>
         <v>0</v>
       </c>
       <c r="I12" s="426">
@@ -18424,7 +18517,7 @@
     </row>
     <row r="14" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="195" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C14" s="197"/>
       <c r="D14" s="402"/>
@@ -18446,8 +18539,9 @@
         <f>'Import from Metal analysis'!C15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="404" t="s">
-        <v>264</v>
+      <c r="E15" s="379">
+        <f>'Import from Metal analysis'!D15</f>
+        <v>0</v>
       </c>
       <c r="F15" s="424">
         <f>'Import from Metal analysis'!E15</f>
@@ -18487,8 +18581,9 @@
         <f>'Import from Metal analysis'!C16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="404" t="s">
-        <v>264</v>
+      <c r="E16" s="379">
+        <f>'Import from Metal analysis'!D16</f>
+        <v>0</v>
       </c>
       <c r="F16" s="424">
         <f>'Import from Metal analysis'!E16</f>
@@ -18530,8 +18625,9 @@
         <f>'Import from Metal analysis'!C17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="436" t="s">
-        <v>264</v>
+      <c r="E17" s="435">
+        <f>'Import from Metal analysis'!D17</f>
+        <v>0</v>
       </c>
       <c r="F17" s="425">
         <f>'Import from Metal analysis'!E17</f>
@@ -18571,8 +18667,9 @@
         <f>SUM(D15:D17)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="433" t="s">
-        <v>264</v>
+      <c r="E18" s="432">
+        <f>SUM(E15:E17)</f>
+        <v>0</v>
       </c>
       <c r="F18" s="432">
         <f>SUM(F15:F17)</f>
@@ -18617,16 +18714,17 @@
       <c r="L19" s="403"/>
     </row>
     <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="B20" s="492" t="s">
-        <v>483</v>
+      <c r="B20" s="491" t="s">
+        <v>480</v>
       </c>
       <c r="C20" s="197"/>
       <c r="D20" s="427">
         <f>'Import from Chemical analysis'!C9</f>
         <v>0</v>
       </c>
-      <c r="E20" s="464" t="s">
-        <v>264</v>
+      <c r="E20" s="427">
+        <f>'Import from Chemical analysis'!D9</f>
+        <v>0</v>
       </c>
       <c r="F20" s="464" t="s">
         <v>264</v>
@@ -18671,15 +18769,16 @@
     </row>
     <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="B22" s="178" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C22" s="197"/>
       <c r="D22" s="379">
         <f>SUM(D11:D12)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="404" t="s">
-        <v>264</v>
+      <c r="E22" s="379">
+        <f>SUM(E11:E12)</f>
+        <v>0</v>
       </c>
       <c r="F22" s="379">
         <f t="shared" ref="F22:K22" si="1">SUM(F11:F12)</f>
@@ -18712,16 +18811,16 @@
     </row>
     <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="178" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C23" s="197"/>
       <c r="D23" s="379">
         <f>D18</f>
         <v>0</v>
       </c>
-      <c r="E23" s="451" t="str">
+      <c r="E23" s="451">
         <f t="shared" ref="E23:L23" si="2">E18</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="F23" s="379">
         <f t="shared" si="2"/>
@@ -18755,7 +18854,7 @@
     <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="160"/>
       <c r="B24" s="179" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C24" s="200" t="s">
         <v>264</v>
@@ -18764,9 +18863,9 @@
         <f>D20</f>
         <v>0</v>
       </c>
-      <c r="E24" s="462" t="str">
+      <c r="E24" s="462">
         <f t="shared" ref="E24:L24" si="3">E20</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="F24" s="462" t="str">
         <f t="shared" si="3"/>
@@ -18806,8 +18905,9 @@
         <f>D22-D23-D24</f>
         <v>0</v>
       </c>
-      <c r="E25" s="438" t="s">
-        <v>264</v>
+      <c r="E25" s="376">
+        <f>E22-E23-E24</f>
+        <v>0</v>
       </c>
       <c r="F25" s="438" t="s">
         <v>264</v>
@@ -18930,14 +19030,14 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="595" t="s">
-        <v>526</v>
-      </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="596"/>
-      <c r="E5" s="596"/>
-      <c r="F5" s="596"/>
-      <c r="G5" s="600"/>
+      <c r="B5" s="602" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" s="603"/>
+      <c r="D5" s="603"/>
+      <c r="E5" s="603"/>
+      <c r="F5" s="603"/>
+      <c r="G5" s="607"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -19067,7 +19167,7 @@
     </row>
     <row r="13" spans="2:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="195" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C13" s="197"/>
       <c r="D13" s="402"/>
@@ -19098,19 +19198,19 @@
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="185"/>
       <c r="C15" s="197"/>
-      <c r="D15" s="493"/>
+      <c r="D15" s="492"/>
       <c r="E15" s="464"/>
       <c r="F15" s="464"/>
-      <c r="G15" s="493"/>
-      <c r="H15" s="493"/>
-      <c r="I15" s="493"/>
-      <c r="J15" s="493"/>
-      <c r="K15" s="493"/>
+      <c r="G15" s="492"/>
+      <c r="H15" s="492"/>
+      <c r="I15" s="492"/>
+      <c r="J15" s="492"/>
+      <c r="K15" s="492"/>
       <c r="L15" s="444"/>
     </row>
     <row r="16" spans="2:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="B16" s="492" t="s">
-        <v>510</v>
+      <c r="B16" s="491" t="s">
+        <v>507</v>
       </c>
       <c r="C16" s="197"/>
       <c r="D16" s="432">
@@ -19154,8 +19254,8 @@
       <c r="B17" s="179"/>
       <c r="C17" s="200"/>
       <c r="D17" s="400"/>
-      <c r="E17" s="494"/>
-      <c r="F17" s="494"/>
+      <c r="E17" s="493"/>
+      <c r="F17" s="493"/>
       <c r="G17" s="400"/>
       <c r="H17" s="400"/>
       <c r="I17" s="400"/>
@@ -19167,8 +19267,8 @@
       <c r="B18" s="178"/>
       <c r="C18" s="197"/>
       <c r="D18" s="402"/>
-      <c r="E18" s="495"/>
-      <c r="F18" s="495"/>
+      <c r="E18" s="494"/>
+      <c r="F18" s="494"/>
       <c r="G18" s="402"/>
       <c r="H18" s="402"/>
       <c r="I18" s="402"/>
@@ -19566,7 +19666,7 @@
         <v>41486</v>
       </c>
       <c r="C30" s="158" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D30" s="159">
         <v>1.24</v>
@@ -19577,7 +19677,7 @@
         <v>41487</v>
       </c>
       <c r="C31" s="158" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D31" s="159">
         <v>1.25</v>
@@ -19588,7 +19688,7 @@
         <v>41488</v>
       </c>
       <c r="C32" s="158" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D32" s="159">
         <v>1.26</v>
@@ -19599,7 +19699,7 @@
         <v>41488</v>
       </c>
       <c r="C33" s="158" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D33" s="159">
         <v>1.27</v>
@@ -19610,7 +19710,7 @@
         <v>41491</v>
       </c>
       <c r="C34" s="158" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D34" s="159">
         <v>1.28</v>
@@ -19621,7 +19721,7 @@
         <v>41491</v>
       </c>
       <c r="C35" s="158" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D35" s="159">
         <v>1.29</v>
@@ -19632,7 +19732,7 @@
         <v>41492</v>
       </c>
       <c r="C36" s="158" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D36" s="159">
         <v>1.3</v>
@@ -19643,7 +19743,7 @@
         <v>41500</v>
       </c>
       <c r="C37" s="158" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D37" s="159">
         <v>1.31</v>
@@ -19654,7 +19754,7 @@
         <v>41502</v>
       </c>
       <c r="C38" s="158" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D38" s="159">
         <v>1.32</v>
@@ -19665,7 +19765,7 @@
         <v>41505</v>
       </c>
       <c r="C39" s="158" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D39" s="159">
         <v>1.33</v>
@@ -19676,7 +19776,7 @@
         <v>41507</v>
       </c>
       <c r="C40" s="467" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D40" s="159">
         <v>1.34</v>
@@ -19687,7 +19787,7 @@
         <v>41519</v>
       </c>
       <c r="C41" s="471" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D41" s="159">
         <v>1.35</v>
@@ -19698,7 +19798,7 @@
         <v>41534</v>
       </c>
       <c r="C42" s="158" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D42" s="159" t="s">
         <v>264</v>
@@ -19709,7 +19809,7 @@
         <v>41555</v>
       </c>
       <c r="C43" s="158" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D43" s="159" t="s">
         <v>264</v>
@@ -19720,7 +19820,7 @@
         <v>41562</v>
       </c>
       <c r="C44" s="485" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D44" s="159">
         <v>1.36</v>
@@ -19731,7 +19831,7 @@
         <v>41575</v>
       </c>
       <c r="C45" s="158" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D45" s="159">
         <v>1.37</v>
@@ -19742,7 +19842,7 @@
         <v>41576</v>
       </c>
       <c r="C46" s="158" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D46" s="159">
         <v>1.38</v>
@@ -19753,7 +19853,7 @@
         <v>41589</v>
       </c>
       <c r="C47" s="158" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D47" s="159">
         <v>1.39</v>
@@ -19764,7 +19864,7 @@
         <v>41591</v>
       </c>
       <c r="C48" s="158" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D48" s="159">
         <v>1.4</v>
@@ -19775,7 +19875,7 @@
         <v>41592</v>
       </c>
       <c r="C49" s="158" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D49" s="159">
         <v>1.41</v>
@@ -19786,7 +19886,7 @@
         <v>41593</v>
       </c>
       <c r="C50" s="158" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D50" s="159">
         <v>1.42</v>
@@ -19797,7 +19897,7 @@
         <v>41610</v>
       </c>
       <c r="C51" s="158" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D51" s="159">
         <v>1.43</v>
@@ -19808,7 +19908,7 @@
         <v>41611</v>
       </c>
       <c r="C52" s="158" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D52" s="159">
         <v>1.44</v>
@@ -19819,7 +19919,7 @@
         <v>41618</v>
       </c>
       <c r="C53" s="158" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D53" s="159">
         <v>1.45</v>
@@ -19830,7 +19930,7 @@
         <v>41646</v>
       </c>
       <c r="C54" s="158" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D54" s="159">
         <v>1.46</v>
@@ -19841,7 +19941,7 @@
         <v>41647</v>
       </c>
       <c r="C55" s="158" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D55" s="159">
         <v>1.47</v>
@@ -19849,10 +19949,10 @@
     </row>
     <row r="56" spans="2:4" ht="68" x14ac:dyDescent="0.2">
       <c r="B56" s="156" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C56" s="158" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D56" s="159">
         <v>1.48</v>
@@ -19863,7 +19963,7 @@
         <v>41823</v>
       </c>
       <c r="C57" s="158" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D57" s="159">
         <v>1.49</v>
@@ -19874,7 +19974,7 @@
         <v>42571</v>
       </c>
       <c r="C58" s="158" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D58" s="159">
         <v>1.5</v>
@@ -19885,7 +19985,7 @@
         <v>42576</v>
       </c>
       <c r="C59" s="157" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D59" s="159">
         <v>1.51</v>
@@ -19896,7 +19996,7 @@
         <v>42613</v>
       </c>
       <c r="C60" s="157" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D60" s="159">
         <v>1.52</v>
@@ -19907,20 +20007,20 @@
         <v>43872</v>
       </c>
       <c r="C61" s="157" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D61" s="159">
         <v>1.53</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="B62" s="615">
+      <c r="B62" s="590">
         <v>44369</v>
       </c>
-      <c r="C62" s="616" t="s">
-        <v>681</v>
-      </c>
-      <c r="D62" s="617">
+      <c r="C62" s="591" t="s">
+        <v>678</v>
+      </c>
+      <c r="D62" s="592">
         <v>1.54</v>
       </c>
     </row>
@@ -19952,8 +20052,8 @@
   </sheetPr>
   <dimension ref="B2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="XDS1" workbookViewId="0">
+      <selection activeCell="XFD19" sqref="XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19995,11 +20095,11 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="601" t="s">
-        <v>679</v>
-      </c>
-      <c r="C5" s="602"/>
-      <c r="D5" s="603"/>
+      <c r="B5" s="608" t="s">
+        <v>676</v>
+      </c>
+      <c r="C5" s="609"/>
+      <c r="D5" s="610"/>
       <c r="E5" s="167"/>
     </row>
     <row r="6" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -20023,16 +20123,16 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="611"/>
+      <c r="B10" s="586"/>
       <c r="C10" s="153"/>
-      <c r="D10" s="612"/>
+      <c r="D10" s="587"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="187" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C11" s="98"/>
-      <c r="D11" s="613">
+      <c r="D11" s="588">
         <f>-SUM('Fuel aggregation'!E16:E17)-'Own use analysis'!D19</f>
         <v>0</v>
       </c>
@@ -20040,10 +20140,10 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="187" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C12" s="98"/>
-      <c r="D12" s="613">
+      <c r="D12" s="588">
         <f>'Energetic cons analysis'!D18</f>
         <v>0</v>
       </c>
@@ -20051,10 +20151,10 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="187" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C13" s="98"/>
-      <c r="D13" s="613">
+      <c r="D13" s="588">
         <f>'Energetic cons analysis'!D24</f>
         <v>0</v>
       </c>
@@ -20064,10 +20164,10 @@
       <c r="B14" s="257" t="s">
         <v>321</v>
       </c>
-      <c r="C14" s="610" t="s">
+      <c r="C14" s="585" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="614">
+      <c r="D14" s="589">
         <f>'Energetic cons analysis'!D25</f>
         <v>0</v>
       </c>
@@ -20158,7 +20258,7 @@
   <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20204,15 +20304,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="604" t="s">
-        <v>506</v>
-      </c>
-      <c r="C5" s="605"/>
-      <c r="D5" s="605"/>
-      <c r="E5" s="605"/>
-      <c r="F5" s="605"/>
-      <c r="G5" s="605"/>
-      <c r="H5" s="606"/>
+      <c r="B5" s="611" t="s">
+        <v>503</v>
+      </c>
+      <c r="C5" s="612"/>
+      <c r="D5" s="612"/>
+      <c r="E5" s="612"/>
+      <c r="F5" s="612"/>
+      <c r="G5" s="612"/>
+      <c r="H5" s="613"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -20247,7 +20347,7 @@
     </row>
     <row r="9" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="227" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C9" s="390"/>
       <c r="D9" s="232"/>
@@ -20414,15 +20514,16 @@
     <row r="15" spans="2:13" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="229"/>
       <c r="C15" s="410" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D15" s="234"/>
       <c r="E15" s="379">
-        <f>SUM('Corrected energy balance step 2'!C40:J40,'Corrected energy balance step 2'!K40:N40,'Corrected energy balance step 2'!S40)-SUM('Corrected energy balance step 2'!C53:J53,'Corrected energy balance step 2'!K53:N53,'Corrected energy balance step 2'!S53)-SUM('Corrected energy balance step 2'!C49:J49,'Corrected energy balance step 2'!K49:N49,'Corrected energy balance step 2'!S49)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="404" t="s">
-        <v>264</v>
+        <f>SUM('Corrected energy balance step 2'!C40:J40,'Corrected energy balance step 2'!L40:N40,'Corrected energy balance step 2'!S40)-SUM('Corrected energy balance step 2'!C53:J53,'Corrected energy balance step 2'!K53:N53,'Corrected energy balance step 2'!S53)-SUM('Corrected energy balance step 2'!C49:J49,'Corrected energy balance step 2'!K49:N49,'Corrected energy balance step 2'!S49)</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="404">
+        <f>'Corrected energy balance step 2'!K40</f>
+        <v>0</v>
       </c>
       <c r="G15" s="379">
         <f>SUM('Corrected energy balance step 2'!P40:R40)-SUM('Corrected energy balance step 2'!P53:R53)-SUM('Corrected energy balance step 2'!P49:R49)</f>
@@ -20433,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="379">
-        <f>SUM('Corrected energy balance step 2'!U40:AQ40)-SUM('Corrected energy balance step 2'!U53:AQ53)-SUM('Corrected energy balance step 2'!U49:AQ49)</f>
+        <f>SUM('Corrected energy balance step 2'!V40:AQ40)+SUM('Corrected energy balance step 2'!AW40:AZ40)-SUM('Corrected energy balance step 2'!V49:AQ49)-SUM('Corrected energy balance step 2'!AW49:AZ49)-SUM('Corrected energy balance step 2'!V53:AQ53)-SUM('Corrected energy balance step 2'!AW53:AZ53)</f>
         <v>0</v>
       </c>
       <c r="J15" s="379">
@@ -20460,11 +20561,12 @@
       </c>
       <c r="D16" s="236"/>
       <c r="E16" s="379">
-        <f>SUM('Corrected energy balance step 2'!C43:J43,'Corrected energy balance step 2'!K43:N43,'Corrected energy balance step 2'!S43)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="404" t="s">
-        <v>264</v>
+        <f>SUM('Corrected energy balance step 2'!C43:J43,'Corrected energy balance step 2'!L43:N43,'Corrected energy balance step 2'!S43)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="404">
+        <f>'Corrected energy balance step 2'!K43</f>
+        <v>0</v>
       </c>
       <c r="G16" s="379">
         <f>SUM('Corrected energy balance step 2'!P43:R43)</f>
@@ -20475,7 +20577,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="379">
-        <f>SUM('Corrected energy balance step 2'!U43:AQ43)</f>
+        <f>SUM('Corrected energy balance step 2'!U43:AQ43)+SUM('Corrected energy balance step 2'!AW43:AZ43)</f>
         <v>0</v>
       </c>
       <c r="J16" s="379">
@@ -20502,11 +20604,12 @@
       </c>
       <c r="D17" s="236"/>
       <c r="E17" s="379">
-        <f>SUM('Corrected energy balance step 2'!C46:J46,'Corrected energy balance step 2'!K46:N46,'Corrected energy balance step 2'!S46)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="404" t="s">
-        <v>264</v>
+        <f>SUM('Corrected energy balance step 2'!C46:J46,'Corrected energy balance step 2'!L46:N46,'Corrected energy balance step 2'!S46)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="404">
+        <f>'Corrected energy balance step 2'!K46</f>
+        <v>0</v>
       </c>
       <c r="G17" s="379">
         <f>SUM('Corrected energy balance step 2'!P46:R46)</f>
@@ -20517,7 +20620,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="379">
-        <f>SUM('Corrected energy balance step 2'!U46:AQ46)</f>
+        <f>SUM('Corrected energy balance step 2'!U46:AQ46)+SUM('Corrected energy balance step 2'!AW46:AZ46)</f>
         <v>0</v>
       </c>
       <c r="J17" s="379">
@@ -20574,11 +20677,12 @@
       </c>
       <c r="D20" s="234"/>
       <c r="E20" s="405">
-        <f>SUM('Corrected energy balance step 2'!C60:J60,'Corrected energy balance step 2'!K60:N60,'Corrected energy balance step 2'!S60)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="406" t="s">
-        <v>264</v>
+        <f>SUM('Corrected energy balance step 2'!C60:J60,'Corrected energy balance step 2'!L60:N60,'Corrected energy balance step 2'!S60)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="406">
+        <f>'Corrected energy balance step 2'!K60</f>
+        <v>0</v>
       </c>
       <c r="G20" s="405">
         <f>SUM('Corrected energy balance step 2'!P60:R60)</f>
@@ -20589,7 +20693,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="405">
-        <f>SUM('Corrected energy balance step 2'!U60:AQ60)</f>
+        <f>SUM('Corrected energy balance step 2'!U60:AQ60) + MAX(SUM('Corrected energy balance step 2'!AX60:AX60),0) + MAX(SUM('Corrected energy balance step 2'!AW60:AW60) + SUM('Corrected energy balance step 2'!AY60:AZ60),0)</f>
         <v>0</v>
       </c>
       <c r="J20" s="405">
@@ -20616,11 +20720,12 @@
       </c>
       <c r="D21" s="236"/>
       <c r="E21" s="405">
-        <f>SUM('Corrected energy balance step 2'!C61:J61,'Corrected energy balance step 2'!K61:N61,'Corrected energy balance step 2'!S61)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="406" t="s">
-        <v>264</v>
+        <f>SUM('Corrected energy balance step 2'!C61:J61,'Corrected energy balance step 2'!L61:N61,'Corrected energy balance step 2'!S61)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="406">
+        <f>'Corrected energy balance step 2'!K61</f>
+        <v>0</v>
       </c>
       <c r="G21" s="405">
         <f>SUM('Corrected energy balance step 2'!P61:R61)</f>
@@ -20631,7 +20736,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="405">
-        <f>SUM('Corrected energy balance step 2'!U61:AQ61)</f>
+        <f>SUM('Corrected energy balance step 2'!U61:AQ61) + MAX(SUM('Corrected energy balance step 2'!AX61:AX61),0) + MAX(SUM('Corrected energy balance step 2'!AW61:AW61) + SUM('Corrected energy balance step 2'!AY61:AZ61),0)</f>
         <v>0</v>
       </c>
       <c r="J21" s="405">
@@ -20658,11 +20763,12 @@
       </c>
       <c r="D22" s="236"/>
       <c r="E22" s="405">
-        <f>SUM('Corrected energy balance step 2'!C63:J63,'Corrected energy balance step 2'!K63:N63,'Corrected energy balance step 2'!S63)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="406" t="s">
-        <v>264</v>
+        <f>SUM('Corrected energy balance step 2'!C63:J63,'Corrected energy balance step 2'!L63:N63,'Corrected energy balance step 2'!S63)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="406">
+        <f>'Corrected energy balance step 2'!K63</f>
+        <v>0</v>
       </c>
       <c r="G22" s="405">
         <f>SUM('Corrected energy balance step 2'!P63:R63)</f>
@@ -20673,7 +20779,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="405">
-        <f>SUM('Corrected energy balance step 2'!U63:AQ63)</f>
+        <f>SUM('Corrected energy balance step 2'!U63:AQ63) + MAX(SUM('Corrected energy balance step 2'!AX63:AX63),0) + MAX(SUM('Corrected energy balance step 2'!AW63:AW63) + SUM('Corrected energy balance step 2'!AY63:AZ63),0)</f>
         <v>0</v>
       </c>
       <c r="J22" s="405">
@@ -20730,11 +20836,12 @@
       </c>
       <c r="D25" s="234"/>
       <c r="E25" s="379">
-        <f>SUM('Corrected energy balance step 2'!C88:J88,'Corrected energy balance step 2'!K88:N88,'Corrected energy balance step 2'!S88)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="404" t="s">
-        <v>264</v>
+        <f>SUM('Corrected energy balance step 2'!C88:J88,'Corrected energy balance step 2'!L88:N88,'Corrected energy balance step 2'!S88)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="404">
+        <f>'Corrected energy balance step 2'!K88</f>
+        <v>0</v>
       </c>
       <c r="G25" s="379">
         <f>SUM('Corrected energy balance step 2'!P88:R88)</f>
@@ -20786,7 +20893,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="E11:I14 E18:I19 E16 G16:I16 E17 G17:I17 E23:I24 E20 G20:I20 E21 G21:I21 E22 G22:I22 E25 G25:I25" formulaRange="1"/>
+    <ignoredError sqref="E11:I14 E18:I19 G16:H16 G17:H17 E23:I24 G20:H20 G21:H21 G22:H22 G25:H25" formulaRange="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -20818,7 +20925,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="75" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
@@ -20850,15 +20957,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:13" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="607" t="s">
-        <v>611</v>
-      </c>
-      <c r="C5" s="608"/>
-      <c r="D5" s="608"/>
-      <c r="E5" s="608"/>
-      <c r="F5" s="608"/>
-      <c r="G5" s="608"/>
-      <c r="H5" s="609"/>
+      <c r="B5" s="614" t="s">
+        <v>608</v>
+      </c>
+      <c r="C5" s="615"/>
+      <c r="D5" s="615"/>
+      <c r="E5" s="615"/>
+      <c r="F5" s="615"/>
+      <c r="G5" s="615"/>
+      <c r="H5" s="616"/>
     </row>
     <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -20893,7 +21000,7 @@
     </row>
     <row r="9" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="227" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C9" s="390"/>
       <c r="D9" s="232"/>
@@ -20985,7 +21092,7 @@
     </row>
     <row r="12" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="231"/>
-      <c r="C12" s="524" t="str">
+      <c r="C12" s="523" t="str">
         <f>'Corrected energy balance step 2'!B64</f>
         <v>Non-metallic minerals</v>
       </c>
@@ -21028,7 +21135,7 @@
     </row>
     <row r="13" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="231"/>
-      <c r="C13" s="524" t="str">
+      <c r="C13" s="523" t="str">
         <f>'Corrected energy balance step 2'!B65</f>
         <v>Transport equipment</v>
       </c>
@@ -21071,7 +21178,7 @@
     </row>
     <row r="14" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="231"/>
-      <c r="C14" s="524" t="str">
+      <c r="C14" s="523" t="str">
         <f>'Corrected energy balance step 2'!B66</f>
         <v>Machinery</v>
       </c>
@@ -21114,7 +21221,7 @@
     </row>
     <row r="15" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="231"/>
-      <c r="C15" s="524" t="str">
+      <c r="C15" s="523" t="str">
         <f>'Corrected energy balance step 2'!B67</f>
         <v>Mining and quarrying</v>
       </c>
@@ -21157,7 +21264,7 @@
     </row>
     <row r="16" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="231"/>
-      <c r="C16" s="524" t="str">
+      <c r="C16" s="523" t="str">
         <f>'Corrected energy balance step 2'!B68</f>
         <v>Food and tobacco</v>
       </c>
@@ -21200,7 +21307,7 @@
     </row>
     <row r="17" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="231"/>
-      <c r="C17" s="524" t="str">
+      <c r="C17" s="523" t="str">
         <f>'Corrected energy balance step 2'!B69</f>
         <v>Paper, pulp and print</v>
       </c>
@@ -21243,7 +21350,7 @@
     </row>
     <row r="18" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="231"/>
-      <c r="C18" s="524" t="str">
+      <c r="C18" s="523" t="str">
         <f>'Corrected energy balance step 2'!B70</f>
         <v>Wood and wood products</v>
       </c>
@@ -21286,7 +21393,7 @@
     </row>
     <row r="19" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="231"/>
-      <c r="C19" s="524" t="str">
+      <c r="C19" s="523" t="str">
         <f>'Corrected energy balance step 2'!B71</f>
         <v>Construction</v>
       </c>
@@ -21329,7 +21436,7 @@
     </row>
     <row r="20" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="231"/>
-      <c r="C20" s="524" t="str">
+      <c r="C20" s="523" t="str">
         <f>'Corrected energy balance step 2'!B72</f>
         <v>Textile and leather</v>
       </c>
@@ -21372,7 +21479,7 @@
     </row>
     <row r="21" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="231"/>
-      <c r="C21" s="524" t="str">
+      <c r="C21" s="523" t="str">
         <f>'Corrected energy balance step 2'!B73</f>
         <v>Non-specified (industry)</v>
       </c>
@@ -21415,7 +21522,7 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="231"/>
-      <c r="C22" s="524"/>
+      <c r="C22" s="523"/>
       <c r="D22" s="236"/>
       <c r="E22" s="405"/>
       <c r="F22" s="406"/>
@@ -21459,7 +21566,7 @@
     </row>
     <row r="25" spans="2:13" ht="34" x14ac:dyDescent="0.2">
       <c r="B25" s="229"/>
-      <c r="C25" s="524" t="str">
+      <c r="C25" s="523" t="str">
         <f>'Corrected energy balance step 2'!B88</f>
         <v>Non-energy use industry/transformation/energy</v>
       </c>
@@ -21502,7 +21609,7 @@
     </row>
     <row r="26" spans="2:13" ht="34" x14ac:dyDescent="0.2">
       <c r="B26" s="229"/>
-      <c r="C26" s="524" t="str">
+      <c r="C26" s="523" t="str">
         <f>'Corrected energy balance step 2'!B89</f>
         <v xml:space="preserve">   Memo: Feedstock use in petrochemical industry</v>
       </c>
@@ -21545,7 +21652,7 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="229"/>
-      <c r="C27" s="524"/>
+      <c r="C27" s="523"/>
       <c r="D27" s="234"/>
       <c r="E27" s="379"/>
       <c r="F27" s="404"/>
@@ -21572,26 +21679,26 @@
       <c r="M28" s="409"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E31" s="525"/>
-      <c r="F31" s="525"/>
-      <c r="G31" s="525"/>
-      <c r="H31" s="525"/>
-      <c r="I31" s="525"/>
-      <c r="J31" s="525"/>
-      <c r="K31" s="525"/>
-      <c r="L31" s="525"/>
-      <c r="M31" s="525"/>
+      <c r="E31" s="524"/>
+      <c r="F31" s="524"/>
+      <c r="G31" s="524"/>
+      <c r="H31" s="524"/>
+      <c r="I31" s="524"/>
+      <c r="J31" s="524"/>
+      <c r="K31" s="524"/>
+      <c r="L31" s="524"/>
+      <c r="M31" s="524"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E32" s="525"/>
-      <c r="F32" s="525"/>
-      <c r="G32" s="525"/>
-      <c r="H32" s="525"/>
-      <c r="I32" s="525"/>
-      <c r="J32" s="525"/>
-      <c r="K32" s="525"/>
-      <c r="L32" s="525"/>
-      <c r="M32" s="525"/>
+      <c r="E32" s="524"/>
+      <c r="F32" s="524"/>
+      <c r="G32" s="524"/>
+      <c r="H32" s="524"/>
+      <c r="I32" s="524"/>
+      <c r="J32" s="524"/>
+      <c r="K32" s="524"/>
+      <c r="L32" s="524"/>
+      <c r="M32" s="524"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21630,7 +21737,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="75" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="181"/>
@@ -21662,15 +21769,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="607" t="s">
-        <v>613</v>
-      </c>
-      <c r="C5" s="608"/>
-      <c r="D5" s="608"/>
-      <c r="E5" s="608"/>
-      <c r="F5" s="608"/>
-      <c r="G5" s="608"/>
-      <c r="H5" s="609"/>
+      <c r="B5" s="614" t="s">
+        <v>610</v>
+      </c>
+      <c r="C5" s="615"/>
+      <c r="D5" s="615"/>
+      <c r="E5" s="615"/>
+      <c r="F5" s="615"/>
+      <c r="G5" s="615"/>
+      <c r="H5" s="616"/>
     </row>
     <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -21705,7 +21812,7 @@
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="188"/>
-      <c r="C9" s="526"/>
+      <c r="C9" s="525"/>
       <c r="D9" s="193"/>
       <c r="E9" s="143" t="s">
         <v>253</v>
@@ -21752,18 +21859,18 @@
     </row>
     <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="160"/>
-      <c r="B11" s="527" t="s">
-        <v>514</v>
-      </c>
-      <c r="C11" s="528"/>
+      <c r="B11" s="526" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" s="527"/>
       <c r="D11" s="208"/>
       <c r="E11" s="465">
         <f>'Energetic final demand sectors'!D26</f>
         <v>0</v>
       </c>
-      <c r="F11" s="404" t="str">
+      <c r="F11" s="404">
         <f>'Energetic final demand sectors'!E26</f>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="G11" s="404" t="str">
         <f>'Energetic final demand sectors'!F26</f>
@@ -21789,17 +21896,17 @@
         <f>'Energetic final demand sectors'!K26</f>
         <v>0</v>
       </c>
-      <c r="M11" s="544">
+      <c r="M11" s="543">
         <f>'Energetic final demand sectors'!L26</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="160"/>
-      <c r="B12" s="529" t="s">
-        <v>515</v>
-      </c>
-      <c r="C12" s="530"/>
+      <c r="B12" s="528" t="s">
+        <v>512</v>
+      </c>
+      <c r="C12" s="529"/>
       <c r="D12" s="200" t="s">
         <v>264</v>
       </c>
@@ -21842,10 +21949,10 @@
     </row>
     <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="160"/>
-      <c r="B13" s="527" t="s">
-        <v>516</v>
-      </c>
-      <c r="C13" s="528"/>
+      <c r="B13" s="526" t="s">
+        <v>513</v>
+      </c>
+      <c r="C13" s="527"/>
       <c r="D13" s="197"/>
       <c r="E13" s="426">
         <f>E11-E12</f>
@@ -21877,7 +21984,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="531">
+      <c r="M13" s="530">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -21885,7 +21992,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="160"/>
       <c r="B14" s="178"/>
-      <c r="C14" s="528"/>
+      <c r="C14" s="527"/>
       <c r="D14" s="197"/>
       <c r="E14" s="427"/>
       <c r="F14" s="464"/>
@@ -21898,24 +22005,24 @@
       <c r="M14" s="444"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="532"/>
-      <c r="C15" s="533"/>
-      <c r="D15" s="534"/>
-      <c r="E15" s="535"/>
-      <c r="F15" s="536"/>
-      <c r="G15" s="535"/>
-      <c r="H15" s="535"/>
-      <c r="I15" s="535"/>
-      <c r="J15" s="535"/>
-      <c r="K15" s="535"/>
-      <c r="L15" s="535"/>
-      <c r="M15" s="531"/>
+      <c r="B15" s="531"/>
+      <c r="C15" s="532"/>
+      <c r="D15" s="533"/>
+      <c r="E15" s="534"/>
+      <c r="F15" s="535"/>
+      <c r="G15" s="534"/>
+      <c r="H15" s="534"/>
+      <c r="I15" s="534"/>
+      <c r="J15" s="534"/>
+      <c r="K15" s="534"/>
+      <c r="L15" s="534"/>
+      <c r="M15" s="530"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="537" t="s">
-        <v>517</v>
-      </c>
-      <c r="C16" s="538"/>
+      <c r="B16" s="536" t="s">
+        <v>514</v>
+      </c>
+      <c r="C16" s="537"/>
       <c r="D16" s="197"/>
       <c r="E16" s="427"/>
       <c r="F16" s="427"/>
@@ -21929,7 +22036,7 @@
     </row>
     <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="190"/>
-      <c r="C17" s="538" t="str">
+      <c r="C17" s="537" t="str">
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
@@ -21973,7 +22080,7 @@
     </row>
     <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="190"/>
-      <c r="C18" s="538" t="str">
+      <c r="C18" s="537" t="str">
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
@@ -22017,7 +22124,7 @@
     </row>
     <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="190"/>
-      <c r="C19" s="538" t="str">
+      <c r="C19" s="537" t="str">
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
@@ -22061,7 +22168,7 @@
     </row>
     <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="190"/>
-      <c r="C20" s="538" t="str">
+      <c r="C20" s="537" t="str">
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
@@ -22105,7 +22212,7 @@
     </row>
     <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="190"/>
-      <c r="C21" s="538" t="str">
+      <c r="C21" s="537" t="str">
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
@@ -22149,7 +22256,7 @@
     </row>
     <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="190"/>
-      <c r="C22" s="538" t="str">
+      <c r="C22" s="537" t="str">
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
@@ -22194,7 +22301,7 @@
     <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="160"/>
       <c r="B23" s="190"/>
-      <c r="C23" s="538" t="str">
+      <c r="C23" s="537" t="str">
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
@@ -22239,7 +22346,7 @@
     <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="160"/>
       <c r="B24" s="190"/>
-      <c r="C24" s="538" t="str">
+      <c r="C24" s="537" t="str">
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
@@ -22284,7 +22391,7 @@
     <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="160"/>
       <c r="B25" s="190"/>
-      <c r="C25" s="538" t="str">
+      <c r="C25" s="537" t="str">
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
@@ -22329,7 +22436,7 @@
     <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="160"/>
       <c r="B26" s="190"/>
-      <c r="C26" s="538" t="str">
+      <c r="C26" s="537" t="str">
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
@@ -22338,10 +22445,10 @@
         <f>'Fuel aggregation subsectors'!E21+E13</f>
         <v>0</v>
       </c>
-      <c r="F26" s="546" t="s">
+      <c r="F26" s="545" t="s">
         <v>264</v>
       </c>
-      <c r="G26" s="546" t="s">
+      <c r="G26" s="545" t="s">
         <v>264</v>
       </c>
       <c r="H26" s="424">
@@ -22371,7 +22478,7 @@
     </row>
     <row r="27" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="191"/>
-      <c r="C27" s="539"/>
+      <c r="C27" s="538"/>
       <c r="D27" s="209"/>
       <c r="E27" s="445"/>
       <c r="F27" s="445"/>
@@ -22430,7 +22537,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="75" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C2" s="75"/>
       <c r="D2" s="181"/>
@@ -22462,15 +22569,15 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="595" t="s">
-        <v>612</v>
-      </c>
-      <c r="C5" s="596"/>
-      <c r="D5" s="596"/>
-      <c r="E5" s="596"/>
-      <c r="F5" s="596"/>
-      <c r="G5" s="596"/>
-      <c r="H5" s="600"/>
+      <c r="B5" s="602" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="603"/>
+      <c r="D5" s="603"/>
+      <c r="E5" s="603"/>
+      <c r="F5" s="603"/>
+      <c r="G5" s="603"/>
+      <c r="H5" s="607"/>
     </row>
     <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -22505,7 +22612,7 @@
     </row>
     <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="188"/>
-      <c r="C9" s="526"/>
+      <c r="C9" s="525"/>
       <c r="D9" s="193"/>
       <c r="E9" s="143" t="s">
         <v>253</v>
@@ -22536,25 +22643,25 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="547"/>
-      <c r="C10" s="548"/>
-      <c r="D10" s="549"/>
-      <c r="E10" s="550"/>
-      <c r="F10" s="550"/>
-      <c r="G10" s="550"/>
-      <c r="H10" s="550"/>
-      <c r="I10" s="550"/>
-      <c r="J10" s="550"/>
-      <c r="K10" s="550"/>
-      <c r="L10" s="550"/>
-      <c r="M10" s="551"/>
+      <c r="B10" s="546"/>
+      <c r="C10" s="547"/>
+      <c r="D10" s="548"/>
+      <c r="E10" s="549"/>
+      <c r="F10" s="549"/>
+      <c r="G10" s="549"/>
+      <c r="H10" s="549"/>
+      <c r="I10" s="549"/>
+      <c r="J10" s="549"/>
+      <c r="K10" s="549"/>
+      <c r="L10" s="549"/>
+      <c r="M10" s="550"/>
     </row>
     <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="160"/>
-      <c r="B11" s="527" t="s">
-        <v>552</v>
-      </c>
-      <c r="C11" s="528"/>
+      <c r="B11" s="526" t="s">
+        <v>549</v>
+      </c>
+      <c r="C11" s="527"/>
       <c r="D11" s="208"/>
       <c r="E11" s="465">
         <f>'Fuel aggregation subsectors'!E25</f>
@@ -22588,21 +22695,21 @@
         <f>'Fuel aggregation subsectors'!L25</f>
         <v>0</v>
       </c>
-      <c r="M11" s="544">
+      <c r="M11" s="543">
         <f>'Fuel aggregation subsectors'!M25</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="160"/>
-      <c r="B12" s="529" t="s">
-        <v>553</v>
-      </c>
-      <c r="C12" s="530"/>
+      <c r="B12" s="528" t="s">
+        <v>550</v>
+      </c>
+      <c r="C12" s="529"/>
       <c r="D12" s="200" t="s">
         <v>264</v>
       </c>
-      <c r="E12" s="496">
+      <c r="E12" s="495">
         <f>'Fuel aggregation subsectors'!E26</f>
         <v>0</v>
       </c>
@@ -22641,10 +22748,10 @@
     </row>
     <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="160"/>
-      <c r="B13" s="527" t="s">
-        <v>554</v>
-      </c>
-      <c r="C13" s="528"/>
+      <c r="B13" s="526" t="s">
+        <v>551</v>
+      </c>
+      <c r="C13" s="527"/>
       <c r="D13" s="197"/>
       <c r="E13" s="426">
         <f>E11-E12</f>
@@ -22676,7 +22783,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="531">
+      <c r="M13" s="530">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -22684,7 +22791,7 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="160"/>
       <c r="B14" s="178"/>
-      <c r="C14" s="528"/>
+      <c r="C14" s="527"/>
       <c r="D14" s="197"/>
       <c r="E14" s="427"/>
       <c r="F14" s="464"/>
@@ -22698,25 +22805,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="160"/>
-      <c r="B15" s="552" t="s">
-        <v>555</v>
-      </c>
-      <c r="C15" s="533"/>
-      <c r="D15" s="534"/>
-      <c r="E15" s="553"/>
-      <c r="F15" s="554"/>
-      <c r="G15" s="553"/>
-      <c r="H15" s="553"/>
-      <c r="I15" s="553"/>
-      <c r="J15" s="553"/>
-      <c r="K15" s="553"/>
-      <c r="L15" s="553"/>
-      <c r="M15" s="555"/>
+      <c r="B15" s="551" t="s">
+        <v>552</v>
+      </c>
+      <c r="C15" s="532"/>
+      <c r="D15" s="533"/>
+      <c r="E15" s="552"/>
+      <c r="F15" s="553"/>
+      <c r="G15" s="552"/>
+      <c r="H15" s="552"/>
+      <c r="I15" s="552"/>
+      <c r="J15" s="552"/>
+      <c r="K15" s="552"/>
+      <c r="L15" s="552"/>
+      <c r="M15" s="554"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="160"/>
-      <c r="B16" s="537"/>
-      <c r="C16" s="538"/>
+      <c r="B16" s="536"/>
+      <c r="C16" s="537"/>
       <c r="D16" s="197"/>
       <c r="E16" s="427"/>
       <c r="F16" s="427"/>
@@ -22731,7 +22838,7 @@
     <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="160"/>
       <c r="B17" s="190"/>
-      <c r="C17" s="538" t="s">
+      <c r="C17" s="537" t="s">
         <v>145</v>
       </c>
       <c r="D17" s="197"/>
@@ -22765,7 +22872,7 @@
     </row>
     <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="190"/>
-      <c r="C18" s="538" t="s">
+      <c r="C18" s="537" t="s">
         <v>146</v>
       </c>
       <c r="D18" s="197"/>
@@ -22799,7 +22906,7 @@
     </row>
     <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="190"/>
-      <c r="C19" s="538" t="s">
+      <c r="C19" s="537" t="s">
         <v>147</v>
       </c>
       <c r="D19" s="197"/>
@@ -22833,7 +22940,7 @@
     </row>
     <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="190"/>
-      <c r="C20" s="538" t="s">
+      <c r="C20" s="537" t="s">
         <v>148</v>
       </c>
       <c r="D20" s="197"/>
@@ -22867,7 +22974,7 @@
     </row>
     <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="190"/>
-      <c r="C21" s="538" t="s">
+      <c r="C21" s="537" t="s">
         <v>149</v>
       </c>
       <c r="D21" s="197"/>
@@ -22901,7 +23008,7 @@
     </row>
     <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="190"/>
-      <c r="C22" s="538" t="s">
+      <c r="C22" s="537" t="s">
         <v>150</v>
       </c>
       <c r="D22" s="197"/>
@@ -22935,7 +23042,7 @@
     </row>
     <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="190"/>
-      <c r="C23" s="538" t="s">
+      <c r="C23" s="537" t="s">
         <v>151</v>
       </c>
       <c r="D23" s="197"/>
@@ -22969,7 +23076,7 @@
     </row>
     <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="190"/>
-      <c r="C24" s="538" t="s">
+      <c r="C24" s="537" t="s">
         <v>152</v>
       </c>
       <c r="D24" s="197"/>
@@ -23003,7 +23110,7 @@
     </row>
     <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="190"/>
-      <c r="C25" s="538" t="s">
+      <c r="C25" s="537" t="s">
         <v>153</v>
       </c>
       <c r="D25" s="197"/>
@@ -23038,7 +23145,7 @@
     <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="160"/>
       <c r="B26" s="190"/>
-      <c r="C26" s="538" t="s">
+      <c r="C26" s="537" t="s">
         <v>154</v>
       </c>
       <c r="D26" s="197"/>
@@ -23046,10 +23153,10 @@
         <f>E13</f>
         <v>0</v>
       </c>
-      <c r="F26" s="546" t="s">
+      <c r="F26" s="545" t="s">
         <v>264</v>
       </c>
-      <c r="G26" s="546" t="s">
+      <c r="G26" s="545" t="s">
         <v>264</v>
       </c>
       <c r="H26" s="424">
@@ -23080,7 +23187,7 @@
     <row r="27" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="160"/>
       <c r="B27" s="191"/>
-      <c r="C27" s="539"/>
+      <c r="C27" s="538"/>
       <c r="D27" s="209"/>
       <c r="E27" s="445"/>
       <c r="F27" s="445"/>
@@ -23157,17 +23264,17 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="597" t="s">
-        <v>478</v>
-      </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="598"/>
-      <c r="E5" s="599"/>
+      <c r="B5" s="604" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" s="605"/>
+      <c r="D5" s="605"/>
+      <c r="E5" s="606"/>
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="325" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C7" s="108"/>
       <c r="D7" s="384"/>
@@ -23181,14 +23288,14 @@
     </row>
     <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="239" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="386" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E9" s="329" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -23205,7 +23312,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D11" s="540">
+      <c r="D11" s="539">
         <f>'Energetic FD subsectors'!E17</f>
         <v>0</v>
       </c>
@@ -23213,7 +23320,7 @@
         <f>IF(SUM($D$11:$D$20)=0,0,D11/SUM($D$11:$D$20))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="515"/>
+      <c r="G11" s="514"/>
     </row>
     <row r="12" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="327"/>
@@ -23221,7 +23328,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D12" s="540">
+      <c r="D12" s="539">
         <f>'Energetic FD subsectors'!E18</f>
         <v>0</v>
       </c>
@@ -23236,7 +23343,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D13" s="540">
+      <c r="D13" s="539">
         <f>'Energetic FD subsectors'!E19</f>
         <v>0</v>
       </c>
@@ -23251,7 +23358,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D14" s="540">
+      <c r="D14" s="539">
         <f>'Energetic FD subsectors'!E20</f>
         <v>0</v>
       </c>
@@ -23266,7 +23373,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D15" s="540">
+      <c r="D15" s="539">
         <f>'Energetic FD subsectors'!E21</f>
         <v>0</v>
       </c>
@@ -23281,7 +23388,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D16" s="540">
+      <c r="D16" s="539">
         <f>'Energetic FD subsectors'!E22</f>
         <v>0</v>
       </c>
@@ -23296,7 +23403,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D17" s="540">
+      <c r="D17" s="539">
         <f>'Energetic FD subsectors'!E23</f>
         <v>0</v>
       </c>
@@ -23311,7 +23418,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D18" s="540">
+      <c r="D18" s="539">
         <f>'Energetic FD subsectors'!E24</f>
         <v>0</v>
       </c>
@@ -23326,7 +23433,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D19" s="540">
+      <c r="D19" s="539">
         <f>'Energetic FD subsectors'!E25</f>
         <v>0</v>
       </c>
@@ -23341,7 +23448,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D20" s="540">
+      <c r="D20" s="539">
         <f>'Energetic FD subsectors'!E26</f>
         <v>0</v>
       </c>
@@ -23353,7 +23460,7 @@
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="33"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="541"/>
+      <c r="D21" s="540"/>
       <c r="E21" s="290"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -23361,7 +23468,7 @@
         <v>239</v>
       </c>
       <c r="C22" s="109"/>
-      <c r="D22" s="542"/>
+      <c r="D22" s="541"/>
       <c r="E22" s="291"/>
     </row>
     <row r="23" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -23370,7 +23477,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D23" s="540">
+      <c r="D23" s="539">
         <f>'Energetic FD subsectors'!H17</f>
         <v>0</v>
       </c>
@@ -23378,7 +23485,7 @@
         <f>IF(SUM($D$23:$D$32)=0,0,D23/SUM($D$23:$D$32))</f>
         <v>0</v>
       </c>
-      <c r="G23" s="515"/>
+      <c r="G23" s="514"/>
     </row>
     <row r="24" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="327"/>
@@ -23386,7 +23493,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D24" s="540">
+      <c r="D24" s="539">
         <f>'Energetic FD subsectors'!H18</f>
         <v>0</v>
       </c>
@@ -23401,7 +23508,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D25" s="540">
+      <c r="D25" s="539">
         <f>'Energetic FD subsectors'!H19</f>
         <v>0</v>
       </c>
@@ -23416,7 +23523,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D26" s="540">
+      <c r="D26" s="539">
         <f>'Energetic FD subsectors'!H20</f>
         <v>0</v>
       </c>
@@ -23431,7 +23538,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D27" s="540">
+      <c r="D27" s="539">
         <f>'Energetic FD subsectors'!H21</f>
         <v>0</v>
       </c>
@@ -23446,7 +23553,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D28" s="540">
+      <c r="D28" s="539">
         <f>'Energetic FD subsectors'!H22</f>
         <v>0</v>
       </c>
@@ -23461,7 +23568,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D29" s="540">
+      <c r="D29" s="539">
         <f>'Energetic FD subsectors'!H23</f>
         <v>0</v>
       </c>
@@ -23476,7 +23583,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D30" s="540">
+      <c r="D30" s="539">
         <f>'Energetic FD subsectors'!H24</f>
         <v>0</v>
       </c>
@@ -23491,7 +23598,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D31" s="540">
+      <c r="D31" s="539">
         <f>'Energetic FD subsectors'!H25</f>
         <v>0</v>
       </c>
@@ -23506,7 +23613,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D32" s="540">
+      <c r="D32" s="539">
         <f>'Energetic FD subsectors'!H26</f>
         <v>0</v>
       </c>
@@ -23518,7 +23625,7 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="327"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="541"/>
+      <c r="D33" s="540"/>
       <c r="E33" s="292"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -23526,7 +23633,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="109"/>
-      <c r="D34" s="542"/>
+      <c r="D34" s="541"/>
       <c r="E34" s="291"/>
     </row>
     <row r="35" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -23535,7 +23642,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D35" s="540">
+      <c r="D35" s="539">
         <f>'Energetic FD subsectors'!I17</f>
         <v>0</v>
       </c>
@@ -23543,7 +23650,7 @@
         <f>IF(SUM($D$35:$D$44)=0,0,D35/SUM($D$35:$D$44))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="515"/>
+      <c r="G35" s="514"/>
     </row>
     <row r="36" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="327"/>
@@ -23551,7 +23658,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D36" s="540">
+      <c r="D36" s="539">
         <f>'Energetic FD subsectors'!I18</f>
         <v>0</v>
       </c>
@@ -23566,7 +23673,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D37" s="540">
+      <c r="D37" s="539">
         <f>'Energetic FD subsectors'!I19</f>
         <v>0</v>
       </c>
@@ -23581,7 +23688,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D38" s="540">
+      <c r="D38" s="539">
         <f>'Energetic FD subsectors'!I20</f>
         <v>0</v>
       </c>
@@ -23596,7 +23703,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D39" s="540">
+      <c r="D39" s="539">
         <f>'Energetic FD subsectors'!I21</f>
         <v>0</v>
       </c>
@@ -23611,7 +23718,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D40" s="540">
+      <c r="D40" s="539">
         <f>'Energetic FD subsectors'!I22</f>
         <v>0</v>
       </c>
@@ -23626,7 +23733,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D41" s="540">
+      <c r="D41" s="539">
         <f>'Energetic FD subsectors'!I23</f>
         <v>0</v>
       </c>
@@ -23641,7 +23748,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D42" s="540">
+      <c r="D42" s="539">
         <f>'Energetic FD subsectors'!I24</f>
         <v>0</v>
       </c>
@@ -23656,7 +23763,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D43" s="540">
+      <c r="D43" s="539">
         <f>'Energetic FD subsectors'!I25</f>
         <v>0</v>
       </c>
@@ -23671,7 +23778,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D44" s="540">
+      <c r="D44" s="539">
         <f>'Energetic FD subsectors'!I26</f>
         <v>0</v>
       </c>
@@ -23683,7 +23790,7 @@
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="327"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="541"/>
+      <c r="D45" s="540"/>
       <c r="E45" s="292"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
@@ -23691,16 +23798,16 @@
         <v>195</v>
       </c>
       <c r="C46" s="109"/>
-      <c r="D46" s="542"/>
+      <c r="D46" s="541"/>
       <c r="E46" s="291"/>
     </row>
     <row r="47" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="327"/>
-      <c r="C47" s="545" t="str">
+      <c r="C47" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D47" s="540">
+      <c r="D47" s="539">
         <f>'Energetic FD subsectors'!J17</f>
         <v>0</v>
       </c>
@@ -23708,15 +23815,15 @@
         <f>IF(SUM($D$47:$D$56)=0,0,D47/SUM($D$47:$D$56))</f>
         <v>0</v>
       </c>
-      <c r="G47" s="515"/>
+      <c r="G47" s="514"/>
     </row>
     <row r="48" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="327"/>
-      <c r="C48" s="545" t="str">
+      <c r="C48" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D48" s="540">
+      <c r="D48" s="539">
         <f>'Energetic FD subsectors'!J18</f>
         <v>0</v>
       </c>
@@ -23727,11 +23834,11 @@
     </row>
     <row r="49" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="327"/>
-      <c r="C49" s="545" t="str">
+      <c r="C49" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D49" s="540">
+      <c r="D49" s="539">
         <f>'Energetic FD subsectors'!J19</f>
         <v>0</v>
       </c>
@@ -23742,11 +23849,11 @@
     </row>
     <row r="50" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="327"/>
-      <c r="C50" s="545" t="str">
+      <c r="C50" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D50" s="540">
+      <c r="D50" s="539">
         <f>'Energetic FD subsectors'!J20</f>
         <v>0</v>
       </c>
@@ -23757,11 +23864,11 @@
     </row>
     <row r="51" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="327"/>
-      <c r="C51" s="545" t="str">
+      <c r="C51" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D51" s="540">
+      <c r="D51" s="539">
         <f>'Energetic FD subsectors'!J21</f>
         <v>0</v>
       </c>
@@ -23772,11 +23879,11 @@
     </row>
     <row r="52" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="327"/>
-      <c r="C52" s="545" t="str">
+      <c r="C52" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D52" s="540">
+      <c r="D52" s="539">
         <f>'Energetic FD subsectors'!J22</f>
         <v>0</v>
       </c>
@@ -23787,11 +23894,11 @@
     </row>
     <row r="53" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="327"/>
-      <c r="C53" s="545" t="str">
+      <c r="C53" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D53" s="540">
+      <c r="D53" s="539">
         <f>'Energetic FD subsectors'!J23</f>
         <v>0</v>
       </c>
@@ -23802,11 +23909,11 @@
     </row>
     <row r="54" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="327"/>
-      <c r="C54" s="545" t="str">
+      <c r="C54" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D54" s="540">
+      <c r="D54" s="539">
         <f>'Energetic FD subsectors'!J24</f>
         <v>0</v>
       </c>
@@ -23817,11 +23924,11 @@
     </row>
     <row r="55" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="327"/>
-      <c r="C55" s="545" t="str">
+      <c r="C55" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D55" s="540">
+      <c r="D55" s="539">
         <f>'Energetic FD subsectors'!J25</f>
         <v>0</v>
       </c>
@@ -23832,11 +23939,11 @@
     </row>
     <row r="56" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="327"/>
-      <c r="C56" s="545" t="str">
+      <c r="C56" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D56" s="540">
+      <c r="D56" s="539">
         <f>'Energetic FD subsectors'!J26</f>
         <v>0</v>
       </c>
@@ -23848,7 +23955,7 @@
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="327"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="541"/>
+      <c r="D57" s="540"/>
       <c r="E57" s="292"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
@@ -23856,7 +23963,7 @@
         <v>103</v>
       </c>
       <c r="C58" s="109"/>
-      <c r="D58" s="542"/>
+      <c r="D58" s="541"/>
       <c r="E58" s="291"/>
     </row>
     <row r="59" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -23865,7 +23972,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D59" s="540">
+      <c r="D59" s="539">
         <f>'Energetic FD subsectors'!K17</f>
         <v>0</v>
       </c>
@@ -23873,7 +23980,7 @@
         <f>IF(SUM($D$59:$D$68)=0,0,D59/SUM($D$59:$D$68))</f>
         <v>0</v>
       </c>
-      <c r="G59" s="515"/>
+      <c r="G59" s="514"/>
     </row>
     <row r="60" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="327"/>
@@ -23881,7 +23988,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D60" s="540">
+      <c r="D60" s="539">
         <f>'Energetic FD subsectors'!K18</f>
         <v>0</v>
       </c>
@@ -23896,7 +24003,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D61" s="540">
+      <c r="D61" s="539">
         <f>'Energetic FD subsectors'!K19</f>
         <v>0</v>
       </c>
@@ -23911,7 +24018,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D62" s="540">
+      <c r="D62" s="539">
         <f>'Energetic FD subsectors'!K20</f>
         <v>0</v>
       </c>
@@ -23926,7 +24033,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D63" s="540">
+      <c r="D63" s="539">
         <f>'Energetic FD subsectors'!K21</f>
         <v>0</v>
       </c>
@@ -23941,7 +24048,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D64" s="540">
+      <c r="D64" s="539">
         <f>'Energetic FD subsectors'!K22</f>
         <v>0</v>
       </c>
@@ -23956,7 +24063,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D65" s="540">
+      <c r="D65" s="539">
         <f>'Energetic FD subsectors'!K23</f>
         <v>0</v>
       </c>
@@ -23971,7 +24078,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D66" s="540">
+      <c r="D66" s="539">
         <f>'Energetic FD subsectors'!K24</f>
         <v>0</v>
       </c>
@@ -23986,7 +24093,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D67" s="540">
+      <c r="D67" s="539">
         <f>'Energetic FD subsectors'!K25</f>
         <v>0</v>
       </c>
@@ -24001,7 +24108,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D68" s="540">
+      <c r="D68" s="539">
         <f>'Energetic FD subsectors'!K26</f>
         <v>0</v>
       </c>
@@ -24013,7 +24120,7 @@
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="327"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="541"/>
+      <c r="D69" s="540"/>
       <c r="E69" s="292"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
@@ -24021,7 +24128,7 @@
         <v>102</v>
       </c>
       <c r="C70" s="109"/>
-      <c r="D70" s="542"/>
+      <c r="D70" s="541"/>
       <c r="E70" s="291"/>
     </row>
     <row r="71" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -24030,7 +24137,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D71" s="540">
+      <c r="D71" s="539">
         <f>'Energetic FD subsectors'!L17</f>
         <v>0</v>
       </c>
@@ -24038,7 +24145,7 @@
         <f>IF(SUM($D$71:$D$80)=0,0,D71/SUM($D$71:$D$80))</f>
         <v>0</v>
       </c>
-      <c r="G71" s="515"/>
+      <c r="G71" s="514"/>
     </row>
     <row r="72" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B72" s="327"/>
@@ -24046,7 +24153,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D72" s="540">
+      <c r="D72" s="539">
         <f>'Energetic FD subsectors'!L18</f>
         <v>0</v>
       </c>
@@ -24061,7 +24168,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D73" s="540">
+      <c r="D73" s="539">
         <f>'Energetic FD subsectors'!L19</f>
         <v>0</v>
       </c>
@@ -24076,7 +24183,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D74" s="540">
+      <c r="D74" s="539">
         <f>'Energetic FD subsectors'!L20</f>
         <v>0</v>
       </c>
@@ -24091,7 +24198,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D75" s="540">
+      <c r="D75" s="539">
         <f>'Energetic FD subsectors'!L21</f>
         <v>0</v>
       </c>
@@ -24106,7 +24213,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D76" s="540">
+      <c r="D76" s="539">
         <f>'Energetic FD subsectors'!L22</f>
         <v>0</v>
       </c>
@@ -24121,7 +24228,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D77" s="540">
+      <c r="D77" s="539">
         <f>'Energetic FD subsectors'!L23</f>
         <v>0</v>
       </c>
@@ -24136,7 +24243,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D78" s="540">
+      <c r="D78" s="539">
         <f>'Energetic FD subsectors'!L24</f>
         <v>0</v>
       </c>
@@ -24151,7 +24258,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D79" s="540">
+      <c r="D79" s="539">
         <f>'Energetic FD subsectors'!L25</f>
         <v>0</v>
       </c>
@@ -24166,7 +24273,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D80" s="540">
+      <c r="D80" s="539">
         <f>'Energetic FD subsectors'!L26</f>
         <v>0</v>
       </c>
@@ -24178,15 +24285,15 @@
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="327"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="541"/>
+      <c r="D81" s="540"/>
       <c r="E81" s="292"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="326" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C82" s="109"/>
-      <c r="D82" s="542"/>
+      <c r="D82" s="541"/>
       <c r="E82" s="291"/>
     </row>
     <row r="83" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -24195,7 +24302,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D83" s="540">
+      <c r="D83" s="539">
         <f>'Energetic FD subsectors'!M17</f>
         <v>0</v>
       </c>
@@ -24203,7 +24310,7 @@
         <f>IF(SUM($D$83:$D$92)=0,0,D83/SUM($D$83:$D$92))</f>
         <v>0</v>
       </c>
-      <c r="G83" s="515"/>
+      <c r="G83" s="514"/>
     </row>
     <row r="84" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B84" s="327"/>
@@ -24211,7 +24318,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D84" s="540">
+      <c r="D84" s="539">
         <f>'Energetic FD subsectors'!M18</f>
         <v>0</v>
       </c>
@@ -24226,7 +24333,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D85" s="540">
+      <c r="D85" s="539">
         <f>'Energetic FD subsectors'!M19</f>
         <v>0</v>
       </c>
@@ -24241,7 +24348,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D86" s="540">
+      <c r="D86" s="539">
         <f>'Energetic FD subsectors'!M20</f>
         <v>0</v>
       </c>
@@ -24256,7 +24363,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D87" s="540">
+      <c r="D87" s="539">
         <f>'Energetic FD subsectors'!M21</f>
         <v>0</v>
       </c>
@@ -24271,7 +24378,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D88" s="540">
+      <c r="D88" s="539">
         <f>'Energetic FD subsectors'!M22</f>
         <v>0</v>
       </c>
@@ -24286,7 +24393,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D89" s="540">
+      <c r="D89" s="539">
         <f>'Energetic FD subsectors'!M23</f>
         <v>0</v>
       </c>
@@ -24301,7 +24408,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D90" s="540">
+      <c r="D90" s="539">
         <f>'Energetic FD subsectors'!M24</f>
         <v>0</v>
       </c>
@@ -24316,7 +24423,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D91" s="540">
+      <c r="D91" s="539">
         <f>'Energetic FD subsectors'!M25</f>
         <v>0</v>
       </c>
@@ -24331,7 +24438,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D92" s="540">
+      <c r="D92" s="539">
         <f>'Energetic FD subsectors'!M26</f>
         <v>0</v>
       </c>
@@ -24343,7 +24450,7 @@
     <row r="93" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B93" s="328"/>
       <c r="C93" s="112"/>
-      <c r="D93" s="543"/>
+      <c r="D93" s="542"/>
       <c r="E93" s="113"/>
     </row>
   </sheetData>
@@ -24395,17 +24502,17 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="597" t="s">
-        <v>478</v>
-      </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="598"/>
-      <c r="E5" s="599"/>
+      <c r="B5" s="604" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" s="605"/>
+      <c r="D5" s="605"/>
+      <c r="E5" s="606"/>
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="325" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C7" s="108"/>
       <c r="D7" s="384"/>
@@ -24419,14 +24526,14 @@
     </row>
     <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="239" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="386" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E9" s="329" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -24443,7 +24550,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D11" s="540">
+      <c r="D11" s="539">
         <f>'Non-energetic FD subsectors'!E17</f>
         <v>0</v>
       </c>
@@ -24451,7 +24558,7 @@
         <f>IF(SUM($D$11:$D$20)=0,0,D11/SUM($D$11:$D$20))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="515"/>
+      <c r="G11" s="514"/>
     </row>
     <row r="12" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="327"/>
@@ -24459,7 +24566,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D12" s="540">
+      <c r="D12" s="539">
         <f>'Non-energetic FD subsectors'!E18</f>
         <v>0</v>
       </c>
@@ -24474,7 +24581,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D13" s="540">
+      <c r="D13" s="539">
         <f>'Non-energetic FD subsectors'!E19</f>
         <v>0</v>
       </c>
@@ -24489,7 +24596,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D14" s="540">
+      <c r="D14" s="539">
         <f>'Non-energetic FD subsectors'!E20</f>
         <v>0</v>
       </c>
@@ -24504,7 +24611,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D15" s="540">
+      <c r="D15" s="539">
         <f>'Non-energetic FD subsectors'!E21</f>
         <v>0</v>
       </c>
@@ -24519,7 +24626,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D16" s="540">
+      <c r="D16" s="539">
         <f>'Non-energetic FD subsectors'!E22</f>
         <v>0</v>
       </c>
@@ -24534,7 +24641,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D17" s="540">
+      <c r="D17" s="539">
         <f>'Non-energetic FD subsectors'!E23</f>
         <v>0</v>
       </c>
@@ -24549,7 +24656,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D18" s="540">
+      <c r="D18" s="539">
         <f>'Non-energetic FD subsectors'!E24</f>
         <v>0</v>
       </c>
@@ -24564,7 +24671,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D19" s="540">
+      <c r="D19" s="539">
         <f>'Non-energetic FD subsectors'!E25</f>
         <v>0</v>
       </c>
@@ -24579,7 +24686,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D20" s="540">
+      <c r="D20" s="539">
         <f>'Non-energetic FD subsectors'!E26</f>
         <v>0</v>
       </c>
@@ -24591,7 +24698,7 @@
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="33"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="541"/>
+      <c r="D21" s="540"/>
       <c r="E21" s="290"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -24599,7 +24706,7 @@
         <v>239</v>
       </c>
       <c r="C22" s="109"/>
-      <c r="D22" s="542"/>
+      <c r="D22" s="541"/>
       <c r="E22" s="291"/>
     </row>
     <row r="23" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -24608,7 +24715,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D23" s="540">
+      <c r="D23" s="539">
         <f>'Non-energetic FD subsectors'!H17</f>
         <v>0</v>
       </c>
@@ -24616,7 +24723,7 @@
         <f>IF(SUM($D$23:$D$32)=0,0,D23/SUM($D$23:$D$32))</f>
         <v>0</v>
       </c>
-      <c r="G23" s="515"/>
+      <c r="G23" s="514"/>
     </row>
     <row r="24" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="327"/>
@@ -24624,7 +24731,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D24" s="540">
+      <c r="D24" s="539">
         <f>'Non-energetic FD subsectors'!H18</f>
         <v>0</v>
       </c>
@@ -24639,7 +24746,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D25" s="540">
+      <c r="D25" s="539">
         <f>'Non-energetic FD subsectors'!H19</f>
         <v>0</v>
       </c>
@@ -24654,7 +24761,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D26" s="540">
+      <c r="D26" s="539">
         <f>'Non-energetic FD subsectors'!H20</f>
         <v>0</v>
       </c>
@@ -24669,7 +24776,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D27" s="540">
+      <c r="D27" s="539">
         <f>'Non-energetic FD subsectors'!H21</f>
         <v>0</v>
       </c>
@@ -24684,7 +24791,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D28" s="540">
+      <c r="D28" s="539">
         <f>'Non-energetic FD subsectors'!H22</f>
         <v>0</v>
       </c>
@@ -24699,7 +24806,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D29" s="540">
+      <c r="D29" s="539">
         <f>'Non-energetic FD subsectors'!H23</f>
         <v>0</v>
       </c>
@@ -24714,7 +24821,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D30" s="540">
+      <c r="D30" s="539">
         <f>'Non-energetic FD subsectors'!H24</f>
         <v>0</v>
       </c>
@@ -24729,7 +24836,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D31" s="540">
+      <c r="D31" s="539">
         <f>'Non-energetic FD subsectors'!H25</f>
         <v>0</v>
       </c>
@@ -24744,7 +24851,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D32" s="540">
+      <c r="D32" s="539">
         <f>'Non-energetic FD subsectors'!H26</f>
         <v>0</v>
       </c>
@@ -24756,7 +24863,7 @@
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="327"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="541"/>
+      <c r="D33" s="540"/>
       <c r="E33" s="292"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -24764,7 +24871,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="109"/>
-      <c r="D34" s="542"/>
+      <c r="D34" s="541"/>
       <c r="E34" s="291"/>
     </row>
     <row r="35" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -24773,7 +24880,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D35" s="540">
+      <c r="D35" s="539">
         <f>'Non-energetic FD subsectors'!I17</f>
         <v>0</v>
       </c>
@@ -24781,7 +24888,7 @@
         <f>IF(SUM($D$35:$D$44)=0,0,D35/SUM($D$35:$D$44))</f>
         <v>0</v>
       </c>
-      <c r="G35" s="515"/>
+      <c r="G35" s="514"/>
     </row>
     <row r="36" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="327"/>
@@ -24789,7 +24896,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D36" s="540">
+      <c r="D36" s="539">
         <f>'Non-energetic FD subsectors'!I18</f>
         <v>0</v>
       </c>
@@ -24804,7 +24911,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D37" s="540">
+      <c r="D37" s="539">
         <f>'Non-energetic FD subsectors'!I19</f>
         <v>0</v>
       </c>
@@ -24819,7 +24926,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D38" s="540">
+      <c r="D38" s="539">
         <f>'Non-energetic FD subsectors'!I20</f>
         <v>0</v>
       </c>
@@ -24834,7 +24941,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D39" s="540">
+      <c r="D39" s="539">
         <f>'Non-energetic FD subsectors'!I21</f>
         <v>0</v>
       </c>
@@ -24849,7 +24956,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D40" s="540">
+      <c r="D40" s="539">
         <f>'Non-energetic FD subsectors'!I22</f>
         <v>0</v>
       </c>
@@ -24864,7 +24971,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D41" s="540">
+      <c r="D41" s="539">
         <f>'Non-energetic FD subsectors'!I23</f>
         <v>0</v>
       </c>
@@ -24879,7 +24986,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D42" s="540">
+      <c r="D42" s="539">
         <f>'Non-energetic FD subsectors'!I24</f>
         <v>0</v>
       </c>
@@ -24894,7 +25001,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D43" s="540">
+      <c r="D43" s="539">
         <f>'Non-energetic FD subsectors'!I25</f>
         <v>0</v>
       </c>
@@ -24909,7 +25016,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D44" s="540">
+      <c r="D44" s="539">
         <f>'Non-energetic FD subsectors'!I26</f>
         <v>0</v>
       </c>
@@ -24921,7 +25028,7 @@
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="327"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="541"/>
+      <c r="D45" s="540"/>
       <c r="E45" s="292"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
@@ -24929,16 +25036,16 @@
         <v>195</v>
       </c>
       <c r="C46" s="109"/>
-      <c r="D46" s="542"/>
+      <c r="D46" s="541"/>
       <c r="E46" s="291"/>
     </row>
     <row r="47" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B47" s="327"/>
-      <c r="C47" s="545" t="str">
+      <c r="C47" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D47" s="540">
+      <c r="D47" s="539">
         <f>'Non-energetic FD subsectors'!J17</f>
         <v>0</v>
       </c>
@@ -24946,15 +25053,15 @@
         <f>IF(SUM($D$47:$D$56)=0,0,D47/SUM($D$47:$D$56))</f>
         <v>0</v>
       </c>
-      <c r="G47" s="515"/>
+      <c r="G47" s="514"/>
     </row>
     <row r="48" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B48" s="327"/>
-      <c r="C48" s="545" t="str">
+      <c r="C48" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D48" s="540">
+      <c r="D48" s="539">
         <f>'Non-energetic FD subsectors'!J18</f>
         <v>0</v>
       </c>
@@ -24965,11 +25072,11 @@
     </row>
     <row r="49" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B49" s="327"/>
-      <c r="C49" s="545" t="str">
+      <c r="C49" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D49" s="540">
+      <c r="D49" s="539">
         <f>'Non-energetic FD subsectors'!J19</f>
         <v>0</v>
       </c>
@@ -24980,11 +25087,11 @@
     </row>
     <row r="50" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B50" s="327"/>
-      <c r="C50" s="545" t="str">
+      <c r="C50" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D50" s="540">
+      <c r="D50" s="539">
         <f>'Non-energetic FD subsectors'!J20</f>
         <v>0</v>
       </c>
@@ -24995,11 +25102,11 @@
     </row>
     <row r="51" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B51" s="327"/>
-      <c r="C51" s="545" t="str">
+      <c r="C51" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D51" s="540">
+      <c r="D51" s="539">
         <f>'Non-energetic FD subsectors'!J21</f>
         <v>0</v>
       </c>
@@ -25010,11 +25117,11 @@
     </row>
     <row r="52" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B52" s="327"/>
-      <c r="C52" s="545" t="str">
+      <c r="C52" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D52" s="540">
+      <c r="D52" s="539">
         <f>'Non-energetic FD subsectors'!J22</f>
         <v>0</v>
       </c>
@@ -25025,11 +25132,11 @@
     </row>
     <row r="53" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="327"/>
-      <c r="C53" s="545" t="str">
+      <c r="C53" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D53" s="540">
+      <c r="D53" s="539">
         <f>'Non-energetic FD subsectors'!J23</f>
         <v>0</v>
       </c>
@@ -25040,11 +25147,11 @@
     </row>
     <row r="54" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B54" s="327"/>
-      <c r="C54" s="545" t="str">
+      <c r="C54" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D54" s="540">
+      <c r="D54" s="539">
         <f>'Non-energetic FD subsectors'!J24</f>
         <v>0</v>
       </c>
@@ -25055,11 +25162,11 @@
     </row>
     <row r="55" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="327"/>
-      <c r="C55" s="545" t="str">
+      <c r="C55" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D55" s="540">
+      <c r="D55" s="539">
         <f>'Non-energetic FD subsectors'!J25</f>
         <v>0</v>
       </c>
@@ -25070,11 +25177,11 @@
     </row>
     <row r="56" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B56" s="327"/>
-      <c r="C56" s="545" t="str">
+      <c r="C56" s="544" t="str">
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D56" s="540">
+      <c r="D56" s="539">
         <f>'Non-energetic FD subsectors'!J26</f>
         <v>0</v>
       </c>
@@ -25086,7 +25193,7 @@
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="327"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="541"/>
+      <c r="D57" s="540"/>
       <c r="E57" s="292"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
@@ -25094,7 +25201,7 @@
         <v>103</v>
       </c>
       <c r="C58" s="109"/>
-      <c r="D58" s="542"/>
+      <c r="D58" s="541"/>
       <c r="E58" s="291"/>
     </row>
     <row r="59" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -25103,7 +25210,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D59" s="540">
+      <c r="D59" s="539">
         <f>'Non-energetic FD subsectors'!K17</f>
         <v>0</v>
       </c>
@@ -25111,7 +25218,7 @@
         <f>IF(SUM($D$59:$D$68)=0,0,D59/SUM($D$59:$D$68))</f>
         <v>0</v>
       </c>
-      <c r="G59" s="515"/>
+      <c r="G59" s="514"/>
     </row>
     <row r="60" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="327"/>
@@ -25119,7 +25226,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D60" s="540">
+      <c r="D60" s="539">
         <f>'Non-energetic FD subsectors'!K18</f>
         <v>0</v>
       </c>
@@ -25134,7 +25241,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D61" s="540">
+      <c r="D61" s="539">
         <f>'Non-energetic FD subsectors'!K19</f>
         <v>0</v>
       </c>
@@ -25149,7 +25256,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D62" s="540">
+      <c r="D62" s="539">
         <f>'Non-energetic FD subsectors'!K20</f>
         <v>0</v>
       </c>
@@ -25164,7 +25271,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D63" s="540">
+      <c r="D63" s="539">
         <f>'Non-energetic FD subsectors'!K21</f>
         <v>0</v>
       </c>
@@ -25179,7 +25286,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D64" s="540">
+      <c r="D64" s="539">
         <f>'Non-energetic FD subsectors'!K22</f>
         <v>0</v>
       </c>
@@ -25194,7 +25301,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D65" s="540">
+      <c r="D65" s="539">
         <f>'Non-energetic FD subsectors'!K23</f>
         <v>0</v>
       </c>
@@ -25209,7 +25316,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D66" s="540">
+      <c r="D66" s="539">
         <f>'Non-energetic FD subsectors'!K24</f>
         <v>0</v>
       </c>
@@ -25224,7 +25331,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D67" s="540">
+      <c r="D67" s="539">
         <f>'Non-energetic FD subsectors'!K25</f>
         <v>0</v>
       </c>
@@ -25239,7 +25346,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D68" s="540">
+      <c r="D68" s="539">
         <f>'Non-energetic FD subsectors'!K26</f>
         <v>0</v>
       </c>
@@ -25251,7 +25358,7 @@
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="327"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="541"/>
+      <c r="D69" s="540"/>
       <c r="E69" s="292"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
@@ -25259,7 +25366,7 @@
         <v>102</v>
       </c>
       <c r="C70" s="109"/>
-      <c r="D70" s="542"/>
+      <c r="D70" s="541"/>
       <c r="E70" s="291"/>
     </row>
     <row r="71" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -25268,7 +25375,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D71" s="540">
+      <c r="D71" s="539">
         <f>'Non-energetic FD subsectors'!L17</f>
         <v>0</v>
       </c>
@@ -25276,7 +25383,7 @@
         <f>IF(SUM($D$71:$D$80)=0,0,D71/SUM($D$71:$D$80))</f>
         <v>0</v>
       </c>
-      <c r="G71" s="515"/>
+      <c r="G71" s="514"/>
     </row>
     <row r="72" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B72" s="327"/>
@@ -25284,7 +25391,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D72" s="540">
+      <c r="D72" s="539">
         <f>'Non-energetic FD subsectors'!L18</f>
         <v>0</v>
       </c>
@@ -25299,7 +25406,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D73" s="540">
+      <c r="D73" s="539">
         <f>'Non-energetic FD subsectors'!L19</f>
         <v>0</v>
       </c>
@@ -25314,7 +25421,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D74" s="540">
+      <c r="D74" s="539">
         <f>'Non-energetic FD subsectors'!L20</f>
         <v>0</v>
       </c>
@@ -25329,7 +25436,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D75" s="540">
+      <c r="D75" s="539">
         <f>'Non-energetic FD subsectors'!L21</f>
         <v>0</v>
       </c>
@@ -25344,7 +25451,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D76" s="540">
+      <c r="D76" s="539">
         <f>'Non-energetic FD subsectors'!L22</f>
         <v>0</v>
       </c>
@@ -25359,7 +25466,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D77" s="540">
+      <c r="D77" s="539">
         <f>'Non-energetic FD subsectors'!L23</f>
         <v>0</v>
       </c>
@@ -25374,7 +25481,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D78" s="540">
+      <c r="D78" s="539">
         <f>'Non-energetic FD subsectors'!L24</f>
         <v>0</v>
       </c>
@@ -25389,7 +25496,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D79" s="540">
+      <c r="D79" s="539">
         <f>'Non-energetic FD subsectors'!L25</f>
         <v>0</v>
       </c>
@@ -25404,7 +25511,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D80" s="540">
+      <c r="D80" s="539">
         <f>'Non-energetic FD subsectors'!L26</f>
         <v>0</v>
       </c>
@@ -25416,15 +25523,15 @@
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="327"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="541"/>
+      <c r="D81" s="540"/>
       <c r="E81" s="292"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82" s="326" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C82" s="109"/>
-      <c r="D82" s="542"/>
+      <c r="D82" s="541"/>
       <c r="E82" s="291"/>
     </row>
     <row r="83" spans="2:7" ht="17" x14ac:dyDescent="0.2">
@@ -25433,7 +25540,7 @@
         <f>'Fuel aggregation subsectors'!C12</f>
         <v>Non-metallic minerals</v>
       </c>
-      <c r="D83" s="540">
+      <c r="D83" s="539">
         <f>'Non-energetic FD subsectors'!M17</f>
         <v>0</v>
       </c>
@@ -25441,7 +25548,7 @@
         <f>IF(SUM($D$83:$D$92)=0,0,D83/SUM($D$83:$D$92))</f>
         <v>0</v>
       </c>
-      <c r="G83" s="515"/>
+      <c r="G83" s="514"/>
     </row>
     <row r="84" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B84" s="327"/>
@@ -25449,7 +25556,7 @@
         <f>'Fuel aggregation subsectors'!C13</f>
         <v>Transport equipment</v>
       </c>
-      <c r="D84" s="540">
+      <c r="D84" s="539">
         <f>'Non-energetic FD subsectors'!M18</f>
         <v>0</v>
       </c>
@@ -25464,7 +25571,7 @@
         <f>'Fuel aggregation subsectors'!C14</f>
         <v>Machinery</v>
       </c>
-      <c r="D85" s="540">
+      <c r="D85" s="539">
         <f>'Non-energetic FD subsectors'!M19</f>
         <v>0</v>
       </c>
@@ -25479,7 +25586,7 @@
         <f>'Fuel aggregation subsectors'!C15</f>
         <v>Mining and quarrying</v>
       </c>
-      <c r="D86" s="540">
+      <c r="D86" s="539">
         <f>'Non-energetic FD subsectors'!M20</f>
         <v>0</v>
       </c>
@@ -25494,7 +25601,7 @@
         <f>'Fuel aggregation subsectors'!C16</f>
         <v>Food and tobacco</v>
       </c>
-      <c r="D87" s="540">
+      <c r="D87" s="539">
         <f>'Non-energetic FD subsectors'!M21</f>
         <v>0</v>
       </c>
@@ -25509,7 +25616,7 @@
         <f>'Fuel aggregation subsectors'!C17</f>
         <v>Paper, pulp and print</v>
       </c>
-      <c r="D88" s="540">
+      <c r="D88" s="539">
         <f>'Non-energetic FD subsectors'!M22</f>
         <v>0</v>
       </c>
@@ -25524,7 +25631,7 @@
         <f>'Fuel aggregation subsectors'!C18</f>
         <v>Wood and wood products</v>
       </c>
-      <c r="D89" s="540">
+      <c r="D89" s="539">
         <f>'Non-energetic FD subsectors'!M23</f>
         <v>0</v>
       </c>
@@ -25539,7 +25646,7 @@
         <f>'Fuel aggregation subsectors'!C19</f>
         <v>Construction</v>
       </c>
-      <c r="D90" s="540">
+      <c r="D90" s="539">
         <f>'Non-energetic FD subsectors'!M24</f>
         <v>0</v>
       </c>
@@ -25554,7 +25661,7 @@
         <f>'Fuel aggregation subsectors'!C20</f>
         <v>Textile and leather</v>
       </c>
-      <c r="D91" s="540">
+      <c r="D91" s="539">
         <f>'Non-energetic FD subsectors'!M25</f>
         <v>0</v>
       </c>
@@ -25569,7 +25676,7 @@
         <f>'Fuel aggregation subsectors'!C21</f>
         <v>Non-specified (industry)</v>
       </c>
-      <c r="D92" s="540">
+      <c r="D92" s="539">
         <f>'Non-energetic FD subsectors'!M26</f>
         <v>0</v>
       </c>
@@ -25581,7 +25688,7 @@
     <row r="93" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B93" s="328"/>
       <c r="C93" s="112"/>
-      <c r="D93" s="543"/>
+      <c r="D93" s="542"/>
       <c r="E93" s="113"/>
     </row>
   </sheetData>
@@ -25621,7 +25728,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -25633,17 +25740,17 @@
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="597" t="s">
-        <v>630</v>
-      </c>
-      <c r="C5" s="598"/>
-      <c r="D5" s="598"/>
-      <c r="E5" s="599"/>
+      <c r="B5" s="604" t="s">
+        <v>627</v>
+      </c>
+      <c r="C5" s="605"/>
+      <c r="D5" s="605"/>
+      <c r="E5" s="606"/>
     </row>
     <row r="6" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="325" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C7" s="108"/>
       <c r="D7" s="384"/>
@@ -25661,15 +25768,15 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="386" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E9" s="329" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="326" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C10" s="109"/>
       <c r="D10" s="383"/>
@@ -25677,25 +25784,25 @@
     </row>
     <row r="11" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="327"/>
-      <c r="C11" s="577" t="s">
+      <c r="C11" s="576" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="578">
+      <c r="D11" s="577">
         <f>'Energetic FD subsectors'!L21</f>
         <v>0</v>
       </c>
-      <c r="E11" s="579" t="e">
+      <c r="E11" s="578" t="e">
         <f>SUM(E12:E13)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G11" s="515"/>
+      <c r="G11" s="514"/>
     </row>
     <row r="12" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="327"/>
       <c r="C12" s="111" t="s">
-        <v>628</v>
-      </c>
-      <c r="D12" s="540" t="str">
+        <v>625</v>
+      </c>
+      <c r="D12" s="539" t="str">
         <f>Dashboard!E63</f>
         <v/>
       </c>
@@ -25707,9 +25814,9 @@
     <row r="13" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="327"/>
       <c r="C13" s="111" t="s">
-        <v>629</v>
-      </c>
-      <c r="D13" s="540" t="e">
+        <v>626</v>
+      </c>
+      <c r="D13" s="539" t="e">
         <f>D11-D12</f>
         <v>#VALUE!</v>
       </c>
@@ -25721,44 +25828,44 @@
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="327"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="541"/>
+      <c r="D14" s="540"/>
       <c r="E14" s="331"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="33"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="541"/>
+      <c r="D15" s="540"/>
       <c r="E15" s="290"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="326" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C16" s="109"/>
-      <c r="D16" s="542"/>
+      <c r="D16" s="541"/>
       <c r="E16" s="291"/>
     </row>
     <row r="17" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="327"/>
-      <c r="C17" s="577" t="s">
+      <c r="C17" s="576" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="578">
+      <c r="D17" s="577">
         <f>'Energetic FD subsectors'!L22</f>
         <v>0</v>
       </c>
-      <c r="E17" s="579" t="e">
+      <c r="E17" s="578" t="e">
         <f>SUM(E18:E19)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="515"/>
+      <c r="G17" s="514"/>
     </row>
     <row r="18" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="327"/>
       <c r="C18" s="111" t="s">
-        <v>628</v>
-      </c>
-      <c r="D18" s="540" t="str">
+        <v>625</v>
+      </c>
+      <c r="D18" s="539" t="str">
         <f>Dashboard!E65</f>
         <v/>
       </c>
@@ -25770,9 +25877,9 @@
     <row r="19" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="327"/>
       <c r="C19" s="111" t="s">
-        <v>629</v>
-      </c>
-      <c r="D19" s="540" t="e">
+        <v>626</v>
+      </c>
+      <c r="D19" s="539" t="e">
         <f>D17-D18</f>
         <v>#VALUE!</v>
       </c>
@@ -25784,13 +25891,13 @@
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="327"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="541"/>
+      <c r="D20" s="540"/>
       <c r="E20" s="292"/>
     </row>
     <row r="21" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="328"/>
       <c r="C21" s="112"/>
-      <c r="D21" s="543"/>
+      <c r="D21" s="542"/>
       <c r="E21" s="113"/>
     </row>
   </sheetData>
@@ -25814,7 +25921,9 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -25845,7 +25954,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares energetic FD sectors'!E12</f>
@@ -25873,22 +25982,22 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <sheetPr codeName="Sheet24">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF08E574-DB44-3D4D-9CEA-91865F3F2F5A}">
+  <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -25901,7 +26010,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>681</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares energetic FD sectors'!E16</f>
@@ -25909,31 +26018,16 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>425</v>
+      <c r="A4" s="122" t="s">
+        <v>682</v>
       </c>
       <c r="B4" s="448">
-        <f>'Shares energetic FD sectors'!E17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="122" t="s">
-        <v>292</v>
-      </c>
-      <c r="B5" s="448">
         <f>'Shares energetic FD sectors'!E18</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -25998,7 +26092,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="73" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -26027,26 +26121,26 @@
     </row>
     <row r="12" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="116" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C12" s="456" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="116" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C13" s="73" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="116" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -26054,28 +26148,28 @@
         <v>212</v>
       </c>
       <c r="C15" s="125" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="119" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C16" s="73" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="119" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C17" s="73" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="118" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C18" s="73" t="s">
         <v>315</v>
@@ -26083,7 +26177,7 @@
     </row>
     <row r="19" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="118" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C19" s="73" t="s">
         <v>316</v>
@@ -26094,7 +26188,7 @@
         <v>224</v>
       </c>
       <c r="C20" s="73" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -26102,7 +26196,7 @@
         <v>225</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -26110,7 +26204,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="456" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="31" customHeight="1" x14ac:dyDescent="0.2">
@@ -26118,180 +26212,180 @@
         <v>229</v>
       </c>
       <c r="C23" s="456" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="117" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C24" s="73" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="117" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C25" s="125" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="117" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C26" s="125" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="118" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C27" s="73" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="118" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C28" s="73" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="119" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="119" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="119" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="120" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="120" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C33" s="126" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="120" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C34" s="126" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="120" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C35" s="73" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="120" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C36" s="126" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="120" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C37" s="126" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="120" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C38" s="73" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="120" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C39" s="73" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="120" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C40" s="73" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="120" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C41" s="73" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="120" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C42" s="73" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="120" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C43" s="73" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="120" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C44" s="126" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="120" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C45" s="73" t="s">
         <v>304</v>
@@ -26299,7 +26393,7 @@
     </row>
     <row r="46" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="120" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C46" s="73" t="s">
         <v>305</v>
@@ -26307,7 +26401,7 @@
     </row>
     <row r="47" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="120" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C47" s="126" t="s">
         <v>306</v>
@@ -26315,7 +26409,7 @@
     </row>
     <row r="48" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="120" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C48" s="126" t="s">
         <v>302</v>
@@ -26323,7 +26417,7 @@
     </row>
     <row r="49" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="120" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C49" s="126" t="s">
         <v>307</v>
@@ -26331,7 +26425,7 @@
     </row>
     <row r="50" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="120" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C50" s="73" t="s">
         <v>303</v>
@@ -26339,50 +26433,50 @@
     </row>
     <row r="51" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="120" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C51" s="73" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="120" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C52" s="73" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="120" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C53" s="73" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="120" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C54" s="73" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="120" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C55" s="73" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="120" t="s">
+        <v>635</v>
+      </c>
+      <c r="C56" s="73" t="s">
         <v>638</v>
-      </c>
-      <c r="C56" s="73" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="28" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26399,8 +26493,8 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <sheetPr codeName="Sheet25">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <sheetPr codeName="Sheet24">
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
@@ -26413,42 +26507,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="122"/>
+      <c r="A1" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="122" t="s">
+      <c r="A2" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="122" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="449">
+      <c r="A3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="448">
         <f>'Shares energetic FD sectors'!E21</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="122" t="s">
-        <v>426</v>
-      </c>
-      <c r="B4" s="449">
+      <c r="A4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="448">
         <f>'Shares energetic FD sectors'!E22</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="122" t="s">
-        <v>295</v>
-      </c>
-      <c r="B5" s="449">
+        <v>292</v>
+      </c>
+      <c r="B5" s="448">
         <f>'Shares energetic FD sectors'!E23</f>
         <v>1</v>
       </c>
@@ -26465,6 +26558,74 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+  <sheetPr codeName="Sheet25">
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="122"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="122" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="122" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="449">
+        <f>'Shares energetic FD sectors'!E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="122" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="449">
+        <f>'Shares energetic FD sectors'!E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="122" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="449">
+        <f>1-B4-B3</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet26">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -26497,16 +26658,16 @@
         <v>301</v>
       </c>
       <c r="B3" s="449">
-        <f>'Shares energetic FD sectors'!E26</f>
+        <f>'Shares energetic FD sectors'!E31</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="122" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B4" s="449">
-        <f>'Shares energetic FD sectors'!E27</f>
+        <f>'Shares energetic FD sectors'!E32</f>
         <v>0</v>
       </c>
     </row>
@@ -26515,7 +26676,7 @@
         <v>299</v>
       </c>
       <c r="B5" s="449">
-        <f>'Shares energetic FD sectors'!E28</f>
+        <f>'Shares energetic FD sectors'!E33</f>
         <v>1</v>
       </c>
     </row>
@@ -26530,7 +26691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Sheet27">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -26563,16 +26724,16 @@
         <v>297</v>
       </c>
       <c r="B3" s="449">
-        <f>'Shares energetic FD sectors'!E31</f>
+        <f>'Shares energetic FD sectors'!E36</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="122" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B4" s="449">
-        <f>'Shares energetic FD sectors'!E32</f>
+        <f>'Shares energetic FD sectors'!E37</f>
         <v>0</v>
       </c>
     </row>
@@ -26581,7 +26742,7 @@
         <v>298</v>
       </c>
       <c r="B5" s="449">
-        <f>'Shares energetic FD sectors'!E33</f>
+        <f>'Shares energetic FD sectors'!E38</f>
         <v>1</v>
       </c>
     </row>
@@ -26596,7 +26757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Sheet28">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -26628,16 +26789,16 @@
         <v>285</v>
       </c>
       <c r="B3" s="448">
-        <f>'Shares energetic FD sectors'!E36</f>
+        <f>'Shares energetic FD sectors'!E41</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B4" s="448">
-        <f>'Shares energetic FD sectors'!E37</f>
+        <f>'Shares energetic FD sectors'!E42</f>
         <v>0</v>
       </c>
     </row>
@@ -26646,7 +26807,7 @@
         <v>286</v>
       </c>
       <c r="B5" s="448">
-        <f>'Shares energetic FD sectors'!E38</f>
+        <f>'Shares energetic FD sectors'!E43</f>
         <v>1</v>
       </c>
     </row>
@@ -26661,7 +26822,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Sheet29">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -26674,7 +26835,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -26687,7 +26848,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares non-energ FD sectors'!E11</f>
@@ -26696,7 +26857,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="122" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares non-energ FD sectors'!E12</f>
@@ -26714,7 +26875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Sheet30">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -26727,7 +26888,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -26740,7 +26901,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares non-energ FD sectors'!E15</f>
@@ -26749,7 +26910,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="122" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares non-energ FD sectors'!E16</f>
@@ -26766,7 +26927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Sheet31">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -26779,7 +26940,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -26792,7 +26953,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares non-energ FD sectors'!E19</f>
@@ -26801,7 +26962,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="122" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares non-energ FD sectors'!E20</f>
@@ -26818,7 +26979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Sheet32">
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -26831,7 +26992,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -26844,7 +27005,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares non-energ FD sectors'!E23</f>
@@ -26853,7 +27014,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="122" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares non-energ FD sectors'!E24</f>
@@ -26862,62 +27023,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
-  <sheetPr codeName="Sheet34">
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="44.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B3" s="448">
-        <f>'Coal own use analysis'!D19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" s="448">
-        <f>'Coal own use analysis'!D20</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -26944,7 +27049,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -26957,7 +27062,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares energetic FD subsectors'!E15</f>
@@ -26966,7 +27071,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares energetic FD subsectors'!E16</f>
@@ -26975,7 +27080,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B5" s="448">
         <f>MAX(0,1-SUM(B3:B4))</f>
@@ -27024,7 +27129,7 @@
     </row>
     <row r="6" spans="2:2" ht="85" x14ac:dyDescent="0.2">
       <c r="B6" s="129" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
@@ -27043,17 +27148,17 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="303" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="303" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" s="303" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
@@ -27063,17 +27168,17 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" s="134" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="134" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="303" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
@@ -27127,7 +27232,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27140,7 +27245,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares energetic FD subsectors'!E27</f>
@@ -27149,7 +27254,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares energetic FD subsectors'!E28</f>
@@ -27158,7 +27263,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B5" s="448">
         <f>MAX(0,1-SUM(B3:B4))</f>
@@ -27194,7 +27299,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27207,7 +27312,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares energetic FD subsectors'!E39</f>
@@ -27216,7 +27321,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares energetic FD subsectors'!E40</f>
@@ -27225,7 +27330,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B5" s="448">
         <f>MAX(0,1-SUM(B3:B4))</f>
@@ -27261,7 +27366,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27274,7 +27379,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares energetic FD subsectors'!E51</f>
@@ -27283,7 +27388,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares energetic FD subsectors'!E52</f>
@@ -27292,7 +27397,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B5" s="448">
         <f>MAX(0,1-SUM(B3:B4))</f>
@@ -27328,7 +27433,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27341,7 +27446,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares energetic FD subsectors'!E63</f>
@@ -27350,7 +27455,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares energetic FD subsectors'!E64</f>
@@ -27359,7 +27464,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B5" s="448">
         <f>MAX(0,1-SUM(B3:B4))</f>
@@ -27395,7 +27500,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27408,7 +27513,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares energetic FD subsectors'!E75</f>
@@ -27417,7 +27522,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares energetic FD subsectors'!E76</f>
@@ -27426,7 +27531,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B5" s="448">
         <f>MAX(0,1-SUM(B3:B4))</f>
@@ -27462,7 +27567,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27475,7 +27580,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares non-e FD subsectors'!E15</f>
@@ -27484,7 +27589,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares non-e FD subsectors'!E16</f>
@@ -27493,7 +27598,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B5" s="448">
         <f>MAX(0,1-SUM(B3:B4))</f>
@@ -27529,7 +27634,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27542,7 +27647,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares non-e FD subsectors'!E27</f>
@@ -27551,7 +27656,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares non-e FD subsectors'!E28</f>
@@ -27560,7 +27665,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B5" s="448">
         <f>MAX(0,1-SUM(B3:B4))</f>
@@ -27596,7 +27701,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27609,7 +27714,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares non-e FD subsectors'!E39</f>
@@ -27618,7 +27723,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares non-e FD subsectors'!E40</f>
@@ -27627,7 +27732,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B5" s="448">
         <f>MAX(0,1-SUM(B3:B4))</f>
@@ -27663,7 +27768,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27676,7 +27781,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B3" s="448">
         <f>'Shares non-e FD subsectors'!E51</f>
@@ -27685,7 +27790,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B4" s="448">
         <f>'Shares non-e FD subsectors'!E52</f>
@@ -27694,7 +27799,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B5" s="448">
         <f>MAX(0,1-SUM(B3:B4))</f>
@@ -27727,7 +27832,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -27740,7 +27845,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B3" s="448" t="e">
         <f>'Shares electric heaters'!E12</f>
@@ -27749,7 +27854,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B4" s="448" t="e">
         <f>'Shares electric heaters'!E13</f>
@@ -27810,7 +27915,7 @@
   <sheetData>
     <row r="2" spans="2:80" ht="31" x14ac:dyDescent="0.2">
       <c r="B2" s="53" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
@@ -28288,7 +28393,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -28301,7 +28406,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B3" s="448" t="e">
         <f>'Shares electric heaters'!E18</f>
@@ -28310,7 +28415,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B4" s="448" t="e">
         <f>'Shares electric heaters'!E19</f>
@@ -28370,7 +28475,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -28383,7 +28488,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B3" s="448">
         <f>Dashboard!E85</f>
@@ -28392,7 +28497,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B4" s="448">
         <f>Dashboard!E86</f>
@@ -28401,7 +28506,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B5" s="448">
         <f>Dashboard!E87</f>
@@ -28431,7 +28536,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -28444,7 +28549,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B3" s="448">
         <f>Dashboard!E90</f>
@@ -28453,7 +28558,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B4" s="448">
         <f>Dashboard!E91</f>
@@ -28462,7 +28567,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B5" s="448">
         <f>Dashboard!E92</f>
@@ -28490,7 +28595,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -28503,7 +28608,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B3" s="448">
         <f>Dashboard!E95</f>
@@ -28512,7 +28617,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B4" s="448">
         <f>Dashboard!E96</f>
@@ -28521,7 +28626,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B5" s="448">
         <f>Dashboard!E97</f>
@@ -28551,7 +28656,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -28564,7 +28669,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B3" s="448">
         <f>Dashboard!E100</f>
@@ -28573,7 +28678,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B4" s="448">
         <f>Dashboard!E101</f>
@@ -28616,10 +28721,10 @@
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="79" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="586" t="s">
+      <c r="B5" s="593" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="587"/>
+      <c r="C5" s="594"/>
     </row>
     <row r="6" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
@@ -28678,13 +28783,13 @@
     <row r="14" spans="2:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="C14" s="138" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D14" s="165"/>
     </row>
     <row r="15" spans="2:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="140"/>
-      <c r="C15" s="514"/>
+      <c r="C15" s="513"/>
       <c r="D15" s="166"/>
     </row>
     <row r="16" spans="2:4" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -28807,7 +28912,7 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
       <c r="C36" s="63" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
@@ -28837,7 +28942,7 @@
         <v>204</v>
       </c>
       <c r="C41" s="161" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -29251,9 +29356,7 @@
   </sheetPr>
   <dimension ref="B2:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29281,7 +29384,7 @@
       </c>
       <c r="E2" s="455"/>
       <c r="I2" s="454" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -29292,12 +29395,12 @@
     </row>
     <row r="3" spans="2:16" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="I3" s="511" t="str">
+      <c r="I3" s="510" t="str">
         <f>IF(L14=FALSE,"You have not imported any Metal industry analysis data! Proceed anyway?", "")</f>
         <v>You have not imported any Metal industry analysis data! Proceed anyway?</v>
       </c>
       <c r="J3" s="8"/>
-      <c r="K3" s="501"/>
+      <c r="K3" s="500"/>
       <c r="L3" s="8"/>
       <c r="M3" s="7"/>
       <c r="N3" s="8"/>
@@ -29309,52 +29412,52 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="221"/>
-      <c r="I4" s="511" t="str">
+      <c r="I4" s="510" t="str">
         <f>IF(L15=FALSE,"You have not imported any Chemical industry analysis data! Proceed anyway?", "")</f>
         <v>You have not imported any Chemical industry analysis data! Proceed anyway?</v>
       </c>
-      <c r="J4" s="504"/>
-      <c r="K4" s="504"/>
-      <c r="L4" s="504"/>
-      <c r="M4" s="505"/>
+      <c r="J4" s="503"/>
+      <c r="K4" s="503"/>
+      <c r="L4" s="503"/>
+      <c r="M4" s="504"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="588" t="s">
+      <c r="B5" s="595" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="589"/>
-      <c r="D5" s="590"/>
-      <c r="G5" s="506"/>
+      <c r="C5" s="596"/>
+      <c r="D5" s="597"/>
+      <c r="G5" s="505"/>
       <c r="I5" s="16"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="502"/>
+      <c r="K5" s="501"/>
       <c r="L5" s="8"/>
       <c r="M5" s="7"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="588"/>
-      <c r="C6" s="589"/>
-      <c r="D6" s="590"/>
-      <c r="G6" s="507"/>
+      <c r="B6" s="595"/>
+      <c r="C6" s="596"/>
+      <c r="D6" s="597"/>
+      <c r="G6" s="506"/>
       <c r="I6" s="16"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="502"/>
+      <c r="K6" s="501"/>
       <c r="L6" s="8"/>
       <c r="M6" s="7"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
     <row r="7" spans="2:16" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="586"/>
-      <c r="C7" s="591"/>
-      <c r="D7" s="587"/>
+      <c r="B7" s="593"/>
+      <c r="C7" s="598"/>
+      <c r="D7" s="594"/>
       <c r="I7" s="17"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="503"/>
+      <c r="K7" s="502"/>
       <c r="L7" s="10"/>
       <c r="M7" s="11"/>
       <c r="N7" s="8"/>
@@ -29399,26 +29502,26 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C11" s="468" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="512" t="s">
+      <c r="D11" s="511" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="512" t="s">
+      <c r="E11" s="511" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="512"/>
-      <c r="G11" s="512" t="s">
-        <v>402</v>
-      </c>
-      <c r="H11" s="512"/>
-      <c r="I11" s="512" t="s">
-        <v>410</v>
-      </c>
-      <c r="J11" s="512"/>
+      <c r="F11" s="511"/>
+      <c r="G11" s="511" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11" s="511"/>
+      <c r="I11" s="511" t="s">
+        <v>407</v>
+      </c>
+      <c r="J11" s="511"/>
       <c r="K11" s="469" t="s">
         <v>87</v>
       </c>
@@ -29429,10 +29532,10 @@
         <v>83</v>
       </c>
       <c r="O11" s="316" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P11" s="317" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
@@ -29452,7 +29555,7 @@
         <f>IF(COUNTIF(P:P,0)+COUNTIF(P:P,FALSE)=0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="508" t="str">
+      <c r="M12" s="507" t="str">
         <f>IF(L12=TRUE," ","Please address all critical checks (red) before continuing")</f>
         <v>Please address all critical checks (red) before continuing</v>
       </c>
@@ -29465,10 +29568,12 @@
         <v>215</v>
       </c>
       <c r="D13" s="304"/>
-      <c r="E13" s="482"/>
+      <c r="E13" s="482" t="s">
+        <v>683</v>
+      </c>
       <c r="F13" s="311"/>
       <c r="G13" s="450" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H13" s="311"/>
       <c r="I13" s="14"/>
@@ -29477,37 +29582,39 @@
       <c r="L13" s="213"/>
       <c r="M13" s="214"/>
       <c r="O13" s="314" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P13" s="315"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="46"/>
       <c r="C14" s="304" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D14" s="304"/>
-      <c r="E14" s="482"/>
+      <c r="E14" s="482">
+        <v>2011</v>
+      </c>
       <c r="F14" s="311"/>
       <c r="G14" s="450" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H14" s="311"/>
       <c r="I14" s="14"/>
       <c r="J14" s="15"/>
       <c r="K14" s="8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L14" s="483" t="b">
         <f>IF(COUNTBLANK('Import from Metal analysis'!C9:K10)=0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="508" t="str">
+      <c r="M14" s="507" t="str">
         <f>IF(L14=TRUE," ","Click the button 'Import data from Metal industry analysis")</f>
         <v>Click the button 'Import data from Metal industry analysis</v>
       </c>
       <c r="O14" s="314" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7"/>
     </row>
@@ -29522,13 +29629,13 @@
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
       <c r="K15" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="L15" s="510" t="b">
+        <v>463</v>
+      </c>
+      <c r="L15" s="509" t="b">
         <f>IF(COUNTBLANK('Import from Chemical analysis'!C9:K9)=0,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="508" t="str">
+      <c r="M15" s="507" t="str">
         <f>IF(L15=TRUE," ","Click the button 'Import data from Chemical industry analysis")</f>
         <v>Click the button 'Import data from Chemical industry analysis</v>
       </c>
@@ -29548,20 +29655,20 @@
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
       <c r="K16" s="286" t="s">
-        <v>380</v>
-      </c>
-      <c r="L16" s="509" t="b">
+        <v>377</v>
+      </c>
+      <c r="L16" s="508" t="b">
         <f>IF(COUNTBLANK(C13:C14)-COUNTBLANK(E13:E14)=0,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="508" t="str">
+        <v>1</v>
+      </c>
+      <c r="M16" s="507" t="str">
         <f>IF(L16=TRUE," ","Please fill in all assumptions")</f>
-        <v>Please fill in all assumptions</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="O16" s="314"/>
       <c r="P16" s="7">
         <f>IF(L16=TRUE,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -29677,7 +29784,7 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24" s="280" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C24" s="277"/>
       <c r="D24" s="274" t="s">
@@ -30500,7 +30607,7 @@
       <c r="P53" s="315"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="561"/>
+      <c r="B54" s="560"/>
       <c r="C54" s="8"/>
       <c r="D54" s="268"/>
       <c r="E54" s="337"/>
@@ -30516,7 +30623,7 @@
       <c r="P54" s="315"/>
     </row>
     <row r="55" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="561"/>
+      <c r="B55" s="560"/>
       <c r="C55" s="8"/>
       <c r="D55" s="268"/>
       <c r="E55" s="337"/>
@@ -30533,26 +30640,26 @@
     </row>
     <row r="56" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="304" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="268"/>
-      <c r="E56" s="576"/>
+      <c r="E56" s="575"/>
       <c r="F56" s="220"/>
       <c r="G56" s="220"/>
       <c r="H56" s="220"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="L56" s="580" t="b">
+        <v>640</v>
+      </c>
+      <c r="L56" s="579" t="b">
         <f>IF(OR(E56="yes",E56="no"),TRUE,FALSE)</f>
         <v>0</v>
       </c>
       <c r="M56" s="8"/>
       <c r="O56" s="314" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="P56" s="7">
         <f>IF(L56=TRUE,1,0)</f>
@@ -30576,26 +30683,26 @@
       <c r="P57" s="315"/>
     </row>
     <row r="58" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="569" t="s">
-        <v>624</v>
-      </c>
-      <c r="C58" s="570"/>
-      <c r="D58" s="571"/>
-      <c r="E58" s="572"/>
-      <c r="F58" s="573"/>
-      <c r="G58" s="573"/>
-      <c r="H58" s="573"/>
-      <c r="I58" s="570"/>
-      <c r="J58" s="570"/>
-      <c r="K58" s="570"/>
-      <c r="L58" s="574"/>
-      <c r="M58" s="575"/>
+      <c r="B58" s="568" t="s">
+        <v>621</v>
+      </c>
+      <c r="C58" s="569"/>
+      <c r="D58" s="570"/>
+      <c r="E58" s="571"/>
+      <c r="F58" s="572"/>
+      <c r="G58" s="572"/>
+      <c r="H58" s="572"/>
+      <c r="I58" s="569"/>
+      <c r="J58" s="569"/>
+      <c r="K58" s="569"/>
+      <c r="L58" s="573"/>
+      <c r="M58" s="574"/>
       <c r="O58" s="314"/>
       <c r="P58" s="315"/>
     </row>
     <row r="59" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B59" s="280" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C59" s="277"/>
       <c r="D59" s="274" t="s">
@@ -30622,24 +30729,24 @@
       <c r="P59" s="315"/>
     </row>
     <row r="60" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="565"/>
-      <c r="C60" s="562"/>
+      <c r="B60" s="564"/>
+      <c r="C60" s="561"/>
       <c r="D60" s="13"/>
-      <c r="E60" s="563"/>
-      <c r="F60" s="564"/>
-      <c r="G60" s="564"/>
-      <c r="H60" s="564"/>
+      <c r="E60" s="562"/>
+      <c r="F60" s="563"/>
+      <c r="G60" s="563"/>
+      <c r="H60" s="563"/>
       <c r="I60" s="13"/>
       <c r="J60" s="5"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="568"/>
-      <c r="M60" s="566"/>
+      <c r="L60" s="567"/>
+      <c r="M60" s="565"/>
       <c r="O60" s="314"/>
       <c r="P60" s="315"/>
     </row>
     <row r="61" spans="2:16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B61" s="33" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="268"/>
@@ -30658,7 +30765,7 @@
     <row r="62" spans="2:16" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="27"/>
       <c r="C62" s="8" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D62" s="268" t="s">
         <v>242</v>
@@ -30681,12 +30788,12 @@
     <row r="63" spans="2:16" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="27"/>
       <c r="C63" s="8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D63" s="268" t="s">
         <v>242</v>
       </c>
-      <c r="E63" s="560" t="str">
+      <c r="E63" s="559" t="str">
         <f>IF(E56="no",0,"")</f>
         <v/>
       </c>
@@ -30696,7 +30803,7 @@
       <c r="I63" s="8"/>
       <c r="J63" s="7"/>
       <c r="K63" s="16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L63" s="481" t="b">
         <f>IF(AND(E63&gt;=0,E63&lt;=E62),TRUE,FALSE)</f>
@@ -30704,7 +30811,7 @@
       </c>
       <c r="M63" s="28"/>
       <c r="O63" s="314" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="P63" s="7">
         <f>IF(L63=TRUE,1,0)</f>
@@ -30714,7 +30821,7 @@
     <row r="64" spans="2:16" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="27"/>
       <c r="C64" s="8" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D64" s="268" t="s">
         <v>242</v>
@@ -30737,12 +30844,12 @@
     <row r="65" spans="2:16" ht="17" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="27"/>
       <c r="C65" s="8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D65" s="268" t="s">
         <v>242</v>
       </c>
-      <c r="E65" s="560" t="str">
+      <c r="E65" s="559" t="str">
         <f>IF(E56="no",0,"")</f>
         <v/>
       </c>
@@ -30752,7 +30859,7 @@
       <c r="I65" s="8"/>
       <c r="J65" s="7"/>
       <c r="K65" s="16" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="L65" s="481" t="b">
         <f>IF(AND(E65&gt;=0,E65&lt;=E64),TRUE,FALSE)</f>
@@ -30760,7 +30867,7 @@
       </c>
       <c r="M65" s="28"/>
       <c r="O65" s="314" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="P65" s="7">
         <f>IF(L65=TRUE,1,0)</f>
@@ -30777,7 +30884,7 @@
       <c r="H66" s="223"/>
       <c r="I66" s="47"/>
       <c r="J66" s="112"/>
-      <c r="K66" s="567"/>
+      <c r="K66" s="566"/>
       <c r="L66" s="217"/>
       <c r="M66" s="48"/>
       <c r="O66" s="314"/>
@@ -30864,7 +30971,7 @@
     </row>
     <row r="72" spans="2:16" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="281" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C72" s="282"/>
       <c r="D72" s="283" t="s">
@@ -30908,25 +31015,25 @@
     </row>
     <row r="74" spans="2:16" ht="17" x14ac:dyDescent="0.2">
       <c r="B74" s="27"/>
-      <c r="C74" s="517" t="s">
+      <c r="C74" s="516" t="s">
         <v>338</v>
       </c>
-      <c r="D74" s="518" t="s">
+      <c r="D74" s="517" t="s">
         <v>242</v>
       </c>
-      <c r="E74" s="519">
+      <c r="E74" s="518">
         <f>'Own use analysis'!L14</f>
         <v>0</v>
       </c>
-      <c r="F74" s="520"/>
-      <c r="G74" s="520"/>
-      <c r="H74" s="520"/>
-      <c r="I74" s="521"/>
-      <c r="J74" s="521"/>
-      <c r="K74" s="522" t="s">
-        <v>497</v>
-      </c>
-      <c r="L74" s="516" t="e">
+      <c r="F74" s="519"/>
+      <c r="G74" s="519"/>
+      <c r="H74" s="519"/>
+      <c r="I74" s="520"/>
+      <c r="J74" s="520"/>
+      <c r="K74" s="521" t="s">
+        <v>494</v>
+      </c>
+      <c r="L74" s="515" t="e">
         <f>'Own use analysis'!L14/SUM('Own use analysis'!D14:L14)</f>
         <v>#DIV/0!</v>
       </c>
@@ -30936,25 +31043,25 @@
     </row>
     <row r="75" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B75" s="27"/>
-      <c r="C75" s="517" t="s">
+      <c r="C75" s="516" t="s">
         <v>339</v>
       </c>
-      <c r="D75" s="518" t="s">
+      <c r="D75" s="517" t="s">
         <v>242</v>
       </c>
-      <c r="E75" s="519">
+      <c r="E75" s="518">
         <f>'Energetic cons analysis'!L25</f>
         <v>0</v>
       </c>
-      <c r="F75" s="520"/>
-      <c r="G75" s="520"/>
-      <c r="H75" s="520"/>
-      <c r="I75" s="521"/>
-      <c r="J75" s="521"/>
-      <c r="K75" s="522" t="s">
-        <v>498</v>
-      </c>
-      <c r="L75" s="516" t="e">
+      <c r="F75" s="519"/>
+      <c r="G75" s="519"/>
+      <c r="H75" s="519"/>
+      <c r="I75" s="520"/>
+      <c r="J75" s="520"/>
+      <c r="K75" s="521" t="s">
+        <v>495</v>
+      </c>
+      <c r="L75" s="515" t="e">
         <f>'Energetic cons analysis'!L25/SUM('Energetic cons analysis'!D25:L25)</f>
         <v>#DIV/0!</v>
       </c>
@@ -30964,25 +31071,25 @@
     </row>
     <row r="76" spans="2:16" ht="34" x14ac:dyDescent="0.2">
       <c r="B76" s="27"/>
-      <c r="C76" s="517" t="s">
+      <c r="C76" s="516" t="s">
         <v>340</v>
       </c>
-      <c r="D76" s="518" t="s">
+      <c r="D76" s="517" t="s">
         <v>242</v>
       </c>
-      <c r="E76" s="519">
+      <c r="E76" s="518">
         <f>'Non-energetic cons analysis'!L19</f>
         <v>0</v>
       </c>
-      <c r="F76" s="520"/>
-      <c r="G76" s="520"/>
-      <c r="H76" s="520"/>
-      <c r="I76" s="521"/>
-      <c r="J76" s="521"/>
-      <c r="K76" s="522" t="s">
-        <v>499</v>
-      </c>
-      <c r="L76" s="516" t="e">
+      <c r="F76" s="519"/>
+      <c r="G76" s="519"/>
+      <c r="H76" s="519"/>
+      <c r="I76" s="520"/>
+      <c r="J76" s="520"/>
+      <c r="K76" s="521" t="s">
+        <v>496</v>
+      </c>
+      <c r="L76" s="515" t="e">
         <f>'Non-energetic cons analysis'!L19/SUM('Non-energetic cons analysis'!D19:L19)</f>
         <v>#DIV/0!</v>
       </c>
@@ -31009,7 +31116,7 @@
     <row r="79" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="80" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="250" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C80" s="246"/>
       <c r="D80" s="248"/>
@@ -31022,11 +31129,11 @@
       <c r="K80" s="246"/>
       <c r="L80" s="246"/>
       <c r="M80" s="249"/>
-      <c r="O80" s="582"/>
+      <c r="O80" s="581"/>
       <c r="P80" s="5"/>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B81" s="581"/>
+      <c r="B81" s="580"/>
       <c r="C81" s="43"/>
       <c r="D81" s="92"/>
       <c r="E81" s="43"/>
@@ -31044,7 +31151,7 @@
     <row r="82" spans="2:16" ht="85" x14ac:dyDescent="0.2">
       <c r="B82" s="27"/>
       <c r="C82" s="240" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D82" s="94"/>
       <c r="E82" s="8"/>
@@ -31061,7 +31168,7 @@
     </row>
     <row r="83" spans="2:16" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="281" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C83" s="282"/>
       <c r="D83" s="283" t="s">
@@ -31089,7 +31196,7 @@
     </row>
     <row r="84" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="33" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="94"/>
@@ -31108,12 +31215,12 @@
     <row r="85" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" s="27"/>
       <c r="C85" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="D85" s="94" t="s">
         <v>647</v>
       </c>
-      <c r="D85" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="E85" s="583"/>
+      <c r="E85" s="582"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
@@ -31123,19 +31230,19 @@
       <c r="L85" s="8"/>
       <c r="M85" s="28"/>
       <c r="O85" s="314" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="P85" s="7"/>
     </row>
     <row r="86" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="27"/>
       <c r="C86" s="8" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D86" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="E86" s="584"/>
+        <v>647</v>
+      </c>
+      <c r="E86" s="583"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
@@ -31145,19 +31252,19 @@
       <c r="L86" s="8"/>
       <c r="M86" s="28"/>
       <c r="O86" s="314" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="P86" s="7"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87" s="27"/>
       <c r="C87" s="8" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D87" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" s="585">
+        <v>647</v>
+      </c>
+      <c r="E87" s="584">
         <f>1-E85-E86</f>
         <v>1</v>
       </c>
@@ -31190,7 +31297,7 @@
     </row>
     <row r="89" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B89" s="33" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="94"/>
@@ -31209,12 +31316,12 @@
     <row r="90" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="27"/>
       <c r="C90" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="D90" s="94" t="s">
         <v>647</v>
       </c>
-      <c r="D90" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="E90" s="583"/>
+      <c r="E90" s="582"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
@@ -31224,19 +31331,19 @@
       <c r="L90" s="8"/>
       <c r="M90" s="28"/>
       <c r="O90" s="314" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="P90" s="7"/>
     </row>
     <row r="91" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="27"/>
       <c r="C91" s="8" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D91" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="E91" s="584"/>
+        <v>647</v>
+      </c>
+      <c r="E91" s="583"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -31246,19 +31353,19 @@
       <c r="L91" s="8"/>
       <c r="M91" s="28"/>
       <c r="O91" s="314" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="P91" s="7"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B92" s="27"/>
       <c r="C92" s="8" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D92" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="E92" s="585">
+        <v>647</v>
+      </c>
+      <c r="E92" s="584">
         <f>1-E90-E91</f>
         <v>1</v>
       </c>
@@ -31291,7 +31398,7 @@
     </row>
     <row r="94" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="33" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C94" s="8"/>
       <c r="D94" s="94"/>
@@ -31310,12 +31417,12 @@
     <row r="95" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B95" s="27"/>
       <c r="C95" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="D95" s="94" t="s">
         <v>647</v>
       </c>
-      <c r="D95" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="E95" s="583"/>
+      <c r="E95" s="582"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
@@ -31325,19 +31432,19 @@
       <c r="L95" s="8"/>
       <c r="M95" s="28"/>
       <c r="O95" s="314" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="P95" s="7"/>
     </row>
     <row r="96" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B96" s="27"/>
       <c r="C96" s="8" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D96" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="E96" s="584"/>
+        <v>647</v>
+      </c>
+      <c r="E96" s="583"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
@@ -31347,19 +31454,19 @@
       <c r="L96" s="8"/>
       <c r="M96" s="28"/>
       <c r="O96" s="314" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="P96" s="7"/>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B97" s="27"/>
       <c r="C97" s="8" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D97" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="E97" s="585">
+        <v>647</v>
+      </c>
+      <c r="E97" s="584">
         <f>1-E95-E96</f>
         <v>1</v>
       </c>
@@ -31392,7 +31499,7 @@
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B99" s="33" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C99" s="8"/>
       <c r="D99" s="94"/>
@@ -31411,12 +31518,12 @@
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="27"/>
       <c r="C100" s="8" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D100" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="E100" s="584"/>
+        <v>647</v>
+      </c>
+      <c r="E100" s="583"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -31426,19 +31533,19 @@
       <c r="L100" s="8"/>
       <c r="M100" s="28"/>
       <c r="O100" s="314" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="P100" s="7"/>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B101" s="27"/>
       <c r="C101" s="8" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D101" s="94" t="s">
-        <v>650</v>
-      </c>
-      <c r="E101" s="585">
+        <v>647</v>
+      </c>
+      <c r="E101" s="584">
         <f>1-E100</f>
         <v>1</v>
       </c>
@@ -31556,7 +31663,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="16391" r:id="rId3" name="import_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!import_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
@@ -31578,7 +31685,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="16392" r:id="rId4" name="import_metal">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!import_metal_analysis_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
@@ -31600,7 +31707,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="16393" r:id="rId5" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!export_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
@@ -31622,7 +31729,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="16397" r:id="rId6" name="select_dashboard">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!select_dashboard_values">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
@@ -31644,7 +31751,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="16399" r:id="rId7" name="import_chemical">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!import_chemical_analysis_data_button">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>10</xdr:col>
@@ -31698,7 +31805,7 @@
   <sheetData>
     <row r="2" spans="2:67" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -31711,7 +31818,7 @@
     </row>
     <row r="5" spans="2:67" ht="34" x14ac:dyDescent="0.2">
       <c r="B5" s="149" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -38517,7 +38624,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38549,7 +38656,7 @@
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="75" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -38598,13 +38705,13 @@
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76"/>
-      <c r="B5" s="592" t="s">
-        <v>468</v>
-      </c>
-      <c r="C5" s="593"/>
-      <c r="D5" s="593"/>
-      <c r="E5" s="593"/>
-      <c r="F5" s="594"/>
+      <c r="B5" s="599" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="600"/>
+      <c r="D5" s="600"/>
+      <c r="E5" s="600"/>
+      <c r="F5" s="601"/>
       <c r="H5" s="76"/>
       <c r="I5" s="76"/>
       <c r="J5" s="76"/>

--- a/analyses/5_industry_analysis.xlsx
+++ b/analyses/5_industry_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C154E2-09EC-7545-B475-2B607D454B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF12EFD-FD3A-AC42-81E0-4A45490EBEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="50040" windowHeight="27460" tabRatio="835" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="686">
   <si>
     <t>Changelog</t>
   </si>
@@ -2405,6 +2405,12 @@
   </si>
   <si>
     <t>eu</t>
+  </si>
+  <si>
+    <t>Own use in coke ovens</t>
+  </si>
+  <si>
+    <t>Own use in blast furnaces</t>
   </si>
 </sst>
 </file>
@@ -14011,6 +14017,7 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="analysis_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="export_data_button"/>
@@ -14022,6 +14029,7 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15435,7 +15443,7 @@
         <v>231</v>
       </c>
       <c r="D11" s="387">
-        <f>'Energetic final demand sectors'!D18</f>
+        <f>'Energetic final demand sectors'!D20</f>
         <v>0</v>
       </c>
       <c r="E11" s="289">
@@ -15450,7 +15458,7 @@
         <v>419</v>
       </c>
       <c r="D12" s="387">
-        <f>'Energetic final demand sectors'!D21</f>
+        <f>'Energetic final demand sectors'!D23</f>
         <v>0</v>
       </c>
       <c r="E12" s="289">
@@ -15464,7 +15472,7 @@
         <v>82</v>
       </c>
       <c r="D13" s="387">
-        <f>'Energetic final demand sectors'!D26</f>
+        <f>'Energetic final demand sectors'!D28</f>
         <v>0</v>
       </c>
       <c r="E13" s="289">
@@ -15492,7 +15500,7 @@
         <v>231</v>
       </c>
       <c r="D16" s="335">
-        <f>'Energetic final demand sectors'!E24</f>
+        <f>'Energetic final demand sectors'!E26</f>
         <v>0</v>
       </c>
       <c r="E16" s="290">
@@ -15506,7 +15514,7 @@
         <v>419</v>
       </c>
       <c r="D17" s="335">
-        <f>'Energetic final demand sectors'!E25</f>
+        <f>'Energetic final demand sectors'!E27</f>
         <v>0</v>
       </c>
       <c r="E17" s="289">
@@ -15520,7 +15528,7 @@
         <v>82</v>
       </c>
       <c r="D18" s="335">
-        <f>'Energetic final demand sectors'!E26</f>
+        <f>'Energetic final demand sectors'!E28</f>
         <v>0</v>
       </c>
       <c r="E18" s="289">
@@ -15548,7 +15556,7 @@
         <v>231</v>
       </c>
       <c r="D21" s="387">
-        <f>'Energetic final demand sectors'!G18</f>
+        <f>'Energetic final demand sectors'!G20</f>
         <v>0</v>
       </c>
       <c r="E21" s="289">
@@ -15562,7 +15570,7 @@
         <v>419</v>
       </c>
       <c r="D22" s="387">
-        <f>'Energetic final demand sectors'!G21</f>
+        <f>'Energetic final demand sectors'!G23</f>
         <v>0</v>
       </c>
       <c r="E22" s="289">
@@ -15576,7 +15584,7 @@
         <v>82</v>
       </c>
       <c r="D23" s="387">
-        <f>'Energetic final demand sectors'!G26</f>
+        <f>'Energetic final demand sectors'!G28</f>
         <v>0</v>
       </c>
       <c r="E23" s="289">
@@ -15604,7 +15612,7 @@
         <v>231</v>
       </c>
       <c r="D26" s="387">
-        <f>'Energetic final demand sectors'!H18</f>
+        <f>'Energetic final demand sectors'!H20</f>
         <v>0</v>
       </c>
       <c r="E26" s="289">
@@ -15618,7 +15626,7 @@
         <v>419</v>
       </c>
       <c r="D27" s="387">
-        <f>'Energetic final demand sectors'!H21</f>
+        <f>'Energetic final demand sectors'!H23</f>
         <v>0</v>
       </c>
       <c r="E27" s="289">
@@ -15632,7 +15640,7 @@
         <v>82</v>
       </c>
       <c r="D28" s="387">
-        <f>'Energetic final demand sectors'!H26</f>
+        <f>'Energetic final demand sectors'!H28</f>
         <v>0</v>
       </c>
       <c r="E28" s="289">
@@ -15660,7 +15668,7 @@
         <v>231</v>
       </c>
       <c r="D31" s="387">
-        <f>'Energetic final demand sectors'!I18</f>
+        <f>'Energetic final demand sectors'!I20</f>
         <v>0</v>
       </c>
       <c r="E31" s="289">
@@ -15674,7 +15682,7 @@
         <v>419</v>
       </c>
       <c r="D32" s="387">
-        <f>'Energetic final demand sectors'!I21</f>
+        <f>'Energetic final demand sectors'!I23</f>
         <v>0</v>
       </c>
       <c r="E32" s="289">
@@ -15688,7 +15696,7 @@
         <v>82</v>
       </c>
       <c r="D33" s="387">
-        <f>'Energetic final demand sectors'!I26</f>
+        <f>'Energetic final demand sectors'!I28</f>
         <v>0</v>
       </c>
       <c r="E33" s="289">
@@ -15716,7 +15724,7 @@
         <v>231</v>
       </c>
       <c r="D36" s="387">
-        <f>'Energetic final demand sectors'!J18</f>
+        <f>'Energetic final demand sectors'!J20</f>
         <v>0</v>
       </c>
       <c r="E36" s="289">
@@ -15730,7 +15738,7 @@
         <v>419</v>
       </c>
       <c r="D37" s="387">
-        <f>'Energetic final demand sectors'!J21</f>
+        <f>'Energetic final demand sectors'!J23</f>
         <v>0</v>
       </c>
       <c r="E37" s="289">
@@ -15744,7 +15752,7 @@
         <v>82</v>
       </c>
       <c r="D38" s="387">
-        <f>'Energetic final demand sectors'!J26</f>
+        <f>'Energetic final demand sectors'!J28</f>
         <v>0</v>
       </c>
       <c r="E38" s="289">
@@ -15772,7 +15780,7 @@
         <v>231</v>
       </c>
       <c r="D41" s="387">
-        <f>'Energetic final demand sectors'!K18</f>
+        <f>'Energetic final demand sectors'!K20</f>
         <v>0</v>
       </c>
       <c r="E41" s="289">
@@ -15786,7 +15794,7 @@
         <v>419</v>
       </c>
       <c r="D42" s="387">
-        <f>'Energetic final demand sectors'!K21</f>
+        <f>'Energetic final demand sectors'!K23</f>
         <v>0</v>
       </c>
       <c r="E42" s="289">
@@ -15800,7 +15808,7 @@
         <v>82</v>
       </c>
       <c r="D43" s="387">
-        <f>'Energetic final demand sectors'!K26</f>
+        <f>'Energetic final demand sectors'!K28</f>
         <v>0</v>
       </c>
       <c r="E43" s="289">
@@ -15828,7 +15836,7 @@
         <v>231</v>
       </c>
       <c r="D46" s="387">
-        <f>'Energetic final demand sectors'!L18</f>
+        <f>'Energetic final demand sectors'!L20</f>
         <v>0</v>
       </c>
       <c r="E46" s="522" t="s">
@@ -15841,7 +15849,7 @@
         <v>419</v>
       </c>
       <c r="D47" s="387">
-        <f>'Energetic final demand sectors'!L21</f>
+        <f>'Energetic final demand sectors'!L23</f>
         <v>0</v>
       </c>
       <c r="E47" s="522" t="s">
@@ -15854,7 +15862,7 @@
         <v>82</v>
       </c>
       <c r="D48" s="387">
-        <f>'Energetic final demand sectors'!L26</f>
+        <f>'Energetic final demand sectors'!L28</f>
         <v>0</v>
       </c>
       <c r="E48" s="522" t="s">
@@ -16136,10 +16144,10 @@
   <sheetPr codeName="Sheet14">
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:L27"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16311,549 +16319,635 @@
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="160"/>
       <c r="B12" s="178" t="s">
-        <v>508</v>
+        <v>684</v>
       </c>
       <c r="C12" s="208"/>
       <c r="D12" s="424">
-        <f>-SUM('Corrected energy balance step 2'!C49:N49,'Corrected energy balance step 2'!S49)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="404"/>
+        <f>-SUM('Corrected energy balance step 2'!C46:N46,'Corrected energy balance step 2'!S46)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="404">
+        <f>-'Corrected energy balance step 2'!K46</f>
+        <v>0</v>
+      </c>
       <c r="F12" s="424">
-        <f>-SUM('Corrected energy balance step 2'!P49:R49)</f>
+        <f>-SUM('Corrected energy balance step 2'!P46:R46)</f>
         <v>0</v>
       </c>
       <c r="G12" s="424">
-        <f>-SUM('Corrected energy balance step 2'!T49,'Corrected energy balance step 2'!AV49)</f>
+        <f>-SUM('Corrected energy balance step 2'!T46,'Corrected energy balance step 2'!AV46)</f>
         <v>0</v>
       </c>
       <c r="H12" s="424">
-        <f>-(SUM('Corrected energy balance step 2'!U49:AQ49)+SUM('Corrected energy balance step 2'!AW49:AZ49))</f>
+        <f>-(SUM('Corrected energy balance step 2'!U46:AQ46)+SUM('Corrected energy balance step 2'!AW46:AZ46))</f>
         <v>0</v>
       </c>
       <c r="I12" s="424">
-        <f>-SUM('Corrected energy balance step 2'!AU49,'Corrected energy balance step 2'!AZ49)</f>
+        <f>-SUM('Corrected energy balance step 2'!AU46,'Corrected energy balance step 2'!AZ46)</f>
         <v>0</v>
       </c>
       <c r="J12" s="424">
-        <f>-'Corrected energy balance step 2'!BM49</f>
+        <f>-'Corrected energy balance step 2'!BM46</f>
         <v>0</v>
       </c>
       <c r="K12" s="424">
-        <f>-'Corrected energy balance step 2'!BL49</f>
+        <f>-'Corrected energy balance step 2'!BL46</f>
         <v>0</v>
       </c>
       <c r="L12" s="399">
-        <f>-SUM('Corrected energy balance step 2'!O49,'Corrected energy balance step 2'!U49,'Corrected energy balance step 2'!AT49,'Corrected energy balance step 2'!AW49:AY49,'Corrected energy balance step 2'!BA49,'Corrected energy balance step 2'!BB49:BK49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <f>-SUM('Corrected energy balance step 2'!O46,'Corrected energy balance step 2'!U46,'Corrected energy balance step 2'!AT46,'Corrected energy balance step 2'!AW46:AY46,'Corrected energy balance step 2'!BA46,'Corrected energy balance step 2'!BB46:BK46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="160"/>
-      <c r="B13" s="179" t="s">
-        <v>326</v>
-      </c>
-      <c r="C13" s="200" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="425">
-        <f>'Energetic cons analysis'!D11</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="425">
-        <f>'Corrected energy balance step 2'!K60</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="425">
-        <f>'Energetic cons analysis'!F11</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="425">
-        <f>'Energetic cons analysis'!G11</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="425">
-        <f>'Energetic cons analysis'!H11</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="425">
-        <f>'Energetic cons analysis'!I11</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="425">
-        <f>'Energetic cons analysis'!J11</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="425">
-        <f>'Energetic cons analysis'!K11</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="440">
-        <f>'Energetic cons analysis'!L11</f>
+      <c r="B13" s="178" t="s">
+        <v>685</v>
+      </c>
+      <c r="C13" s="208"/>
+      <c r="D13" s="424">
+        <f>-SUM('Corrected energy balance step 2'!C43:N43,'Corrected energy balance step 2'!S43)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="404">
+        <f>-'Corrected energy balance step 2'!K43</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="424">
+        <f>-SUM('Corrected energy balance step 2'!P43:R43)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="424">
+        <f>-SUM('Corrected energy balance step 2'!T43,'Corrected energy balance step 2'!AV43)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="424">
+        <f>-(SUM('Corrected energy balance step 2'!U43:AQ43)+SUM('Corrected energy balance step 2'!AW43:AZ43))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="424">
+        <f>-SUM('Corrected energy balance step 2'!AU43,'Corrected energy balance step 2'!AZ43)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="424">
+        <f>-'Corrected energy balance step 2'!BM43</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="424">
+        <f>-'Corrected energy balance step 2'!BL43</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="399">
+        <f>-SUM('Corrected energy balance step 2'!O43,'Corrected energy balance step 2'!U43,'Corrected energy balance step 2'!AT43,'Corrected energy balance step 2'!AW43:AY43,'Corrected energy balance step 2'!BA43,'Corrected energy balance step 2'!BB43:BK43)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="160"/>
       <c r="B14" s="178" t="s">
+        <v>508</v>
+      </c>
+      <c r="C14" s="208"/>
+      <c r="D14" s="424">
+        <f>-SUM('Corrected energy balance step 2'!C49:N49,'Corrected energy balance step 2'!S49)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="404"/>
+      <c r="F14" s="424">
+        <f>-SUM('Corrected energy balance step 2'!P49:R49)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="424">
+        <f>-SUM('Corrected energy balance step 2'!T49,'Corrected energy balance step 2'!AV49)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="424">
+        <f>-(SUM('Corrected energy balance step 2'!U49:AQ49)+SUM('Corrected energy balance step 2'!AW49:AZ49))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="424">
+        <f>-SUM('Corrected energy balance step 2'!AU49,'Corrected energy balance step 2'!AZ49)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="424">
+        <f>-'Corrected energy balance step 2'!BM49</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="424">
+        <f>-'Corrected energy balance step 2'!BL49</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="399">
+        <f>-SUM('Corrected energy balance step 2'!O49,'Corrected energy balance step 2'!U49,'Corrected energy balance step 2'!AT49,'Corrected energy balance step 2'!AW49:AY49,'Corrected energy balance step 2'!BA49,'Corrected energy balance step 2'!BB49:BK49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="160"/>
+      <c r="B15" s="179" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="200" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="425">
+        <f>'Energetic cons analysis'!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="425">
+        <f>'Corrected energy balance step 2'!K60</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="425">
+        <f>'Energetic cons analysis'!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="425">
+        <f>'Energetic cons analysis'!G11</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="425">
+        <f>'Energetic cons analysis'!H11</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="425">
+        <f>'Energetic cons analysis'!I11</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="425">
+        <f>'Energetic cons analysis'!J11</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="425">
+        <f>'Energetic cons analysis'!K11</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="440">
+        <f>'Energetic cons analysis'!L11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="160"/>
+      <c r="B16" s="178" t="s">
         <v>327</v>
       </c>
-      <c r="C14" s="197"/>
-      <c r="D14" s="426">
-        <f>SUM(D11:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="426">
-        <f>SUM(E11:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="426">
-        <f t="shared" ref="F14:L14" si="0">SUM(F11:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="426">
+      <c r="C16" s="197"/>
+      <c r="D16" s="426">
+        <f>SUM(D11:D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="426">
+        <f>SUM(E11:E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="426">
+        <f t="shared" ref="F16:L16" si="0">SUM(F11:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="426">
+      <c r="H16" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="426">
+      <c r="I16" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="426">
+      <c r="J16" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="426">
+      <c r="K16" s="426">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="439">
+      <c r="L16" s="439">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="160"/>
-      <c r="B15" s="178"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="427"/>
-      <c r="E15" s="464"/>
-      <c r="F15" s="427"/>
-      <c r="G15" s="427"/>
-      <c r="H15" s="427"/>
-      <c r="I15" s="427"/>
-      <c r="J15" s="427"/>
-      <c r="K15" s="427"/>
-      <c r="L15" s="444"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="160"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="422"/>
-      <c r="E16" s="422"/>
-      <c r="F16" s="422"/>
-      <c r="G16" s="422"/>
-      <c r="H16" s="422"/>
-      <c r="I16" s="422"/>
-      <c r="J16" s="422"/>
-      <c r="K16" s="422"/>
-      <c r="L16" s="403"/>
-    </row>
-    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="160"/>
-      <c r="B17" s="189" t="s">
+      <c r="B17" s="178"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="427"/>
+      <c r="E17" s="464"/>
+      <c r="F17" s="427"/>
+      <c r="G17" s="427"/>
+      <c r="H17" s="427"/>
+      <c r="I17" s="427"/>
+      <c r="J17" s="427"/>
+      <c r="K17" s="427"/>
+      <c r="L17" s="444"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="160"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="422"/>
+      <c r="E18" s="422"/>
+      <c r="F18" s="422"/>
+      <c r="G18" s="422"/>
+      <c r="H18" s="422"/>
+      <c r="I18" s="422"/>
+      <c r="J18" s="422"/>
+      <c r="K18" s="422"/>
+      <c r="L18" s="403"/>
+    </row>
+    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="160"/>
+      <c r="B19" s="189" t="s">
         <v>478</v>
       </c>
-      <c r="C17" s="200" t="s">
+      <c r="C19" s="200" t="s">
         <v>265</v>
       </c>
-      <c r="D17" s="425">
+      <c r="D19" s="425">
         <f>SUM('Energetic cons analysis'!D15:D17)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="425">
+      <c r="E19" s="425">
         <f>SUM('Energetic cons analysis'!E15)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="425">
+      <c r="F19" s="425">
         <f>SUM('Energetic cons analysis'!F15:F17)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="425">
+      <c r="G19" s="425">
         <f>SUM('Energetic cons analysis'!G15:G17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="425">
+      <c r="H19" s="425">
         <f>SUM('Energetic cons analysis'!H15:H17)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="425">
+      <c r="I19" s="425">
         <f>SUM('Energetic cons analysis'!I15:I17)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="425">
+      <c r="J19" s="425">
         <f>SUM('Energetic cons analysis'!J15:J17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="425">
+      <c r="K19" s="425">
         <f>SUM('Energetic cons analysis'!K15:K17)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="440">
+      <c r="L19" s="440">
         <f>SUM('Energetic cons analysis'!L15:L17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="190" t="s">
+    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B20" s="190" t="s">
         <v>479</v>
       </c>
-      <c r="C18" s="197"/>
-      <c r="D18" s="426">
-        <f>SUM(D17:D17)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="426">
-        <f>SUM(E17:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="426">
-        <f t="shared" ref="F18:L18" si="1">SUM(F17:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="426">
+      <c r="C20" s="197"/>
+      <c r="D20" s="426">
+        <f>SUM(D19:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="426">
+        <f>SUM(E19:E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="426">
+        <f t="shared" ref="F20:L20" si="1">SUM(F19:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="426">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="426">
+      <c r="H20" s="426">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="426">
+      <c r="I20" s="426">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="426">
+      <c r="J20" s="426">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="426">
+      <c r="K20" s="426">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="439">
+      <c r="L20" s="439">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="190"/>
-      <c r="C19" s="197"/>
-      <c r="D19" s="427"/>
-      <c r="E19" s="427"/>
-      <c r="F19" s="427"/>
-      <c r="G19" s="427"/>
-      <c r="H19" s="427"/>
-      <c r="I19" s="427"/>
-      <c r="J19" s="427"/>
-      <c r="K19" s="427"/>
-      <c r="L19" s="444"/>
-    </row>
-    <row r="20" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="189" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="190"/>
+      <c r="C21" s="197"/>
+      <c r="D21" s="427"/>
+      <c r="E21" s="427"/>
+      <c r="F21" s="427"/>
+      <c r="G21" s="427"/>
+      <c r="H21" s="427"/>
+      <c r="I21" s="427"/>
+      <c r="J21" s="427"/>
+      <c r="K21" s="427"/>
+      <c r="L21" s="444"/>
+    </row>
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B22" s="189" t="s">
         <v>480</v>
       </c>
-      <c r="C20" s="200" t="s">
+      <c r="C22" s="200" t="s">
         <v>265</v>
       </c>
-      <c r="D20" s="425">
+      <c r="D22" s="425">
         <f>'Energetic cons analysis'!D20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="436">
+      <c r="E22" s="436">
         <f>'Energetic cons analysis'!E20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="436" t="str">
+      <c r="F22" s="436" t="str">
         <f>'Energetic cons analysis'!F20</f>
         <v>-</v>
       </c>
-      <c r="G20" s="425">
+      <c r="G22" s="425">
         <f>'Energetic cons analysis'!G20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="425">
+      <c r="H22" s="425">
         <f>'Energetic cons analysis'!H20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="425">
+      <c r="I22" s="425">
         <f>'Energetic cons analysis'!I20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="425">
+      <c r="J22" s="425">
         <f>'Energetic cons analysis'!J20</f>
         <v>0</v>
       </c>
-      <c r="K20" s="425">
+      <c r="K22" s="425">
         <f>'Energetic cons analysis'!K20</f>
         <v>0</v>
       </c>
-      <c r="L20" s="440">
+      <c r="L22" s="440">
         <f>'Energetic cons analysis'!L20</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B21" s="190" t="s">
-        <v>481</v>
-      </c>
-      <c r="C21" s="197"/>
-      <c r="D21" s="426">
-        <f>SUM(D20:D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="426">
-        <f>SUM(E20:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="433" t="s">
-        <v>264</v>
-      </c>
-      <c r="G21" s="426">
-        <f t="shared" ref="G21:L21" si="2">SUM(G20:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="426">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="426">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="426">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="426">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="439">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="190"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="422"/>
-      <c r="E22" s="422"/>
-      <c r="F22" s="422"/>
-      <c r="G22" s="422"/>
-      <c r="H22" s="422"/>
-      <c r="I22" s="422"/>
-      <c r="J22" s="422"/>
-      <c r="K22" s="422"/>
-      <c r="L22" s="403"/>
     </row>
     <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="190" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="197"/>
+      <c r="D23" s="426">
+        <f>SUM(D22:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="426">
+        <f>SUM(E22:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="433" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" s="426">
+        <f t="shared" ref="G23:L23" si="2">SUM(G22:G22)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="426">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="426">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="426">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="426">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="439">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="190"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="422"/>
+      <c r="E24" s="422"/>
+      <c r="F24" s="422"/>
+      <c r="G24" s="422"/>
+      <c r="H24" s="422"/>
+      <c r="I24" s="422"/>
+      <c r="J24" s="422"/>
+      <c r="K24" s="422"/>
+      <c r="L24" s="403"/>
+    </row>
+    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="190" t="s">
         <v>327</v>
       </c>
-      <c r="C23" s="197"/>
-      <c r="D23" s="424">
-        <f>D14</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="424">
-        <f>E14</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="404" t="s">
+      <c r="C25" s="197"/>
+      <c r="D25" s="424">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="424">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="404" t="s">
         <v>264</v>
       </c>
-      <c r="G23" s="424">
-        <f t="shared" ref="G23:L23" si="3">G14</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="424">
+      <c r="G25" s="424">
+        <f t="shared" ref="G25:L25" si="3">G16</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="424">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="424">
+      <c r="I25" s="424">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J23" s="424">
+      <c r="J25" s="424">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K23" s="424">
+      <c r="K25" s="424">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L23" s="399">
+      <c r="L25" s="399">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="160"/>
-      <c r="B24" s="190" t="s">
+    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="160"/>
+      <c r="B26" s="190" t="s">
         <v>479</v>
       </c>
-      <c r="C24" s="197"/>
-      <c r="D24" s="424">
-        <f>D18</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="424">
-        <f>E18</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="404" t="s">
+      <c r="C26" s="197"/>
+      <c r="D26" s="424">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="424">
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="404" t="s">
         <v>264</v>
       </c>
-      <c r="G24" s="424">
-        <f t="shared" ref="G24:L24" si="4">G18</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="424">
+      <c r="G26" s="424">
+        <f t="shared" ref="G26:L26" si="4">G20</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="424">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I24" s="424">
+      <c r="I26" s="424">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J24" s="424">
+      <c r="J26" s="424">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K24" s="424">
+      <c r="K26" s="424">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L24" s="399">
+      <c r="L26" s="399">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="160"/>
-      <c r="B25" s="189" t="s">
+    <row r="27" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="160"/>
+      <c r="B27" s="189" t="s">
         <v>481</v>
       </c>
-      <c r="C25" s="200" t="s">
+      <c r="C27" s="200" t="s">
         <v>264</v>
       </c>
-      <c r="D25" s="425">
-        <f>D21</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="436">
-        <f t="shared" ref="E25:L25" si="5">E21</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="436" t="str">
+      <c r="D27" s="425">
+        <f>D23</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="436">
+        <f t="shared" ref="E27:L27" si="5">E23</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="436" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="G25" s="425">
+      <c r="G27" s="425">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H25" s="425">
+      <c r="H27" s="425">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I25" s="425">
+      <c r="I27" s="425">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J25" s="425">
+      <c r="J27" s="425">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K25" s="425">
+      <c r="K27" s="425">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L25" s="440">
+      <c r="L27" s="440">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="B26" s="178" t="s">
+    <row r="28" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="178" t="s">
         <v>482</v>
       </c>
-      <c r="C26" s="197"/>
-      <c r="D26" s="428">
-        <f>D23-D24-D25</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="428">
-        <f>E23-E24-E25</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="438" t="s">
+      <c r="C28" s="197"/>
+      <c r="D28" s="428">
+        <f>D25-D26-D27</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="428">
+        <f>E25-E26-E27</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="438" t="s">
         <v>264</v>
       </c>
-      <c r="G26" s="428">
-        <f t="shared" ref="G26:L26" si="6">G23-G24-G25</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="428">
+      <c r="G28" s="428">
+        <f t="shared" ref="G28:L28" si="6">G25-G26-G27</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="428">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I26" s="428">
+      <c r="I28" s="428">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J26" s="428">
+      <c r="J28" s="428">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K26" s="428">
+      <c r="K28" s="428">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L26" s="441">
+      <c r="L28" s="441">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="191"/>
-      <c r="C27" s="209"/>
-      <c r="D27" s="445"/>
-      <c r="E27" s="445"/>
-      <c r="F27" s="445"/>
-      <c r="G27" s="445"/>
-      <c r="H27" s="445"/>
-      <c r="I27" s="445"/>
-      <c r="J27" s="445"/>
-      <c r="K27" s="445"/>
-      <c r="L27" s="446"/>
+    <row r="29" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="191"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="445"/>
+      <c r="E29" s="445"/>
+      <c r="F29" s="445"/>
+      <c r="G29" s="445"/>
+      <c r="H29" s="445"/>
+      <c r="I29" s="445"/>
+      <c r="J29" s="445"/>
+      <c r="K29" s="445"/>
+      <c r="L29" s="446"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="H27:L27">
+  <conditionalFormatting sqref="H29:L29">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:G27">
+  <conditionalFormatting sqref="D29:G29">
     <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -21865,39 +21959,39 @@
       <c r="C11" s="527"/>
       <c r="D11" s="208"/>
       <c r="E11" s="465">
-        <f>'Energetic final demand sectors'!D26</f>
+        <f>'Energetic final demand sectors'!D28</f>
         <v>0</v>
       </c>
       <c r="F11" s="404">
-        <f>'Energetic final demand sectors'!E26</f>
+        <f>'Energetic final demand sectors'!E28</f>
         <v>0</v>
       </c>
       <c r="G11" s="404" t="str">
-        <f>'Energetic final demand sectors'!F26</f>
+        <f>'Energetic final demand sectors'!F28</f>
         <v>-</v>
       </c>
       <c r="H11" s="404">
-        <f>'Energetic final demand sectors'!G26</f>
+        <f>'Energetic final demand sectors'!G28</f>
         <v>0</v>
       </c>
       <c r="I11" s="404">
-        <f>'Energetic final demand sectors'!H26</f>
+        <f>'Energetic final demand sectors'!H28</f>
         <v>0</v>
       </c>
       <c r="J11" s="404">
-        <f>'Energetic final demand sectors'!I26</f>
+        <f>'Energetic final demand sectors'!I28</f>
         <v>0</v>
       </c>
       <c r="K11" s="404">
-        <f>'Energetic final demand sectors'!J26</f>
+        <f>'Energetic final demand sectors'!J28</f>
         <v>0</v>
       </c>
       <c r="L11" s="404">
-        <f>'Energetic final demand sectors'!K26</f>
+        <f>'Energetic final demand sectors'!K28</f>
         <v>0</v>
       </c>
       <c r="M11" s="543">
-        <f>'Energetic final demand sectors'!L26</f>
+        <f>'Energetic final demand sectors'!L28</f>
         <v>0</v>
       </c>
     </row>
@@ -31792,7 +31886,7 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/analyses/5_industry_analysis.xlsx
+++ b/analyses/5_industry_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Github/etdataset/analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC36558E-8886-F944-BF06-9E6562DB021F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CDC1EC-F7CF-D944-851E-997FFF2A1A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12580" yWindow="-28300" windowWidth="51200" windowHeight="27160" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="-33340" windowWidth="30080" windowHeight="32380" tabRatio="835" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="34" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="660">
   <si>
     <t>Changelog</t>
   </si>
@@ -2317,6 +2317,18 @@
   </si>
   <si>
     <t>nl</t>
+  </si>
+  <si>
+    <t>Naphtha (TJ)</t>
+  </si>
+  <si>
+    <t>Naptha (TJ)</t>
+  </si>
+  <si>
+    <t>July 1, 2025</t>
+  </si>
+  <si>
+    <t>Minor changes to allow naphtha split from crude oil in the industry sector. Only minimal changes are made to the analyses, so documentation is limited.</t>
   </si>
 </sst>
 </file>
@@ -14051,8 +14063,8 @@
   </sheetPr>
   <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14084,7 +14096,7 @@
       </c>
       <c r="C5" s="22">
         <f>MAX(Changelog!D:D)</f>
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -14111,7 +14123,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -15803,7 +15815,7 @@
   <dimension ref="A2:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16078,7 +16090,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="406">
-        <f>-(SUM('Corrected energy balance step 2'!U49:AQ49)+SUM('Corrected energy balance step 2'!AW49:AZ49))</f>
+        <f>-(SUM('Corrected energy balance step 2'!U49:AQ49)+SUM('Corrected energy balance step 2'!AW49:AZ49))+'Corrected energy balance step 2'!AK49</f>
         <v>0</v>
       </c>
       <c r="I14" s="406">
@@ -16772,19 +16784,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="406">
-        <f>'Non-energetic cons analysis'!I11</f>
+        <f>'Non-energetic cons analysis'!J11</f>
         <v>0</v>
       </c>
       <c r="J11" s="406">
-        <f>'Non-energetic cons analysis'!J11</f>
+        <f>'Non-energetic cons analysis'!K11</f>
         <v>0</v>
       </c>
       <c r="K11" s="406">
-        <f>'Non-energetic cons analysis'!K11</f>
+        <f>'Non-energetic cons analysis'!L11</f>
         <v>0</v>
       </c>
       <c r="L11" s="382">
-        <f>'Non-energetic cons analysis'!L11</f>
+        <f>'Non-energetic cons analysis'!M11</f>
         <v>0</v>
       </c>
     </row>
@@ -16814,19 +16826,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="406">
-        <f>'Non-energetic cons analysis'!I14</f>
+        <f>'Non-energetic cons analysis'!J14</f>
         <v>0</v>
       </c>
       <c r="J12" s="406">
-        <f>'Non-energetic cons analysis'!J14</f>
+        <f>'Non-energetic cons analysis'!K14</f>
         <v>0</v>
       </c>
       <c r="K12" s="406">
-        <f>'Non-energetic cons analysis'!K14</f>
+        <f>'Non-energetic cons analysis'!L14</f>
         <v>0</v>
       </c>
       <c r="L12" s="382">
-        <f>'Non-energetic cons analysis'!L14</f>
+        <f>'Non-energetic cons analysis'!M14</f>
         <v>0</v>
       </c>
     </row>
@@ -16858,19 +16870,19 @@
         <v>0</v>
       </c>
       <c r="I13" s="387">
-        <f>'Non-energetic cons analysis'!I16</f>
+        <f>'Non-energetic cons analysis'!J16</f>
         <v>0</v>
       </c>
       <c r="J13" s="387">
-        <f>'Non-energetic cons analysis'!J16</f>
+        <f>'Non-energetic cons analysis'!K16</f>
         <v>0</v>
       </c>
       <c r="K13" s="387">
-        <f>'Non-energetic cons analysis'!K16</f>
+        <f>'Non-energetic cons analysis'!L16</f>
         <v>0</v>
       </c>
       <c r="L13" s="382">
-        <f>'Non-energetic cons analysis'!L16</f>
+        <f>'Non-energetic cons analysis'!M16</f>
         <v>0</v>
       </c>
     </row>
@@ -17678,19 +17690,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="414">
-        <f>-'Fuel aggregation'!J15</f>
+        <f>-'Fuel aggregation'!K15</f>
         <v>0</v>
       </c>
       <c r="J11" s="414">
-        <f>-'Fuel aggregation'!K15</f>
+        <f>-'Fuel aggregation'!L15</f>
         <v>0</v>
       </c>
       <c r="K11" s="414">
-        <f>-'Fuel aggregation'!L15</f>
+        <f>-'Fuel aggregation'!M15</f>
         <v>0</v>
       </c>
       <c r="L11" s="416">
-        <f>-'Fuel aggregation'!M15</f>
+        <f>-'Fuel aggregation'!N15</f>
         <v>0</v>
       </c>
     </row>
@@ -17720,19 +17732,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="414">
-        <f>-'Fuel aggregation'!J17</f>
+        <f>-'Fuel aggregation'!K17</f>
         <v>0</v>
       </c>
       <c r="J12" s="414">
-        <f>-'Fuel aggregation'!K17</f>
+        <f>-'Fuel aggregation'!L17</f>
         <v>0</v>
       </c>
       <c r="K12" s="414">
-        <f>-'Fuel aggregation'!L17</f>
+        <f>-'Fuel aggregation'!M17</f>
         <v>0</v>
       </c>
       <c r="L12" s="416">
-        <f>-'Fuel aggregation'!M17</f>
+        <f>-'Fuel aggregation'!N17</f>
         <v>0</v>
       </c>
     </row>
@@ -17764,19 +17776,19 @@
         <v>0</v>
       </c>
       <c r="I13" s="466">
-        <f>-'Fuel aggregation'!J16</f>
+        <f>-'Fuel aggregation'!K16</f>
         <v>0</v>
       </c>
       <c r="J13" s="466">
-        <f>-'Fuel aggregation'!K16</f>
+        <f>-'Fuel aggregation'!L16</f>
         <v>0</v>
       </c>
       <c r="K13" s="466">
-        <f>-'Fuel aggregation'!L16</f>
+        <f>-'Fuel aggregation'!M16</f>
         <v>0</v>
       </c>
       <c r="L13" s="467">
-        <f>-'Fuel aggregation'!M16</f>
+        <f>-'Fuel aggregation'!N16</f>
         <v>0</v>
       </c>
     </row>
@@ -18023,7 +18035,7 @@
   <dimension ref="A2:L28"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18173,19 +18185,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="408">
-        <f>'Fuel aggregation'!J20</f>
+        <f>'Fuel aggregation'!K20</f>
         <v>0</v>
       </c>
       <c r="J11" s="408">
-        <f>'Fuel aggregation'!K20</f>
+        <f>'Fuel aggregation'!L20</f>
         <v>0</v>
       </c>
       <c r="K11" s="408">
-        <f>'Fuel aggregation'!L20</f>
+        <f>'Fuel aggregation'!M20</f>
         <v>0</v>
       </c>
       <c r="L11" s="421">
-        <f>'Fuel aggregation'!M20</f>
+        <f>'Fuel aggregation'!N20</f>
         <v>0</v>
       </c>
     </row>
@@ -18210,7 +18222,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="408">
-        <f>-SUM('Corrected energy balance step 2'!U49:AQ49)-SUM('Corrected energy balance step 2'!AW49:AZ49)</f>
+        <f>-SUM('Corrected energy balance step 2'!U49:AQ49)-SUM('Corrected energy balance step 2'!AW49:AZ49)+'Corrected energy balance step 2'!AK49</f>
         <v>0</v>
       </c>
       <c r="I12" s="408">
@@ -18707,10 +18719,10 @@
   <sheetPr codeName="Sheet19">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:L20"/>
+  <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18718,11 +18730,11 @@
     <col min="1" max="1" width="10.83203125" style="72"/>
     <col min="2" max="2" width="56.6640625" style="72" customWidth="1"/>
     <col min="3" max="3" width="2.83203125" style="193" customWidth="1"/>
-    <col min="4" max="12" width="15.83203125" style="72" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="72"/>
+    <col min="4" max="13" width="15.83203125" style="72" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>228</v>
       </c>
@@ -18732,8 +18744,9 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="192"/>
       <c r="D3" s="1"/>
@@ -18741,8 +18754,9 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>82</v>
       </c>
@@ -18752,7 +18766,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="564" t="s">
         <v>522</v>
       </c>
@@ -18762,8 +18776,8 @@
       <c r="F5" s="565"/>
       <c r="G5" s="569"/>
     </row>
-    <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="165" t="s">
         <v>228</v>
       </c>
@@ -18776,9 +18790,10 @@
       <c r="I7" s="87"/>
       <c r="J7" s="87"/>
       <c r="K7" s="87"/>
-      <c r="L7" s="101"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="87"/>
+      <c r="M7" s="101"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="166"/>
       <c r="C8" s="194"/>
       <c r="D8" s="89"/>
@@ -18789,9 +18804,10 @@
       <c r="I8" s="89"/>
       <c r="J8" s="89"/>
       <c r="K8" s="89"/>
-      <c r="L8" s="102"/>
-    </row>
-    <row r="9" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L8" s="89"/>
+      <c r="M8" s="102"/>
+    </row>
+    <row r="9" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="167"/>
       <c r="C9" s="175"/>
       <c r="D9" s="136" t="s">
@@ -18810,19 +18826,22 @@
         <v>351</v>
       </c>
       <c r="I9" s="136" t="s">
+        <v>657</v>
+      </c>
+      <c r="J9" s="136" t="s">
         <v>350</v>
       </c>
-      <c r="J9" s="136" t="s">
+      <c r="K9" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="K9" s="136" t="s">
+      <c r="L9" s="136" t="s">
         <v>256</v>
       </c>
-      <c r="L9" s="145" t="s">
+      <c r="M9" s="145" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="168"/>
       <c r="C10" s="195"/>
       <c r="D10" s="380"/>
@@ -18833,9 +18852,10 @@
       <c r="I10" s="380"/>
       <c r="J10" s="380"/>
       <c r="K10" s="380"/>
-      <c r="L10" s="381"/>
-    </row>
-    <row r="11" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L10" s="380"/>
+      <c r="M10" s="381"/>
+    </row>
+    <row r="11" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="186" t="s">
         <v>332</v>
       </c>
@@ -18859,7 +18879,6 @@
         <v>0</v>
       </c>
       <c r="I11" s="362">
-        <f>'Fuel aggregation'!J25</f>
         <v>0</v>
       </c>
       <c r="J11" s="362">
@@ -18870,12 +18889,16 @@
         <f>'Fuel aggregation'!L25</f>
         <v>0</v>
       </c>
-      <c r="L11" s="382">
+      <c r="L11" s="362">
         <f>'Fuel aggregation'!M25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="382">
+        <f>'Fuel aggregation'!N25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="169"/>
       <c r="C12" s="188"/>
       <c r="D12" s="385"/>
@@ -18886,9 +18909,10 @@
       <c r="I12" s="385"/>
       <c r="J12" s="385"/>
       <c r="K12" s="385"/>
-      <c r="L12" s="386"/>
-    </row>
-    <row r="13" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L12" s="385"/>
+      <c r="M12" s="386"/>
+    </row>
+    <row r="13" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="186" t="s">
         <v>482</v>
       </c>
@@ -18901,9 +18925,10 @@
       <c r="I13" s="385"/>
       <c r="J13" s="385"/>
       <c r="K13" s="385"/>
-      <c r="L13" s="386"/>
-    </row>
-    <row r="14" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L13" s="385"/>
+      <c r="M13" s="386"/>
+    </row>
+    <row r="14" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="176" t="s">
         <v>259</v>
       </c>
@@ -18916,9 +18941,10 @@
       <c r="I14" s="414"/>
       <c r="J14" s="414"/>
       <c r="K14" s="414"/>
-      <c r="L14" s="421"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="414"/>
+      <c r="M14" s="421"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="176"/>
       <c r="C15" s="188"/>
       <c r="D15" s="472"/>
@@ -18929,9 +18955,10 @@
       <c r="I15" s="472"/>
       <c r="J15" s="472"/>
       <c r="K15" s="472"/>
-      <c r="L15" s="426"/>
-    </row>
-    <row r="16" spans="2:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="L15" s="472"/>
+      <c r="M15" s="426"/>
+    </row>
+    <row r="16" spans="2:13" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="471" t="s">
         <v>506</v>
       </c>
@@ -18956,23 +18983,27 @@
         <v>0</v>
       </c>
       <c r="I16" s="414">
+        <f>'Corrected energy balance step 2'!AK89</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="414">
         <f>SUM('Corrected energy balance step 2'!AU89,'Corrected energy balance step 2'!AZ89)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="414">
+      <c r="K16" s="414">
         <f>'Corrected energy balance step 2'!BM89</f>
         <v>0</v>
       </c>
-      <c r="K16" s="406">
+      <c r="L16" s="406">
         <f>'Corrected energy balance step 2'!BK83</f>
         <v>0</v>
       </c>
-      <c r="L16" s="416">
+      <c r="M16" s="416">
         <f>SUM('Corrected energy balance step 2'!O89,'Corrected energy balance step 2'!U89,'Corrected energy balance step 2'!AT89,'Corrected energy balance step 2'!AW89:AY89,'Corrected energy balance step 2'!BA89,'Corrected energy balance step 2'!BB89:BK89)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="151"/>
       <c r="B17" s="170"/>
       <c r="C17" s="191"/>
@@ -18984,9 +19015,10 @@
       <c r="I17" s="383"/>
       <c r="J17" s="383"/>
       <c r="K17" s="383"/>
-      <c r="L17" s="384"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="383"/>
+      <c r="M17" s="384"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B18" s="169"/>
       <c r="C18" s="188"/>
       <c r="D18" s="385"/>
@@ -18997,9 +19029,10 @@
       <c r="I18" s="385"/>
       <c r="J18" s="385"/>
       <c r="K18" s="385"/>
-      <c r="L18" s="386"/>
-    </row>
-    <row r="19" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L18" s="385"/>
+      <c r="M18" s="386"/>
+    </row>
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="169" t="s">
         <v>324</v>
       </c>
@@ -19015,7 +19048,7 @@
         <v>263</v>
       </c>
       <c r="G19" s="359">
-        <f t="shared" ref="G19:L19" si="0">G11-G14-G16</f>
+        <f t="shared" ref="G19:M19" si="0">G11-G14-G16</f>
         <v>0</v>
       </c>
       <c r="H19" s="359">
@@ -19023,7 +19056,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="359">
-        <f t="shared" si="0"/>
+        <f>I11-I14-I16</f>
         <v>0</v>
       </c>
       <c r="J19" s="359">
@@ -19034,12 +19067,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="360">
+      <c r="L19" s="359">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="360">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="171"/>
       <c r="C20" s="190"/>
       <c r="D20" s="390"/>
@@ -19050,13 +19087,14 @@
       <c r="I20" s="390"/>
       <c r="J20" s="390"/>
       <c r="K20" s="390"/>
-      <c r="L20" s="391"/>
+      <c r="L20" s="390"/>
+      <c r="M20" s="391"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:G5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D20:L20">
+  <conditionalFormatting sqref="D20:M20">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -19064,7 +19102,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="D17:L18 E19:F19" emptyCellReference="1"/>
+    <ignoredError sqref="J17:M18 E19:F19 D17:H18" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -19079,10 +19117,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="B2:D65"/>
+  <dimension ref="B2:D66"/>
   <sheetViews>
     <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19753,15 +19791,26 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="149"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="148"/>
+    <row r="64" spans="2:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B64" s="149" t="s">
+        <v>658</v>
+      </c>
+      <c r="C64" s="150" t="s">
+        <v>659</v>
+      </c>
+      <c r="D64" s="148">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="16"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="244"/>
+      <c r="B65" s="149"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="148"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="16"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="244"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19984,10 +20033,10 @@
   <sheetPr codeName="Sheet21">
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B2:M26"/>
+  <dimension ref="B2:N26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19995,11 +20044,11 @@
     <col min="1" max="1" width="10.83203125" style="72"/>
     <col min="2" max="3" width="30.5" style="72" customWidth="1"/>
     <col min="4" max="4" width="2.83203125" style="72" customWidth="1"/>
-    <col min="5" max="13" width="15.83203125" style="72" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="72"/>
+    <col min="5" max="14" width="15.83203125" style="72" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>201</v>
       </c>
@@ -20010,8 +20059,9 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -20020,8 +20070,9 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>82</v>
       </c>
@@ -20032,7 +20083,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="2:13" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="573" t="s">
         <v>502</v>
       </c>
@@ -20043,8 +20094,8 @@
       <c r="G5" s="574"/>
       <c r="H5" s="575"/>
     </row>
-    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="23" t="s">
         <v>222</v>
       </c>
@@ -20058,9 +20109,10 @@
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="144"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="42"/>
+      <c r="N7" s="144"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="26"/>
       <c r="C8" s="1"/>
       <c r="D8" s="7"/>
@@ -20072,9 +20124,10 @@
       <c r="J8" s="134"/>
       <c r="K8" s="134"/>
       <c r="L8" s="134"/>
-      <c r="M8" s="135"/>
-    </row>
-    <row r="9" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="M8" s="134"/>
+      <c r="N8" s="135"/>
+    </row>
+    <row r="9" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="218" t="s">
         <v>388</v>
       </c>
@@ -20096,19 +20149,22 @@
         <v>351</v>
       </c>
       <c r="J9" s="136" t="s">
+        <v>656</v>
+      </c>
+      <c r="K9" s="136" t="s">
         <v>350</v>
       </c>
-      <c r="K9" s="136" t="s">
+      <c r="L9" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="L9" s="136" t="s">
+      <c r="M9" s="136" t="s">
         <v>256</v>
       </c>
-      <c r="M9" s="145" t="s">
+      <c r="N9" s="145" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" s="219" t="s">
         <v>206</v>
       </c>
@@ -20122,9 +20178,10 @@
       <c r="J10" s="380"/>
       <c r="K10" s="380"/>
       <c r="L10" s="380"/>
-      <c r="M10" s="381"/>
-    </row>
-    <row r="11" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="M10" s="380"/>
+      <c r="N10" s="381"/>
+    </row>
+    <row r="11" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="220"/>
       <c r="C11" s="375" t="s">
         <v>124</v>
@@ -20150,24 +20207,27 @@
         <f>SUM('Corrected energy balance step 2'!U28:AQ28)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="362">
+      <c r="J11" s="362" t="s">
+        <v>263</v>
+      </c>
+      <c r="K11" s="362">
         <f>SUM('Corrected energy balance step 2'!AU28,'Corrected energy balance step 2'!AZ28)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="362">
+      <c r="L11" s="362">
         <f>'Corrected energy balance step 2'!BM28</f>
         <v>0</v>
       </c>
-      <c r="L11" s="362">
+      <c r="M11" s="362">
         <f>'Corrected energy balance step 2'!BL28</f>
         <v>0</v>
       </c>
-      <c r="M11" s="382">
+      <c r="N11" s="382">
         <f>SUM('Corrected energy balance step 2'!O28,'Corrected energy balance step 2'!U28,'Corrected energy balance step 2'!AT28,'Corrected energy balance step 2'!AW28:AY28,'Corrected energy balance step 2'!BA28,'Corrected energy balance step 2'!BB28:BK28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="220"/>
       <c r="C12" s="375" t="s">
         <v>125</v>
@@ -20193,24 +20253,27 @@
         <f>SUM('Corrected energy balance step 2'!U30:AQ30)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="362">
+      <c r="J12" s="362" t="s">
+        <v>263</v>
+      </c>
+      <c r="K12" s="362">
         <f>SUM('Corrected energy balance step 2'!AU30,'Corrected energy balance step 2'!AZ30)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="362">
+      <c r="L12" s="362">
         <f>'Corrected energy balance step 2'!BM30</f>
         <v>0</v>
       </c>
-      <c r="L12" s="362">
+      <c r="M12" s="362">
         <f>'Corrected energy balance step 2'!BL30</f>
         <v>0</v>
       </c>
-      <c r="M12" s="382">
+      <c r="N12" s="382">
         <f>SUM('Corrected energy balance step 2'!O30,'Corrected energy balance step 2'!U30,'Corrected energy balance step 2'!AT30,'Corrected energy balance step 2'!AW30:AY30,'Corrected energy balance step 2'!BA30,'Corrected energy balance step 2'!BB30:BK30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="377"/>
       <c r="C13" s="378"/>
       <c r="D13" s="379"/>
@@ -20222,9 +20285,10 @@
       <c r="J13" s="383"/>
       <c r="K13" s="383"/>
       <c r="L13" s="383"/>
-      <c r="M13" s="384"/>
-    </row>
-    <row r="14" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="M13" s="383"/>
+      <c r="N13" s="384"/>
+    </row>
+    <row r="14" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="221" t="s">
         <v>130</v>
       </c>
@@ -20238,9 +20302,10 @@
       <c r="J14" s="385"/>
       <c r="K14" s="385"/>
       <c r="L14" s="385"/>
-      <c r="M14" s="386"/>
-    </row>
-    <row r="15" spans="2:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="M14" s="385"/>
+      <c r="N14" s="386"/>
+    </row>
+    <row r="15" spans="2:14" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="220"/>
       <c r="C15" s="392" t="s">
         <v>501</v>
@@ -20266,24 +20331,27 @@
         <f>SUM('Corrected energy balance step 2'!V40:AQ40)+SUM('Corrected energy balance step 2'!AW40:AZ40)-SUM('Corrected energy balance step 2'!V49:AQ49)-SUM('Corrected energy balance step 2'!AW49:AZ49)-SUM('Corrected energy balance step 2'!V53:AQ53)-SUM('Corrected energy balance step 2'!AW53:AZ53)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="362">
+      <c r="J15" s="362" t="s">
+        <v>263</v>
+      </c>
+      <c r="K15" s="362">
         <f>SUM('Corrected energy balance step 2'!AU40,'Corrected energy balance step 2'!AZ40)-SUM('Corrected energy balance step 2'!AU53,'Corrected energy balance step 2'!AZ53)-SUM('Corrected energy balance step 2'!AU49,'Corrected energy balance step 2'!AZ49)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="362">
+      <c r="L15" s="362">
         <f>'Corrected energy balance step 2'!BM40-'Corrected energy balance step 2'!BM53-'Corrected energy balance step 2'!BM49</f>
         <v>0</v>
       </c>
-      <c r="L15" s="362">
+      <c r="M15" s="362">
         <f>'Corrected energy balance step 2'!BL40-'Corrected energy balance step 2'!BL53-'Corrected energy balance step 2'!BL49</f>
         <v>0</v>
       </c>
-      <c r="M15" s="382">
+      <c r="N15" s="382">
         <f>SUM('Corrected energy balance step 2'!O40,'Corrected energy balance step 2'!U40,'Corrected energy balance step 2'!AT40,'Corrected energy balance step 2'!AW40:AY40,'Corrected energy balance step 2'!BA40,'Corrected energy balance step 2'!BB40:BK40)-SUM('Corrected energy balance step 2'!O53,'Corrected energy balance step 2'!U53,'Corrected energy balance step 2'!AT53,'Corrected energy balance step 2'!AW53:AY53,'Corrected energy balance step 2'!BA53,'Corrected energy balance step 2'!BB53:BK53)-SUM('Corrected energy balance step 2'!O49,'Corrected energy balance step 2'!U49,'Corrected energy balance step 2'!AT49,'Corrected energy balance step 2'!AW49:AY49,'Corrected energy balance step 2'!BA49,'Corrected energy balance step 2'!BB49:BK49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="222"/>
       <c r="C16" s="393" t="s">
         <v>124</v>
@@ -20309,24 +20377,27 @@
         <f>SUM('Corrected energy balance step 2'!U43:AQ43)+SUM('Corrected energy balance step 2'!AW43:AZ43)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="362">
+      <c r="J16" s="362" t="s">
+        <v>263</v>
+      </c>
+      <c r="K16" s="362">
         <f>SUM('Corrected energy balance step 2'!AU43,'Corrected energy balance step 2'!AZ43)</f>
         <v>0</v>
       </c>
-      <c r="K16" s="362">
+      <c r="L16" s="362">
         <f>'Corrected energy balance step 2'!BM43</f>
         <v>0</v>
       </c>
-      <c r="L16" s="362">
+      <c r="M16" s="362">
         <f>'Corrected energy balance step 2'!BL43</f>
         <v>0</v>
       </c>
-      <c r="M16" s="382">
+      <c r="N16" s="382">
         <f>SUM('Corrected energy balance step 2'!O43,'Corrected energy balance step 2'!U43,'Corrected energy balance step 2'!AT43,'Corrected energy balance step 2'!AW43:AY43,'Corrected energy balance step 2'!BA43,'Corrected energy balance step 2'!BB43:BK43)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="222"/>
       <c r="C17" s="393" t="s">
         <v>125</v>
@@ -20352,24 +20423,27 @@
         <f>SUM('Corrected energy balance step 2'!U46:AQ46)+SUM('Corrected energy balance step 2'!AW46:AZ46)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="362">
+      <c r="J17" s="362" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="362">
         <f>SUM('Corrected energy balance step 2'!AU46,'Corrected energy balance step 2'!AZ46)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="362">
+      <c r="L17" s="362">
         <f>'Corrected energy balance step 2'!BM46</f>
         <v>0</v>
       </c>
-      <c r="L17" s="362">
+      <c r="M17" s="362">
         <f>'Corrected energy balance step 2'!BL46</f>
         <v>0</v>
       </c>
-      <c r="M17" s="382">
+      <c r="N17" s="382">
         <f>SUM('Corrected energy balance step 2'!O46,'Corrected energy balance step 2'!U46,'Corrected energy balance step 2'!AT46,'Corrected energy balance step 2'!AW46:AY46,'Corrected energy balance step 2'!BA46,'Corrected energy balance step 2'!BB46:BK46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="377"/>
       <c r="C18" s="378"/>
       <c r="D18" s="379"/>
@@ -20381,9 +20455,10 @@
       <c r="J18" s="383"/>
       <c r="K18" s="383"/>
       <c r="L18" s="383"/>
-      <c r="M18" s="384"/>
-    </row>
-    <row r="19" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="M18" s="383"/>
+      <c r="N18" s="384"/>
+    </row>
+    <row r="19" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="221" t="s">
         <v>140</v>
       </c>
@@ -20397,9 +20472,10 @@
       <c r="J19" s="385"/>
       <c r="K19" s="385"/>
       <c r="L19" s="385"/>
-      <c r="M19" s="386"/>
-    </row>
-    <row r="20" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="M19" s="385"/>
+      <c r="N19" s="386"/>
+    </row>
+    <row r="20" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="220"/>
       <c r="C20" s="392" t="s">
         <v>24</v>
@@ -20422,27 +20498,31 @@
         <v>0</v>
       </c>
       <c r="I20" s="337">
-        <f>SUM('Corrected energy balance step 2'!U60:AQ60) + MAX(SUM('Corrected energy balance step 2'!AX60:AX60),0) + MAX(SUM('Corrected energy balance step 2'!AW60:AW60) + SUM('Corrected energy balance step 2'!AY60:AZ60),0)</f>
+        <f>SUM('Corrected energy balance step 2'!U60:AQ60) + MAX(SUM('Corrected energy balance step 2'!AX60:AX60),0) + MAX(SUM('Corrected energy balance step 2'!AW60:AW60) + SUM('Corrected energy balance step 2'!AY60:AZ60),0)-J20</f>
         <v>0</v>
       </c>
       <c r="J20" s="337">
+        <f>'Corrected energy balance step 2'!AK60</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="337">
         <f>SUM('Corrected energy balance step 2'!AU60,'Corrected energy balance step 2'!AZ60)</f>
         <v>0</v>
       </c>
-      <c r="K20" s="337">
+      <c r="L20" s="337">
         <f>'Corrected energy balance step 2'!BM60</f>
         <v>0</v>
       </c>
-      <c r="L20" s="337">
+      <c r="M20" s="337">
         <f>'Corrected energy balance step 2'!BL60</f>
         <v>0</v>
       </c>
-      <c r="M20" s="389">
+      <c r="N20" s="389">
         <f>SUM('Corrected energy balance step 2'!O60,'Corrected energy balance step 2'!U60,'Corrected energy balance step 2'!AT60,'Corrected energy balance step 2'!AW60:AY60,'Corrected energy balance step 2'!BA60,'Corrected energy balance step 2'!BB60:BK60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="222"/>
       <c r="C21" s="393" t="s">
         <v>141</v>
@@ -20468,24 +20548,27 @@
         <f>SUM('Corrected energy balance step 2'!U61:AQ61) + MAX(SUM('Corrected energy balance step 2'!AX61:AX61),0) + MAX(SUM('Corrected energy balance step 2'!AW61:AW61) + SUM('Corrected energy balance step 2'!AY61:AZ61),0)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="337">
+      <c r="J21" s="337" t="s">
+        <v>263</v>
+      </c>
+      <c r="K21" s="337">
         <f>SUM('Corrected energy balance step 2'!AU61,'Corrected energy balance step 2'!AZ61)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="337">
+      <c r="L21" s="337">
         <f>'Corrected energy balance step 2'!BM61</f>
         <v>0</v>
       </c>
-      <c r="L21" s="337">
+      <c r="M21" s="337">
         <f>'Corrected energy balance step 2'!BL61</f>
         <v>0</v>
       </c>
-      <c r="M21" s="389">
+      <c r="N21" s="389">
         <f>SUM('Corrected energy balance step 2'!O61,'Corrected energy balance step 2'!U61,'Corrected energy balance step 2'!AT61,'Corrected energy balance step 2'!AW61:AY61,'Corrected energy balance step 2'!BA61,'Corrected energy balance step 2'!BB61:BK61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="222"/>
       <c r="C22" s="393" t="s">
         <v>143</v>
@@ -20511,24 +20594,27 @@
         <f>SUM('Corrected energy balance step 2'!U63:AQ63) + MAX(SUM('Corrected energy balance step 2'!AX63:AX63),0) + MAX(SUM('Corrected energy balance step 2'!AW63:AW63) + SUM('Corrected energy balance step 2'!AY63:AZ63),0)</f>
         <v>0</v>
       </c>
-      <c r="J22" s="337">
+      <c r="J22" s="337" t="s">
+        <v>263</v>
+      </c>
+      <c r="K22" s="337">
         <f>SUM('Corrected energy balance step 2'!AU63,'Corrected energy balance step 2'!AZ63)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="337">
+      <c r="L22" s="337">
         <f>'Corrected energy balance step 2'!BM63</f>
         <v>0</v>
       </c>
-      <c r="L22" s="337">
+      <c r="M22" s="337">
         <f>'Corrected energy balance step 2'!BL63</f>
         <v>0</v>
       </c>
-      <c r="M22" s="389">
+      <c r="N22" s="389">
         <f>SUM('Corrected energy balance step 2'!O63,'Corrected energy balance step 2'!U63,'Corrected energy balance step 2'!AT63,'Corrected energy balance step 2'!AW63:AY63,'Corrected energy balance step 2'!BA63,'Corrected energy balance step 2'!BB63:BK63)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="377"/>
       <c r="C23" s="378"/>
       <c r="D23" s="379"/>
@@ -20540,9 +20626,10 @@
       <c r="J23" s="383"/>
       <c r="K23" s="383"/>
       <c r="L23" s="383"/>
-      <c r="M23" s="384"/>
-    </row>
-    <row r="24" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="M23" s="383"/>
+      <c r="N23" s="384"/>
+    </row>
+    <row r="24" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="221" t="s">
         <v>166</v>
       </c>
@@ -20556,9 +20643,10 @@
       <c r="J24" s="385"/>
       <c r="K24" s="385"/>
       <c r="L24" s="385"/>
-      <c r="M24" s="386"/>
-    </row>
-    <row r="25" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="M24" s="385"/>
+      <c r="N24" s="386"/>
+    </row>
+    <row r="25" spans="2:14" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="220"/>
       <c r="C25" s="392" t="s">
         <v>243</v>
@@ -20584,24 +20672,27 @@
         <f>SUM('Corrected energy balance step 2'!U88:AQ88)</f>
         <v>0</v>
       </c>
-      <c r="J25" s="362">
+      <c r="J25" s="362" t="s">
+        <v>263</v>
+      </c>
+      <c r="K25" s="362">
         <f>SUM('Corrected energy balance step 2'!AU88,'Corrected energy balance step 2'!AZ88)</f>
         <v>0</v>
       </c>
-      <c r="K25" s="362">
+      <c r="L25" s="362">
         <f>'Corrected energy balance step 2'!BM88</f>
         <v>0</v>
       </c>
-      <c r="L25" s="362">
+      <c r="M25" s="362">
         <f>'Corrected energy balance step 2'!BL88</f>
         <v>0</v>
       </c>
-      <c r="M25" s="382">
+      <c r="N25" s="382">
         <f>SUM('Corrected energy balance step 2'!O88,'Corrected energy balance step 2'!U88,'Corrected energy balance step 2'!AT88,'Corrected energy balance step 2'!AW88:AY88,'Corrected energy balance step 2'!BA88,'Corrected energy balance step 2'!BB88:BK88)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="75"/>
       <c r="C26" s="76"/>
       <c r="D26" s="228"/>
@@ -20613,7 +20704,8 @@
       <c r="J26" s="390"/>
       <c r="K26" s="390"/>
       <c r="L26" s="390"/>
-      <c r="M26" s="391"/>
+      <c r="M26" s="390"/>
+      <c r="N26" s="391"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28830,8 +28922,8 @@
   </sheetPr>
   <dimension ref="B2:P77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -29904,7 +29996,7 @@
         <v>241</v>
       </c>
       <c r="E50" s="321">
-        <f>'Non-energetic cons analysis'!I19</f>
+        <f>'Non-energetic cons analysis'!J19</f>
         <v>0</v>
       </c>
       <c r="F50" s="216"/>
@@ -29934,7 +30026,7 @@
         <v>241</v>
       </c>
       <c r="E51" s="321">
-        <f>'Non-energetic cons analysis'!J19</f>
+        <f>'Non-energetic cons analysis'!K19</f>
         <v>0</v>
       </c>
       <c r="F51" s="216"/>
@@ -29964,7 +30056,7 @@
         <v>241</v>
       </c>
       <c r="E52" s="321">
-        <f>'Non-energetic cons analysis'!K19</f>
+        <f>'Non-energetic cons analysis'!L19</f>
         <v>0</v>
       </c>
       <c r="F52" s="216"/>
@@ -30437,7 +30529,7 @@
         <v>241</v>
       </c>
       <c r="E76" s="491">
-        <f>'Non-energetic cons analysis'!L19</f>
+        <f>'Non-energetic cons analysis'!M19</f>
         <v>0</v>
       </c>
       <c r="F76" s="492"/>
@@ -30449,7 +30541,7 @@
         <v>495</v>
       </c>
       <c r="L76" s="489" t="e">
-        <f>'Non-energetic cons analysis'!L19/SUM('Non-energetic cons analysis'!D19:L19)</f>
+        <f>'Non-energetic cons analysis'!M19/SUM('Non-energetic cons analysis'!D19:M19)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M76" s="205"/>
@@ -30665,7 +30757,7 @@
   <dimension ref="B2:BO101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="W8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
